--- a/Crosswalk/B8_UDS4_programmatic_crosswalk.xlsx
+++ b/Crosswalk/B8_UDS4_programmatic_crosswalk.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfmurch\Downloads\updated_crosswalks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfmurch\Downloads\Json_SOPS\Crosswalk\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5667" uniqueCount="955">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5732" uniqueCount="964">
   <si>
     <t>TEMPLATE - UDS3 REDCap
 Based on Kansas ADRC implementation at https://naccdata.org/adrc-resources/redcap</t>
@@ -2161,9 +2161,6 @@
     <t>1 &amp; 1</t>
   </si>
   <si>
-    <t>2__3</t>
-  </si>
-  <si>
     <t>ADRC must decide if bilateral mapping is to 2 or 3; SLOWINGFM only maps to 2 or 3 when both SLOWINGL==1 AND SLOWINGR==1</t>
   </si>
   <si>
@@ -2209,9 +2206,6 @@
     <t>SLOWINGFM only maps to 'Not Assessed' when both SLOWINGL=='8 Not assessed' AND SLOWINGR=='8 Not assessed'</t>
   </si>
   <si>
-    <t>IF(SLOWINGL==1 || SLOWINGR==1) {SLOWINGFM=1} ELSEIF(SLOWINGL==8 &amp;&amp; SLOWINGR==8) {SLOWINGFM=8} ELSEIF(SLOWINGL==1 &amp;&amp; SLOWINGR==1) {SLOWINGFM=2__3} ELSE {SLOWINGFM=0}</t>
-  </si>
-  <si>
     <t>ADRC must decide appropriate merging and mapping</t>
   </si>
   <si>
@@ -2245,9 +2239,6 @@
     <t>TREMREST only maps to 'Not Assessed' when both RESTTRL=='8 Not assessed' AND RESTTRR=='8 Not assessed'</t>
   </si>
   <si>
-    <t>IF(RESTTRL==1 || RESTTRR==1) {TREMREST=1} ELSEIF(RESTTRL==8 &amp;&amp; RESTTRR==8) {TREMREST=8} ELSEIF(RESTTRL==1 &amp;&amp; RESTTRR==1) {TREMREST=2__3} ELSE {TREMREST=0}</t>
-  </si>
-  <si>
     <t>2c1 &amp; 2c2</t>
   </si>
   <si>
@@ -2275,21 +2266,12 @@
     <t>RIGIDARM only maps to 'Not Assessed' when both RIGIDL=='8 Not assessed' AND RIGIDR=='8 Not assessed'</t>
   </si>
   <si>
-    <t>IF(RIGIDL==1 || RIGIDR==1) {RIGIDARM=1} ELSEIF(RIGIDL==8 &amp;&amp; RIGIDR==8) {RIGIDARM=8} ELSEIF(RIGIDL==1 &amp;&amp; RIGIDR==1) {RIGIDARM=2__3} ELSE {RIGIDARM=0}</t>
-  </si>
-  <si>
     <t xml:space="preserve">DYSTONL | DYSTONR </t>
   </si>
   <si>
     <t>5j1 &amp; 5j2</t>
   </si>
   <si>
-    <t>IF(DYSTONL==1 || DYSTONR==1) {DYSTONARM=1} ELSEIF(DYSTONL==8 &amp;&amp; DYSTONR==8) {DYSTONARM=8} ELSEIF(DYSTONL==1 &amp;&amp; DYSTONR==1) {DYSTONARM=2__3} ELSE {DYSTONARM=0}</t>
-  </si>
-  <si>
-    <t>IF(DYSTONL==1 || DYSTONR==1) {DYSTONLEG=1} ELSEIF(DYSTONL==8 &amp;&amp; DYSTONR==8) {DYSTONLEG=8} ELSEIF(DYSTONL==1 &amp;&amp; DYSTONR==1) {DYSTONLEG=2__3} ELSE {DYSTONLEG=0}</t>
-  </si>
-  <si>
     <t>Map to UDS4 POSTINST to 0 when UDS3 POSTINST is blank, missing, or NA</t>
   </si>
   <si>
@@ -2335,9 +2317,6 @@
     <t>LIMBAPRAX only maps to 'Not Assessed' when both APRAXL=='8 Not assessed' AND APRAXR=='8 Not assessed'</t>
   </si>
   <si>
-    <t>IF(APRAXL==1 || APRAXR==1) {LIMBAPRAX=1} ELSEIF(APRAXL==8 &amp;&amp; APRAXR==8) {LIMBAPRAX=8} ELSEIF(APRAXL==1 &amp;&amp; APRAXR==1) {LIMBAPRAX=2__3} ELSE {LIMBAPRAX=0}</t>
-  </si>
-  <si>
     <t xml:space="preserve">CORTVISL | CORTVISR </t>
   </si>
   <si>
@@ -2368,9 +2347,6 @@
     <t>VFIELDCUT only maps to 'Not Assessed' when both CORTVISL=='8 Not assessed' AND CORTVISR=='8 Not assessed'</t>
   </si>
   <si>
-    <t>IF(CORTVISL==1 || CORTVISR==1) {VFIELDCUT=1} ELSEIF(CORTVISL==8 &amp;&amp; CORTVISR==8) {VFIELDCUT=8} ELSEIF(CORTVISL==1 &amp;&amp; CORTVISR==1) {VFIELDCUT=2__3} ELSE {VFIELDCUT=0}</t>
-  </si>
-  <si>
     <t xml:space="preserve">ATAXL | ATAXR </t>
   </si>
   <si>
@@ -2401,9 +2377,6 @@
     <t>LIMBATAX only maps to 'Not Assessed' when both ATAXL=='8 Not assessed' AND ATAXR=='8 Not assessed'</t>
   </si>
   <si>
-    <t>IF(ATAXL==1 || ATAXR==1) {LIMBATAX=1} ELSEIF(ATAXL==8 &amp;&amp; ATAXR==8) {LIMBATAX=8} ELSEIF(ATAXL==1 &amp;&amp; ATAXR==1) {LIMBATAX=2__3} ELSE {LIMBATAX=0}</t>
-  </si>
-  <si>
     <t xml:space="preserve">MYOCLLT | MYOCLRT </t>
   </si>
   <si>
@@ -2432,9 +2405,6 @@
   </si>
   <si>
     <t>MYOCLON only maps to 'Not Assessed' when both MYOCLLT=='8 Not assessed' AND MYOCLRT=='8 Not assessed'</t>
-  </si>
-  <si>
-    <t>IF(MYOCLLT==1 || MYOCLRT==1) {MYOCLON=1} ELSEIF(MYOCLLT==8 &amp;&amp; MYOCLRT==8) {MYOCLON=8} ELSEIF(MYOCLLT==1 &amp;&amp; MYOCLRT==1) {MYOCLON=2__3} ELSE {MYOCLON=0}</t>
   </si>
   <si>
     <t xml:space="preserve">SOMATL | SOMATR </t>
@@ -4059,6 +4029,63 @@
   </si>
   <si>
     <t>ADDITIONAL MERGINGS AND COMBINATION MAPPINGS MAY APPLY AND SHOULD BE REVIEWED BY THE ADRC</t>
+  </si>
+  <si>
+    <t>IF(SLOWINGL==1 || SLOWINGR==1) {SLOWINGFM=1} ELSEIF(SLOWINGL==8 &amp;&amp; SLOWINGR==8) {SLOWINGFM=8} ELSEIF(SLOWINGL==1 &amp;&amp; SLOWINGR==1) {SLOWINGFM=2} ELSE {SLOWINGFM=0}</t>
+  </si>
+  <si>
+    <t>IF(SLOWINGL==1 || SLOWINGR==1) {SLOWINGFM=1} ELSEIF(SLOWINGL==8 &amp;&amp; SLOWINGR==8) {SLOWINGFM=8} ELSEIF(SLOWINGL==1 &amp;&amp; SLOWINGR==1) {SLOWINGFM=3} ELSE {SLOWINGFM=0}</t>
+  </si>
+  <si>
+    <t>IF(RESTTRL==1 || RESTTRR==1) {TREMREST=1} ELSEIF(RESTTRL==8 &amp;&amp; RESTTRR==8) {TREMREST=8} ELSEIF(RESTTRL==1 &amp;&amp; RESTTRR==1) {TREMREST=2} ELSE {TREMREST=0}</t>
+  </si>
+  <si>
+    <t>IF(RESTTRL==1 || RESTTRR==1) {TREMREST=1} ELSEIF(RESTTRL==8 &amp;&amp; RESTTRR==8) {TREMREST=8} ELSEIF(RESTTRL==1 &amp;&amp; RESTTRR==1) {TREMREST=3} ELSE {TREMREST=0}</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>IF(RIGIDL==1 || RIGIDR==1) {RIGIDARM=1} ELSEIF(RIGIDL==8 &amp;&amp; RIGIDR==8) {RIGIDARM=8} ELSEIF(RIGIDL==1 &amp;&amp; RIGIDR==1) {RIGIDARM=2} ELSE {RIGIDARM=0}</t>
+  </si>
+  <si>
+    <t>IF(RIGIDL==1 || RIGIDR==1) {RIGIDARM=1} ELSEIF(RIGIDL==8 &amp;&amp; RIGIDR==8) {RIGIDARM=8} ELSEIF(RIGIDL==1 &amp;&amp; RIGIDR==1) {RIGIDARM=3} ELSE {RIGIDARM=0}</t>
+  </si>
+  <si>
+    <t>IF(DYSTONL==1 || DYSTONR==1) {DYSTONARM=1} ELSEIF(DYSTONL==8 &amp;&amp; DYSTONR==8) {DYSTONARM=8} ELSEIF(DYSTONL==1 &amp;&amp; DYSTONR==1) {DYSTONARM=2} ELSE {DYSTONARM=0}</t>
+  </si>
+  <si>
+    <t>IF(DYSTONL==1 || DYSTONR==1) {DYSTONARM=1} ELSEIF(DYSTONL==8 &amp;&amp; DYSTONR==8) {DYSTONARM=8} ELSEIF(DYSTONL==1 &amp;&amp; DYSTONR==1) {DYSTONARM=3} ELSE {DYSTONARM=0}</t>
+  </si>
+  <si>
+    <t>IF(DYSTONL==1 || DYSTONR==1) {DYSTONLEG=1} ELSEIF(DYSTONL==8 &amp;&amp; DYSTONR==8) {DYSTONLEG=8} ELSEIF(DYSTONL==1 &amp;&amp; DYSTONR==1) {DYSTONLEG=3} ELSE {DYSTONLEG=0}</t>
+  </si>
+  <si>
+    <t>IF(DYSTONL==1 || DYSTONR==1) {DYSTONLEG=1} ELSEIF(DYSTONL==8 &amp;&amp; DYSTONR==8) {DYSTONLEG=8} ELSEIF(DYSTONL==1 &amp;&amp; DYSTONR==1) {DYSTONLEG=2} ELSE {DYSTONLEG=0}</t>
+  </si>
+  <si>
+    <t>IF(APRAXL==1 || APRAXR==1) {LIMBAPRAX=1} ELSEIF(APRAXL==8 &amp;&amp; APRAXR==8) {LIMBAPRAX=8} ELSEIF(APRAXL==1 &amp;&amp; APRAXR==1) {LIMBAPRAX=2} ELSE {LIMBAPRAX=0}</t>
+  </si>
+  <si>
+    <t>IF(APRAXL==1 || APRAXR==1) {LIMBAPRAX=1} ELSEIF(APRAXL==8 &amp;&amp; APRAXR==8) {LIMBAPRAX=8} ELSEIF(APRAXL==1 &amp;&amp; APRAXR==1) {LIMBAPRAX=3} ELSE {LIMBAPRAX=0}</t>
+  </si>
+  <si>
+    <t>IF(CORTVISL==1 || CORTVISR==1) {VFIELDCUT=1} ELSEIF(CORTVISL==8 &amp;&amp; CORTVISR==8) {VFIELDCUT=8} ELSEIF(CORTVISL==1 &amp;&amp; CORTVISR==1) {VFIELDCUT=3} ELSE {VFIELDCUT=0}</t>
+  </si>
+  <si>
+    <t>IF(CORTVISL==1 || CORTVISR==1) {VFIELDCUT=1} ELSEIF(CORTVISL==8 &amp;&amp; CORTVISR==8) {VFIELDCUT=8} ELSEIF(CORTVISL==1 &amp;&amp; CORTVISR==1) {VFIELDCUT=2} ELSE {VFIELDCUT=0}</t>
+  </si>
+  <si>
+    <t>IF(ATAXL==1 || ATAXR==1) {LIMBATAX=1} ELSEIF(ATAXL==8 &amp;&amp; ATAXR==8) {LIMBATAX=8} ELSEIF(ATAXL==1 &amp;&amp; ATAXR==1) {LIMBATAX=2} ELSE {LIMBATAX=0}</t>
+  </si>
+  <si>
+    <t>IF(ATAXL==1 || ATAXR==1) {LIMBATAX=1} ELSEIF(ATAXL==8 &amp;&amp; ATAXR==8) {LIMBATAX=8} ELSEIF(ATAXL==1 &amp;&amp; ATAXR==1) {LIMBATAX=3} ELSE {LIMBATAX=0}</t>
+  </si>
+  <si>
+    <t>IF(MYOCLLT==1 || MYOCLRT==1) {MYOCLON=1} ELSEIF(MYOCLLT==8 &amp;&amp; MYOCLRT==8) {MYOCLON=8} ELSEIF(MYOCLLT==1 &amp;&amp; MYOCLRT==1) {MYOCLON=2} ELSE {MYOCLON=0}</t>
+  </si>
+  <si>
+    <t>IF(MYOCLLT==1 || MYOCLRT==1) {MYOCLON=1} ELSEIF(MYOCLLT==8 &amp;&amp; MYOCLRT==8) {MYOCLON=8} ELSEIF(MYOCLLT==1 &amp;&amp; MYOCLRT==1) {MYOCLON=3} ELSE {MYOCLON=0}</t>
   </si>
 </sst>
 </file>
@@ -4609,36 +4636,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -4666,6 +4663,36 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Excel Built-in Check Cell" xfId="1"/>
@@ -5053,21 +5080,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="E1" s="63" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="E1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="I1" s="63" t="s">
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="I1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -5099,38 +5126,38 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="76" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
       <c r="D3" s="34"/>
-      <c r="E3" s="61" t="s">
+      <c r="E3" s="76" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="32" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>869</v>
+        <v>859</v>
       </c>
       <c r="H3" s="34"/>
-      <c r="I3" s="61" t="s">
+      <c r="I3" s="76" t="s">
         <v>5</v>
       </c>
       <c r="J3" s="32" t="s">
         <v>7</v>
       </c>
       <c r="K3" s="33" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="117.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="61"/>
+      <c r="A4" s="76"/>
       <c r="B4" s="35" t="s">
         <v>8</v>
       </c>
@@ -5138,7 +5165,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="34"/>
-      <c r="E4" s="61"/>
+      <c r="E4" s="76"/>
       <c r="F4" s="35" t="s">
         <v>8</v>
       </c>
@@ -5146,7 +5173,7 @@
         <v>9</v>
       </c>
       <c r="H4" s="34"/>
-      <c r="I4" s="61"/>
+      <c r="I4" s="76"/>
       <c r="J4" s="35" t="s">
         <v>10</v>
       </c>
@@ -5155,8 +5182,8 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="61" t="s">
-        <v>871</v>
+      <c r="A5" s="76" t="s">
+        <v>861</v>
       </c>
       <c r="B5" s="32" t="s">
         <v>12</v>
@@ -5165,8 +5192,8 @@
         <v>13</v>
       </c>
       <c r="D5" s="34"/>
-      <c r="E5" s="61" t="s">
-        <v>871</v>
+      <c r="E5" s="76" t="s">
+        <v>861</v>
       </c>
       <c r="F5" s="32" t="s">
         <v>12</v>
@@ -5175,8 +5202,8 @@
         <v>13</v>
       </c>
       <c r="H5" s="34"/>
-      <c r="I5" s="61" t="s">
-        <v>871</v>
+      <c r="I5" s="76" t="s">
+        <v>861</v>
       </c>
       <c r="J5" s="32" t="s">
         <v>14</v>
@@ -5186,57 +5213,57 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="61"/>
+      <c r="A6" s="76"/>
       <c r="B6" s="37" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
       <c r="D6" s="34"/>
-      <c r="E6" s="61"/>
+      <c r="E6" s="76"/>
       <c r="F6" s="37" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="38" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
       <c r="H6" s="34"/>
-      <c r="I6" s="61"/>
+      <c r="I6" s="76"/>
       <c r="J6" s="37" t="s">
         <v>17</v>
       </c>
       <c r="K6" s="38" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="61"/>
+      <c r="A7" s="76"/>
       <c r="B7" s="39" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
       <c r="D7" s="34"/>
-      <c r="E7" s="61"/>
+      <c r="E7" s="76"/>
       <c r="F7" s="39" t="s">
         <v>18</v>
       </c>
       <c r="G7" s="40" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
       <c r="H7" s="34"/>
-      <c r="I7" s="61"/>
+      <c r="I7" s="76"/>
       <c r="J7" s="39" t="s">
         <v>18</v>
       </c>
       <c r="K7" s="40" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="61"/>
+      <c r="A8" s="76"/>
       <c r="B8" s="37" t="s">
         <v>19</v>
       </c>
@@ -5244,7 +5271,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="34"/>
-      <c r="E8" s="61"/>
+      <c r="E8" s="76"/>
       <c r="F8" s="37" t="s">
         <v>19</v>
       </c>
@@ -5252,7 +5279,7 @@
         <v>21</v>
       </c>
       <c r="H8" s="34"/>
-      <c r="I8" s="61"/>
+      <c r="I8" s="76"/>
       <c r="J8" s="37" t="s">
         <v>19</v>
       </c>
@@ -5261,32 +5288,32 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="61"/>
+      <c r="A9" s="76"/>
       <c r="B9" s="39" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
       <c r="D9" s="34"/>
-      <c r="E9" s="61"/>
+      <c r="E9" s="76"/>
       <c r="F9" s="39" t="s">
         <v>23</v>
       </c>
       <c r="G9" s="40" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="H9" s="34"/>
-      <c r="I9" s="61"/>
+      <c r="I9" s="76"/>
       <c r="J9" s="39" t="s">
         <v>23</v>
       </c>
       <c r="K9" s="40" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="61"/>
+      <c r="A10" s="76"/>
       <c r="B10" s="37" t="s">
         <v>24</v>
       </c>
@@ -5294,24 +5321,24 @@
         <v>25</v>
       </c>
       <c r="D10" s="34"/>
-      <c r="E10" s="61"/>
+      <c r="E10" s="76"/>
       <c r="F10" s="37" t="s">
         <v>24</v>
       </c>
       <c r="G10" s="38" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="H10" s="34"/>
-      <c r="I10" s="61"/>
+      <c r="I10" s="76"/>
       <c r="J10" s="37" t="s">
         <v>24</v>
       </c>
       <c r="K10" s="38" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="61"/>
+      <c r="A11" s="76"/>
       <c r="B11" s="39" t="s">
         <v>26</v>
       </c>
@@ -5319,7 +5346,7 @@
         <v>27</v>
       </c>
       <c r="D11" s="34"/>
-      <c r="E11" s="61"/>
+      <c r="E11" s="76"/>
       <c r="F11" s="39" t="s">
         <v>26</v>
       </c>
@@ -5327,7 +5354,7 @@
         <v>27</v>
       </c>
       <c r="H11" s="34"/>
-      <c r="I11" s="61"/>
+      <c r="I11" s="76"/>
       <c r="J11" s="39" t="s">
         <v>26</v>
       </c>
@@ -5336,83 +5363,83 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="61"/>
+      <c r="A12" s="76"/>
       <c r="B12" s="37" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="D12" s="34"/>
-      <c r="E12" s="61"/>
+      <c r="E12" s="76"/>
       <c r="F12" s="37" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
       <c r="G12" s="38" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="H12" s="34"/>
-      <c r="I12" s="61"/>
+      <c r="I12" s="76"/>
       <c r="J12" s="37" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
       <c r="K12" s="38" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="61"/>
+      <c r="A13" s="76"/>
       <c r="B13" s="39" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="D13" s="34"/>
-      <c r="E13" s="61"/>
+      <c r="E13" s="76"/>
       <c r="F13" s="39" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="G13" s="41" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="H13" s="34"/>
-      <c r="I13" s="61"/>
+      <c r="I13" s="76"/>
       <c r="J13" s="39" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="K13" s="41" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="132.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="61"/>
+      <c r="A14" s="76"/>
       <c r="B14" s="35" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>883</v>
+        <v>873</v>
       </c>
       <c r="D14" s="34"/>
-      <c r="E14" s="61"/>
+      <c r="E14" s="76"/>
       <c r="F14" s="35" t="s">
         <v>28</v>
       </c>
       <c r="G14" s="42" t="s">
-        <v>883</v>
+        <v>873</v>
       </c>
       <c r="H14" s="34"/>
-      <c r="I14" s="61"/>
+      <c r="I14" s="76"/>
       <c r="J14" s="35" t="s">
         <v>28</v>
       </c>
       <c r="K14" s="42" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="61" t="s">
-        <v>885</v>
+      <c r="A15" s="76" t="s">
+        <v>875</v>
       </c>
       <c r="B15" s="32" t="s">
         <v>112</v>
@@ -5421,8 +5448,8 @@
         <v>113</v>
       </c>
       <c r="D15" s="34"/>
-      <c r="E15" s="61" t="s">
-        <v>885</v>
+      <c r="E15" s="76" t="s">
+        <v>875</v>
       </c>
       <c r="F15" s="32" t="s">
         <v>114</v>
@@ -5431,8 +5458,8 @@
         <v>29</v>
       </c>
       <c r="H15" s="34"/>
-      <c r="I15" s="61" t="s">
-        <v>885</v>
+      <c r="I15" s="76" t="s">
+        <v>875</v>
       </c>
       <c r="J15" s="32" t="s">
         <v>115</v>
@@ -5442,32 +5469,32 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="61"/>
+      <c r="A16" s="76"/>
       <c r="B16" s="37" t="s">
         <v>116</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
       <c r="D16" s="34"/>
-      <c r="E16" s="61"/>
+      <c r="E16" s="76"/>
       <c r="F16" s="37" t="s">
         <v>117</v>
       </c>
       <c r="G16" s="38" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="H16" s="34"/>
-      <c r="I16" s="61"/>
+      <c r="I16" s="76"/>
       <c r="J16" s="37" t="s">
         <v>118</v>
       </c>
       <c r="K16" s="38" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="61"/>
+      <c r="A17" s="76"/>
       <c r="B17" s="39" t="s">
         <v>30</v>
       </c>
@@ -5475,7 +5502,7 @@
         <v>31</v>
       </c>
       <c r="D17" s="34"/>
-      <c r="E17" s="61"/>
+      <c r="E17" s="76"/>
       <c r="F17" s="39" t="s">
         <v>30</v>
       </c>
@@ -5483,7 +5510,7 @@
         <v>32</v>
       </c>
       <c r="H17" s="34"/>
-      <c r="I17" s="61"/>
+      <c r="I17" s="76"/>
       <c r="J17" s="39" t="s">
         <v>30</v>
       </c>
@@ -5492,23 +5519,23 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="61"/>
+      <c r="A18" s="76"/>
       <c r="B18" s="43" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
       <c r="D18" s="34"/>
-      <c r="E18" s="61"/>
+      <c r="E18" s="76"/>
       <c r="F18" s="43" t="s">
         <v>34</v>
       </c>
       <c r="G18" s="38" t="s">
-        <v>890</v>
+        <v>880</v>
       </c>
       <c r="H18" s="34"/>
-      <c r="I18" s="61"/>
+      <c r="I18" s="76"/>
       <c r="J18" s="43" t="s">
         <v>34</v>
       </c>
@@ -5517,53 +5544,53 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="61"/>
+      <c r="A19" s="76"/>
       <c r="B19" s="39" t="s">
-        <v>891</v>
+        <v>881</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
       <c r="D19" s="34"/>
-      <c r="E19" s="61"/>
+      <c r="E19" s="76"/>
       <c r="F19" s="39" t="s">
-        <v>891</v>
+        <v>881</v>
       </c>
       <c r="G19" s="40" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
       <c r="H19" s="34"/>
-      <c r="I19" s="61"/>
+      <c r="I19" s="76"/>
       <c r="J19" s="39" t="s">
-        <v>891</v>
+        <v>881</v>
       </c>
       <c r="K19" s="40" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="61"/>
+      <c r="A20" s="76"/>
       <c r="B20" s="35" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="D20" s="34"/>
-      <c r="E20" s="61"/>
+      <c r="E20" s="76"/>
       <c r="F20" s="35" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="G20" s="36" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
       <c r="H20" s="34"/>
-      <c r="I20" s="61"/>
+      <c r="I20" s="76"/>
       <c r="J20" s="35" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="K20" s="36" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -5630,7 +5657,7 @@
       <c r="C25" s="34"/>
       <c r="D25" s="34"/>
       <c r="E25" s="5" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="F25" s="45"/>
       <c r="G25" s="44"/>
@@ -5656,23 +5683,23 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E27" s="5" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A5:A14"/>
+    <mergeCell ref="E5:E14"/>
+    <mergeCell ref="I5:I14"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="E15:E20"/>
+    <mergeCell ref="I15:I20"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="I3:I4"/>
-    <mergeCell ref="A5:A14"/>
-    <mergeCell ref="E5:E14"/>
-    <mergeCell ref="I5:I14"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="E15:E20"/>
-    <mergeCell ref="I15:I20"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5707,31 +5734,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64" t="s">
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
     </row>
     <row r="2" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
@@ -9068,31 +9095,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="65" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65" t="s">
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
     </row>
     <row r="2" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
@@ -9731,7 +9758,7 @@
         <v>287</v>
       </c>
       <c r="O12" s="16" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="P12" s="16" t="s">
         <v>63</v>
@@ -9790,7 +9817,7 @@
         <v>127</v>
       </c>
       <c r="O13" s="15" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="P13" s="15" t="s">
         <v>63</v>
@@ -9851,7 +9878,7 @@
         <v>277</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
       <c r="P14" s="15" t="s">
         <v>63</v>
@@ -9912,7 +9939,7 @@
         <v>274</v>
       </c>
       <c r="O15" s="15" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
       <c r="P15" s="15" t="s">
         <v>63</v>
@@ -9973,7 +10000,7 @@
         <v>267</v>
       </c>
       <c r="O16" s="15" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
       <c r="P16" s="15" t="s">
         <v>63</v>
@@ -10034,7 +10061,7 @@
         <v>260</v>
       </c>
       <c r="O17" s="15" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
       <c r="P17" s="15" t="s">
         <v>63</v>
@@ -10095,7 +10122,7 @@
         <v>270</v>
       </c>
       <c r="O18" s="15" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
       <c r="P18" s="15" t="s">
         <v>63</v>
@@ -10156,7 +10183,7 @@
         <v>263</v>
       </c>
       <c r="O19" s="15" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="P19" s="15" t="s">
         <v>63</v>
@@ -10217,7 +10244,7 @@
         <v>256</v>
       </c>
       <c r="O20" s="15" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
       <c r="P20" s="15" t="s">
         <v>63</v>
@@ -10276,7 +10303,7 @@
         <v>253</v>
       </c>
       <c r="O21" s="15" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="P21" s="15" t="s">
         <v>63</v>
@@ -10337,7 +10364,7 @@
         <v>250</v>
       </c>
       <c r="O22" s="15" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
       <c r="P22" s="15" t="s">
         <v>63</v>
@@ -10398,7 +10425,7 @@
         <v>247</v>
       </c>
       <c r="O23" s="15" t="s">
-        <v>784</v>
+        <v>774</v>
       </c>
       <c r="P23" s="15" t="s">
         <v>63</v>
@@ -10457,7 +10484,7 @@
         <v>128</v>
       </c>
       <c r="O24" s="15" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="P24" s="15" t="s">
         <v>63</v>
@@ -10516,7 +10543,7 @@
         <v>242</v>
       </c>
       <c r="O25" s="15" t="s">
-        <v>785</v>
+        <v>775</v>
       </c>
       <c r="P25" s="15" t="s">
         <v>63</v>
@@ -10575,7 +10602,7 @@
         <v>239</v>
       </c>
       <c r="O26" s="15" t="s">
-        <v>786</v>
+        <v>776</v>
       </c>
       <c r="P26" s="15" t="s">
         <v>63</v>
@@ -10634,7 +10661,7 @@
         <v>236</v>
       </c>
       <c r="O27" s="15" t="s">
-        <v>787</v>
+        <v>777</v>
       </c>
       <c r="P27" s="15" t="s">
         <v>63</v>
@@ -10695,7 +10722,7 @@
         <v>230</v>
       </c>
       <c r="O28" s="15" t="s">
-        <v>788</v>
+        <v>778</v>
       </c>
       <c r="P28" s="15" t="s">
         <v>63</v>
@@ -10756,7 +10783,7 @@
         <v>223</v>
       </c>
       <c r="O29" s="15" t="s">
-        <v>789</v>
+        <v>779</v>
       </c>
       <c r="P29" s="15" t="s">
         <v>63</v>
@@ -10815,7 +10842,7 @@
         <v>233</v>
       </c>
       <c r="O30" s="15" t="s">
-        <v>790</v>
+        <v>780</v>
       </c>
       <c r="P30" s="15" t="s">
         <v>63</v>
@@ -10876,7 +10903,7 @@
         <v>226</v>
       </c>
       <c r="O31" s="15" t="s">
-        <v>791</v>
+        <v>781</v>
       </c>
       <c r="P31" s="15" t="s">
         <v>63</v>
@@ -10937,7 +10964,7 @@
         <v>219</v>
       </c>
       <c r="O32" s="15" t="s">
-        <v>792</v>
+        <v>782</v>
       </c>
       <c r="P32" s="15" t="s">
         <v>63</v>
@@ -10996,7 +11023,7 @@
         <v>216</v>
       </c>
       <c r="O33" s="15" t="s">
-        <v>793</v>
+        <v>783</v>
       </c>
       <c r="P33" s="15" t="s">
         <v>63</v>
@@ -11055,7 +11082,7 @@
         <v>213</v>
       </c>
       <c r="O34" s="15" t="s">
-        <v>854</v>
+        <v>844</v>
       </c>
       <c r="P34" s="15" t="s">
         <v>63</v>
@@ -11114,7 +11141,7 @@
         <v>209</v>
       </c>
       <c r="O35" s="15" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="P35" s="15" t="s">
         <v>63</v>
@@ -11175,7 +11202,7 @@
         <v>205</v>
       </c>
       <c r="O36" s="15" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
       <c r="P36" s="15" t="s">
         <v>63</v>
@@ -11234,7 +11261,7 @@
         <v>202</v>
       </c>
       <c r="O37" s="15" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
       <c r="P37" s="15" t="s">
         <v>63</v>
@@ -11295,7 +11322,7 @@
         <v>199</v>
       </c>
       <c r="O38" s="15" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
       <c r="P38" s="15" t="s">
         <v>63</v>
@@ -11356,7 +11383,7 @@
         <v>195</v>
       </c>
       <c r="O39" s="15" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
       <c r="P39" s="15" t="s">
         <v>63</v>
@@ -11417,7 +11444,7 @@
         <v>192</v>
       </c>
       <c r="O40" s="15" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
       <c r="P40" s="15" t="s">
         <v>63</v>
@@ -11476,7 +11503,7 @@
         <v>185</v>
       </c>
       <c r="O41" s="15" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="P41" s="15" t="s">
         <v>63</v>
@@ -11537,7 +11564,7 @@
         <v>179</v>
       </c>
       <c r="O42" s="15" t="s">
-        <v>801</v>
+        <v>791</v>
       </c>
       <c r="P42" s="15" t="s">
         <v>63</v>
@@ -11598,7 +11625,7 @@
         <v>172</v>
       </c>
       <c r="O43" s="15" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
       <c r="P43" s="15" t="s">
         <v>63</v>
@@ -11659,7 +11686,7 @@
         <v>165</v>
       </c>
       <c r="O44" s="15" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="P44" s="15" t="s">
         <v>63</v>
@@ -11720,7 +11747,7 @@
         <v>157</v>
       </c>
       <c r="O45" s="15" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
       <c r="P45" s="15" t="s">
         <v>63</v>
@@ -11781,7 +11808,7 @@
         <v>188</v>
       </c>
       <c r="O46" s="15" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="P46" s="15" t="s">
         <v>63</v>
@@ -11840,7 +11867,7 @@
         <v>182</v>
       </c>
       <c r="O47" s="15" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
       <c r="P47" s="15" t="s">
         <v>63</v>
@@ -11901,7 +11928,7 @@
         <v>175</v>
       </c>
       <c r="O48" s="15" t="s">
-        <v>807</v>
+        <v>797</v>
       </c>
       <c r="P48" s="15" t="s">
         <v>63</v>
@@ -11962,7 +11989,7 @@
         <v>168</v>
       </c>
       <c r="O49" s="15" t="s">
-        <v>808</v>
+        <v>798</v>
       </c>
       <c r="P49" s="15" t="s">
         <v>63</v>
@@ -12023,7 +12050,7 @@
         <v>161</v>
       </c>
       <c r="O50" s="15" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
       <c r="P50" s="15" t="s">
         <v>63</v>
@@ -12084,7 +12111,7 @@
         <v>153</v>
       </c>
       <c r="O51" s="15" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="P51" s="15" t="s">
         <v>63</v>
@@ -12143,7 +12170,7 @@
         <v>147</v>
       </c>
       <c r="O52" s="15" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
       <c r="P52" s="15" t="s">
         <v>63</v>
@@ -12204,7 +12231,7 @@
         <v>142</v>
       </c>
       <c r="O53" s="15" t="s">
-        <v>812</v>
+        <v>802</v>
       </c>
       <c r="P53" s="15" t="s">
         <v>63</v>
@@ -12263,7 +12290,7 @@
         <v>139</v>
       </c>
       <c r="O54" s="15" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
       <c r="P54" s="15" t="s">
         <v>63</v>
@@ -12322,7 +12349,7 @@
         <v>131</v>
       </c>
       <c r="O55" s="15" t="s">
-        <v>813</v>
+        <v>803</v>
       </c>
       <c r="P55" s="15" t="s">
         <v>60</v>
@@ -12385,31 +12412,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64" t="s">
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
     </row>
     <row r="2" spans="1:37" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
@@ -12821,7 +12848,7 @@
         <v>73</v>
       </c>
       <c r="O8" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
       <c r="P8" s="16" t="s">
         <v>74</v>
@@ -12894,7 +12921,7 @@
         <v>76</v>
       </c>
       <c r="O9" t="s">
-        <v>899</v>
+        <v>889</v>
       </c>
       <c r="P9" s="16" t="s">
         <v>60</v>
@@ -12966,7 +12993,7 @@
         <v>77</v>
       </c>
       <c r="O10" t="s">
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="P10" s="16" t="s">
         <v>63</v>
@@ -13038,7 +13065,7 @@
         <v>80</v>
       </c>
       <c r="O11" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
       <c r="P11" s="16" t="s">
         <v>63</v>
@@ -13110,7 +13137,7 @@
         <v>83</v>
       </c>
       <c r="O12" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
       <c r="P12" s="16" t="s">
         <v>63</v>
@@ -13182,7 +13209,7 @@
         <v>87</v>
       </c>
       <c r="O13" t="s">
-        <v>903</v>
+        <v>893</v>
       </c>
       <c r="P13" s="16" t="s">
         <v>63</v>
@@ -13252,7 +13279,7 @@
         <v>127</v>
       </c>
       <c r="O14" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="P14" s="15" t="s">
         <v>63</v>
@@ -13264,7 +13291,7 @@
         <v>468</v>
       </c>
       <c r="S14" s="52" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
       <c r="T14" s="16"/>
       <c r="U14" s="16"/>
@@ -13326,7 +13353,7 @@
         <v>277</v>
       </c>
       <c r="O15" t="s">
-        <v>850</v>
+        <v>840</v>
       </c>
       <c r="P15" s="15" t="s">
         <v>63</v>
@@ -13401,7 +13428,7 @@
         <v>128</v>
       </c>
       <c r="O16" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
       <c r="P16" s="15" t="s">
         <v>63</v>
@@ -13476,7 +13503,7 @@
         <v>242</v>
       </c>
       <c r="O17" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
       <c r="P17" s="15" t="s">
         <v>63</v>
@@ -13550,7 +13577,7 @@
         <v>239</v>
       </c>
       <c r="O18" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
       <c r="P18" s="15" t="s">
         <v>63</v>
@@ -13623,7 +13650,7 @@
         <v>462</v>
       </c>
       <c r="O19" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
       <c r="P19" s="15" t="s">
         <v>63</v>
@@ -13696,7 +13723,7 @@
         <v>460</v>
       </c>
       <c r="O20" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="P20" s="15" t="s">
         <v>63</v>
@@ -13771,7 +13798,7 @@
         <v>458</v>
       </c>
       <c r="O21" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="P21" s="15" t="s">
         <v>63</v>
@@ -13844,7 +13871,7 @@
         <v>456</v>
       </c>
       <c r="O22" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
       <c r="P22" s="15" t="s">
         <v>63</v>
@@ -13877,7 +13904,7 @@
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="60" t="s">
-        <v>911</v>
+        <v>901</v>
       </c>
       <c r="B23" s="20" t="s">
         <v>454</v>
@@ -13919,7 +13946,7 @@
         <v>455</v>
       </c>
       <c r="O23" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
       <c r="P23" s="15" t="s">
         <v>63</v>
@@ -13952,7 +13979,7 @@
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="54" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
       <c r="B24" s="20" t="s">
         <v>454</v>
@@ -13994,7 +14021,7 @@
         <v>453</v>
       </c>
       <c r="O24" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
       <c r="P24" s="15" t="s">
         <v>63</v>
@@ -14067,7 +14094,7 @@
         <v>451</v>
       </c>
       <c r="O25" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
       <c r="P25" s="15" t="s">
         <v>63</v>
@@ -14140,7 +14167,7 @@
         <v>449</v>
       </c>
       <c r="O26" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
       <c r="P26" s="15" t="s">
         <v>63</v>
@@ -14212,7 +14239,7 @@
         <v>447</v>
       </c>
       <c r="O27" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="P27" s="15" t="s">
         <v>63</v>
@@ -14287,7 +14314,7 @@
         <v>446</v>
       </c>
       <c r="O28" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="P28" s="15" t="s">
         <v>63</v>
@@ -14357,10 +14384,10 @@
         <v>132</v>
       </c>
       <c r="N29" s="53" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
       <c r="O29" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="P29" s="15" t="s">
         <v>63</v>
@@ -14433,7 +14460,7 @@
         <v>443</v>
       </c>
       <c r="O30" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
       <c r="P30" s="15" t="s">
         <v>63</v>
@@ -14506,7 +14533,7 @@
         <v>4</v>
       </c>
       <c r="O31" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
       <c r="P31" s="15" t="s">
         <v>63</v>
@@ -14581,7 +14608,7 @@
         <v>439</v>
       </c>
       <c r="O32" t="s">
-        <v>815</v>
+        <v>805</v>
       </c>
       <c r="P32" s="15" t="s">
         <v>63</v>
@@ -14654,7 +14681,7 @@
         <v>437</v>
       </c>
       <c r="O33" t="s">
-        <v>816</v>
+        <v>806</v>
       </c>
       <c r="P33" s="15" t="s">
         <v>63</v>
@@ -14727,7 +14754,7 @@
         <v>435</v>
       </c>
       <c r="O34" t="s">
-        <v>817</v>
+        <v>807</v>
       </c>
       <c r="P34" s="15" t="s">
         <v>63</v>
@@ -14802,7 +14829,7 @@
         <v>433</v>
       </c>
       <c r="O35" t="s">
-        <v>818</v>
+        <v>808</v>
       </c>
       <c r="P35" s="15" t="s">
         <v>63</v>
@@ -14877,7 +14904,7 @@
         <v>431</v>
       </c>
       <c r="O36" t="s">
-        <v>819</v>
+        <v>809</v>
       </c>
       <c r="P36" s="15" t="s">
         <v>63</v>
@@ -14952,7 +14979,7 @@
         <v>429</v>
       </c>
       <c r="O37" t="s">
-        <v>820</v>
+        <v>810</v>
       </c>
       <c r="P37" s="15" t="s">
         <v>63</v>
@@ -15027,7 +15054,7 @@
         <v>424</v>
       </c>
       <c r="O38" t="s">
-        <v>821</v>
+        <v>811</v>
       </c>
       <c r="P38" s="15" t="s">
         <v>63</v>
@@ -15100,7 +15127,7 @@
         <v>422</v>
       </c>
       <c r="O39" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
       <c r="P39" s="15" t="s">
         <v>63</v>
@@ -15175,7 +15202,7 @@
         <v>420</v>
       </c>
       <c r="O40" t="s">
-        <v>823</v>
+        <v>813</v>
       </c>
       <c r="P40" s="15" t="s">
         <v>63</v>
@@ -15245,7 +15272,7 @@
         <v>418</v>
       </c>
       <c r="O41" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
       <c r="P41" s="15" t="s">
         <v>63</v>
@@ -15315,7 +15342,7 @@
         <v>416</v>
       </c>
       <c r="O42" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
       <c r="P42" s="15" t="s">
         <v>63</v>
@@ -15385,7 +15412,7 @@
         <v>414</v>
       </c>
       <c r="O43" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
       <c r="P43" s="15" t="s">
         <v>63</v>
@@ -15455,7 +15482,7 @@
         <v>412</v>
       </c>
       <c r="O44" t="s">
-        <v>827</v>
+        <v>817</v>
       </c>
       <c r="P44" s="15" t="s">
         <v>63</v>
@@ -15525,7 +15552,7 @@
         <v>410</v>
       </c>
       <c r="O45" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="P45" s="15" t="s">
         <v>63</v>
@@ -15595,7 +15622,7 @@
         <v>408</v>
       </c>
       <c r="O46" t="s">
-        <v>829</v>
+        <v>819</v>
       </c>
       <c r="P46" s="15" t="s">
         <v>63</v>
@@ -15667,7 +15694,7 @@
         <v>407</v>
       </c>
       <c r="O47" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
       <c r="P47" s="15" t="s">
         <v>63</v>
@@ -15739,7 +15766,7 @@
         <v>406</v>
       </c>
       <c r="O48" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="P48" s="15" t="s">
         <v>63</v>
@@ -15811,7 +15838,7 @@
         <v>5</v>
       </c>
       <c r="O49" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
       <c r="P49" s="15" t="s">
         <v>63</v>
@@ -15883,7 +15910,7 @@
         <v>209</v>
       </c>
       <c r="O50" s="15" t="s">
-        <v>833</v>
+        <v>823</v>
       </c>
       <c r="P50" s="15" t="s">
         <v>63</v>
@@ -15953,7 +15980,7 @@
         <v>396</v>
       </c>
       <c r="O51" s="15" t="s">
-        <v>834</v>
+        <v>824</v>
       </c>
       <c r="P51" s="15" t="s">
         <v>60</v>
@@ -16018,11 +16045,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -16036,7 +16063,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="79" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="14" t="s">
@@ -16047,7 +16074,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="66"/>
+      <c r="A4" s="79"/>
       <c r="B4" s="8" t="s">
         <v>91</v>
       </c>
@@ -16056,7 +16083,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="80" t="s">
         <v>93</v>
       </c>
       <c r="B5" s="14" t="s">
@@ -16067,7 +16094,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="68"/>
+      <c r="A6" s="81"/>
       <c r="B6" s="12" t="s">
         <v>96</v>
       </c>
@@ -16076,7 +16103,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="68"/>
+      <c r="A7" s="81"/>
       <c r="B7" s="10" t="s">
         <v>98</v>
       </c>
@@ -16085,7 +16112,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="68"/>
+      <c r="A8" s="81"/>
       <c r="B8" s="30" t="s">
         <v>100</v>
       </c>
@@ -16094,7 +16121,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="69"/>
+      <c r="A9" s="82"/>
       <c r="B9" s="10" t="s">
         <v>119</v>
       </c>
@@ -16169,7 +16196,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="46" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
       <c r="B22" s="24"/>
       <c r="C22" s="5"/>
@@ -16180,71 +16207,71 @@
       <c r="C23" s="5"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="82" t="s">
-        <v>951</v>
+      <c r="A24" s="72" t="s">
+        <v>941</v>
       </c>
       <c r="B24" s="24"/>
       <c r="C24" s="5"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="82" t="s">
-        <v>952</v>
+      <c r="A25" s="72" t="s">
+        <v>942</v>
       </c>
       <c r="B25" s="24"/>
       <c r="C25" s="5"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="82" t="s">
-        <v>953</v>
+      <c r="A26" s="72" t="s">
+        <v>943</v>
       </c>
       <c r="B26" s="24"/>
       <c r="C26" s="5"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="83" t="s">
-        <v>911</v>
+      <c r="A27" s="73" t="s">
+        <v>901</v>
       </c>
       <c r="B27" s="24"/>
       <c r="C27" s="5"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="83" t="s">
-        <v>912</v>
+      <c r="A28" s="73" t="s">
+        <v>902</v>
       </c>
       <c r="B28" s="24"/>
       <c r="C28" s="5"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="83" t="s">
+      <c r="A29" s="73" t="s">
         <v>189</v>
       </c>
       <c r="B29" s="24"/>
       <c r="C29" s="5"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="83" t="s">
+      <c r="A30" s="73" t="s">
         <v>227</v>
       </c>
       <c r="B30" s="24"/>
       <c r="C30" s="5"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="83" t="s">
+      <c r="A31" s="73" t="s">
         <v>176</v>
       </c>
       <c r="B31" s="24"/>
       <c r="C31" s="5"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="83" t="s">
+      <c r="A32" s="73" t="s">
         <v>154</v>
       </c>
       <c r="B32" s="24"/>
       <c r="C32" s="5"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="82" t="s">
-        <v>954</v>
+      <c r="A33" s="72" t="s">
+        <v>944</v>
       </c>
       <c r="B33" s="24"/>
       <c r="C33" s="5"/>
@@ -17846,7 +17873,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H352"/>
+  <dimension ref="A1:H342"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -17869,16 +17896,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
       <c r="G1" s="31"/>
       <c r="H1" s="16"/>
     </row>
@@ -20242,7 +20269,7 @@
         <v>589</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>907</v>
+        <v>897</v>
       </c>
       <c r="F98" s="47" t="s">
         <v>56</v>
@@ -20390,7 +20417,7 @@
         <v>596</v>
       </c>
       <c r="E104" s="47" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
       <c r="F104" s="47" t="s">
         <v>56</v>
@@ -20507,10 +20534,10 @@
         <v>489</v>
       </c>
       <c r="D109" s="16" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="E109" s="47" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="F109" s="47" t="s">
         <v>56</v>
@@ -20780,7 +20807,7 @@
         <v>607</v>
       </c>
       <c r="E120" s="47" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="F120" s="47" t="s">
         <v>56</v>
@@ -21164,7 +21191,7 @@
         <v>621</v>
       </c>
       <c r="E135" s="47" t="s">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="F135" s="47" t="s">
         <v>619</v>
@@ -21373,10 +21400,10 @@
         <v>489</v>
       </c>
       <c r="D144" s="57" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="E144" s="58" t="s">
-        <v>850</v>
+        <v>840</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -21566,10 +21593,10 @@
         <v>489</v>
       </c>
       <c r="D155" s="57" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
       <c r="E155" s="58" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -21722,10 +21749,10 @@
         <v>489</v>
       </c>
       <c r="D164" s="57" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="E164" s="58" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
@@ -21813,13 +21840,13 @@
         <v>493</v>
       </c>
       <c r="D169" s="47" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E169" s="47" t="s">
         <v>139</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
@@ -21833,13 +21860,13 @@
         <v>519</v>
       </c>
       <c r="D170" s="57" t="s">
+        <v>648</v>
+      </c>
+      <c r="E170" s="47" t="s">
         <v>649</v>
       </c>
-      <c r="E170" s="47" t="s">
+      <c r="H170" s="2" t="s">
         <v>650</v>
-      </c>
-      <c r="H170" s="2" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
@@ -21853,13 +21880,13 @@
         <v>519</v>
       </c>
       <c r="D171" s="47" t="s">
+        <v>651</v>
+      </c>
+      <c r="E171" s="47" t="s">
         <v>652</v>
       </c>
-      <c r="E171" s="47" t="s">
+      <c r="H171" s="2" t="s">
         <v>653</v>
-      </c>
-      <c r="H171" s="2" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
@@ -21873,13 +21900,13 @@
         <v>519</v>
       </c>
       <c r="D172" s="47" t="s">
+        <v>654</v>
+      </c>
+      <c r="E172" s="47" t="s">
         <v>655</v>
       </c>
-      <c r="E172" s="47" t="s">
+      <c r="H172" s="2" t="s">
         <v>656</v>
-      </c>
-      <c r="H172" s="2" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
@@ -21893,33 +21920,33 @@
         <v>519</v>
       </c>
       <c r="D173" s="47" t="s">
+        <v>657</v>
+      </c>
+      <c r="E173" s="57" t="s">
         <v>658</v>
       </c>
-      <c r="E173" s="57" t="s">
+      <c r="H173" s="2" t="s">
         <v>659</v>
-      </c>
-      <c r="H173" s="2" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="57" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="B174" s="57" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>592</v>
-      </c>
-      <c r="D174" s="47" t="s">
-        <v>661</v>
-      </c>
-      <c r="E174" s="47" t="s">
-        <v>661</v>
-      </c>
-      <c r="H174" s="2" t="s">
-        <v>662</v>
+        <v>485</v>
+      </c>
+      <c r="D174" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="E174" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="F174" s="48" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
@@ -21930,13 +21957,13 @@
         <v>464</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>485</v>
-      </c>
-      <c r="D175" s="16" t="s">
-        <v>132</v>
+        <v>487</v>
+      </c>
+      <c r="D175" s="49" t="s">
+        <v>661</v>
       </c>
       <c r="E175" s="57" t="s">
-        <v>132</v>
+        <v>239</v>
       </c>
       <c r="F175" s="48" t="s">
         <v>57</v>
@@ -21950,16 +21977,19 @@
         <v>464</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>487</v>
-      </c>
-      <c r="D176" s="49" t="s">
-        <v>663</v>
-      </c>
-      <c r="E176" s="57" t="s">
-        <v>239</v>
+        <v>489</v>
+      </c>
+      <c r="D176" s="57" t="s">
+        <v>856</v>
+      </c>
+      <c r="E176" s="58" t="s">
+        <v>826</v>
       </c>
       <c r="F176" s="48" t="s">
         <v>57</v>
+      </c>
+      <c r="H176" s="2" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
@@ -21970,19 +22000,16 @@
         <v>464</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>489</v>
+        <v>30</v>
       </c>
       <c r="D177" s="57" t="s">
-        <v>866</v>
-      </c>
-      <c r="E177" s="58" t="s">
-        <v>836</v>
+        <v>638</v>
+      </c>
+      <c r="E177" s="57" t="s">
+        <v>63</v>
       </c>
       <c r="F177" s="48" t="s">
         <v>57</v>
-      </c>
-      <c r="H177" s="2" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
@@ -21993,13 +22020,13 @@
         <v>464</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D178" s="57" t="s">
-        <v>638</v>
+        <v>340</v>
       </c>
       <c r="E178" s="57" t="s">
-        <v>63</v>
+        <v>428</v>
       </c>
       <c r="F178" s="48" t="s">
         <v>57</v>
@@ -22013,16 +22040,19 @@
         <v>464</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>34</v>
+        <v>493</v>
       </c>
       <c r="D179" s="57" t="s">
-        <v>340</v>
-      </c>
-      <c r="E179" s="57" t="s">
-        <v>428</v>
+        <v>640</v>
+      </c>
+      <c r="E179" s="57">
+        <v>0</v>
       </c>
       <c r="F179" s="48" t="s">
         <v>57</v>
+      </c>
+      <c r="H179" s="2" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
@@ -22036,16 +22066,16 @@
         <v>493</v>
       </c>
       <c r="D180" s="57" t="s">
-        <v>640</v>
-      </c>
-      <c r="E180" s="57">
-        <v>0</v>
+        <v>642</v>
+      </c>
+      <c r="E180" s="47" t="s">
+        <v>127</v>
       </c>
       <c r="F180" s="48" t="s">
         <v>57</v>
       </c>
       <c r="H180" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
@@ -22058,11 +22088,11 @@
       <c r="C181" s="16" t="s">
         <v>493</v>
       </c>
-      <c r="D181" s="57" t="s">
-        <v>642</v>
+      <c r="D181" s="47" t="s">
+        <v>646</v>
       </c>
       <c r="E181" s="47" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="F181" s="48" t="s">
         <v>57</v>
@@ -22079,19 +22109,19 @@
         <v>464</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>493</v>
-      </c>
-      <c r="D182" s="47" t="s">
-        <v>647</v>
+        <v>519</v>
+      </c>
+      <c r="D182" s="57" t="s">
+        <v>648</v>
       </c>
       <c r="E182" s="47" t="s">
-        <v>139</v>
+        <v>649</v>
       </c>
       <c r="F182" s="48" t="s">
         <v>57</v>
       </c>
       <c r="H182" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
@@ -22104,17 +22134,17 @@
       <c r="C183" s="16" t="s">
         <v>519</v>
       </c>
-      <c r="D183" s="57" t="s">
-        <v>649</v>
+      <c r="D183" s="47" t="s">
+        <v>651</v>
       </c>
       <c r="E183" s="47" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="F183" s="48" t="s">
         <v>57</v>
       </c>
       <c r="H183" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
@@ -22128,10 +22158,10 @@
         <v>519</v>
       </c>
       <c r="D184" s="47" t="s">
-        <v>652</v>
-      </c>
-      <c r="E184" s="47" t="s">
-        <v>653</v>
+        <v>657</v>
+      </c>
+      <c r="E184" s="57" t="s">
+        <v>658</v>
       </c>
       <c r="F184" s="48" t="s">
         <v>57</v>
@@ -22142,48 +22172,36 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="57" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="B185" s="57" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>519</v>
-      </c>
-      <c r="D185" s="47" t="s">
-        <v>658</v>
+        <v>485</v>
+      </c>
+      <c r="D185" s="16" t="s">
+        <v>132</v>
       </c>
       <c r="E185" s="57" t="s">
-        <v>659</v>
-      </c>
-      <c r="F185" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="H185" s="2" t="s">
-        <v>672</v>
+        <v>132</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="57" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="B186" s="57" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>592</v>
-      </c>
-      <c r="D186" s="47" t="s">
-        <v>673</v>
-      </c>
-      <c r="E186" s="47" t="s">
-        <v>673</v>
-      </c>
-      <c r="F186" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="H186" s="2" t="s">
-        <v>662</v>
+        <v>487</v>
+      </c>
+      <c r="D186" s="49" t="s">
+        <v>671</v>
+      </c>
+      <c r="E186" s="57" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
@@ -22194,13 +22212,13 @@
         <v>459</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>485</v>
-      </c>
-      <c r="D187" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="E187" s="57" t="s">
-        <v>132</v>
+        <v>489</v>
+      </c>
+      <c r="D187" s="57" t="s">
+        <v>855</v>
+      </c>
+      <c r="E187" s="58" t="s">
+        <v>829</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
@@ -22211,13 +22229,13 @@
         <v>459</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>487</v>
-      </c>
-      <c r="D188" s="49" t="s">
-        <v>674</v>
+        <v>30</v>
+      </c>
+      <c r="D188" s="57" t="s">
+        <v>638</v>
       </c>
       <c r="E188" s="57" t="s">
-        <v>458</v>
+        <v>63</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
@@ -22228,13 +22246,13 @@
         <v>459</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>489</v>
+        <v>34</v>
       </c>
       <c r="D189" s="57" t="s">
-        <v>865</v>
-      </c>
-      <c r="E189" s="58" t="s">
-        <v>839</v>
+        <v>639</v>
+      </c>
+      <c r="E189" s="57" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
@@ -22245,13 +22263,16 @@
         <v>459</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>30</v>
+        <v>493</v>
       </c>
       <c r="D190" s="57" t="s">
-        <v>638</v>
-      </c>
-      <c r="E190" s="57" t="s">
-        <v>63</v>
+        <v>640</v>
+      </c>
+      <c r="E190" s="57">
+        <v>0</v>
+      </c>
+      <c r="H190" s="2" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
@@ -22262,13 +22283,16 @@
         <v>459</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>34</v>
+        <v>493</v>
       </c>
       <c r="D191" s="57" t="s">
-        <v>639</v>
-      </c>
-      <c r="E191" s="57" t="s">
-        <v>428</v>
+        <v>642</v>
+      </c>
+      <c r="E191" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="H191" s="2" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
@@ -22281,11 +22305,11 @@
       <c r="C192" s="16" t="s">
         <v>493</v>
       </c>
-      <c r="D192" s="57" t="s">
-        <v>640</v>
-      </c>
-      <c r="E192" s="57">
-        <v>0</v>
+      <c r="D192" s="47" t="s">
+        <v>646</v>
+      </c>
+      <c r="E192" s="47" t="s">
+        <v>139</v>
       </c>
       <c r="H192" s="2" t="s">
         <v>675</v>
@@ -22299,13 +22323,13 @@
         <v>459</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>493</v>
+        <v>519</v>
       </c>
       <c r="D193" s="57" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="E193" s="47" t="s">
-        <v>127</v>
+        <v>649</v>
       </c>
       <c r="H193" s="2" t="s">
         <v>676</v>
@@ -22319,16 +22343,16 @@
         <v>459</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>493</v>
+        <v>519</v>
       </c>
       <c r="D194" s="47" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="E194" s="47" t="s">
-        <v>139</v>
+        <v>652</v>
       </c>
       <c r="H194" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
@@ -22341,11 +22365,11 @@
       <c r="C195" s="16" t="s">
         <v>519</v>
       </c>
-      <c r="D195" s="57" t="s">
-        <v>649</v>
-      </c>
-      <c r="E195" s="47" t="s">
-        <v>650</v>
+      <c r="D195" s="47" t="s">
+        <v>657</v>
+      </c>
+      <c r="E195" s="57" t="s">
+        <v>658</v>
       </c>
       <c r="H195" s="2" t="s">
         <v>679</v>
@@ -22353,542 +22377,527 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="57" t="s">
-        <v>257</v>
+        <v>901</v>
       </c>
       <c r="B196" s="57" t="s">
-        <v>459</v>
+        <v>680</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>519</v>
-      </c>
-      <c r="D196" s="47" t="s">
-        <v>652</v>
-      </c>
-      <c r="E196" s="47" t="s">
-        <v>653</v>
+        <v>485</v>
+      </c>
+      <c r="D196" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="E196" s="57" t="s">
+        <v>132</v>
       </c>
       <c r="H196" s="2" t="s">
-        <v>680</v>
+        <v>911</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="57" t="s">
-        <v>257</v>
+        <v>901</v>
       </c>
       <c r="B197" s="57" t="s">
-        <v>459</v>
+        <v>680</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>519</v>
-      </c>
-      <c r="D197" s="47" t="s">
-        <v>658</v>
+        <v>487</v>
+      </c>
+      <c r="D197" s="49" t="s">
+        <v>681</v>
       </c>
       <c r="E197" s="57" t="s">
-        <v>659</v>
+        <v>455</v>
       </c>
       <c r="H197" s="2" t="s">
-        <v>682</v>
+        <v>911</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="57" t="s">
-        <v>257</v>
+        <v>901</v>
       </c>
       <c r="B198" s="57" t="s">
-        <v>459</v>
+        <v>680</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>592</v>
-      </c>
-      <c r="D198" s="47" t="s">
-        <v>683</v>
-      </c>
-      <c r="E198" s="47" t="s">
-        <v>683</v>
+        <v>489</v>
+      </c>
+      <c r="D198" s="57" t="s">
+        <v>854</v>
+      </c>
+      <c r="E198" s="58" t="s">
+        <v>831</v>
       </c>
       <c r="H198" s="2" t="s">
-        <v>662</v>
+        <v>911</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="57" t="s">
+        <v>901</v>
+      </c>
+      <c r="B199" s="57" t="s">
+        <v>680</v>
+      </c>
+      <c r="C199" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D199" s="57" t="s">
+        <v>638</v>
+      </c>
+      <c r="E199" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="H199" s="2" t="s">
         <v>911</v>
-      </c>
-      <c r="B199" s="57" t="s">
-        <v>684</v>
-      </c>
-      <c r="C199" s="16" t="s">
-        <v>485</v>
-      </c>
-      <c r="D199" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="E199" s="57" t="s">
-        <v>132</v>
-      </c>
-      <c r="H199" s="2" t="s">
-        <v>921</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="57" t="s">
+        <v>901</v>
+      </c>
+      <c r="B200" s="57" t="s">
+        <v>680</v>
+      </c>
+      <c r="C200" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D200" s="57" t="s">
+        <v>639</v>
+      </c>
+      <c r="E200" s="57" t="s">
+        <v>428</v>
+      </c>
+      <c r="H200" s="2" t="s">
         <v>911</v>
-      </c>
-      <c r="B200" s="57" t="s">
-        <v>684</v>
-      </c>
-      <c r="C200" s="16" t="s">
-        <v>487</v>
-      </c>
-      <c r="D200" s="49" t="s">
-        <v>685</v>
-      </c>
-      <c r="E200" s="57" t="s">
-        <v>455</v>
-      </c>
-      <c r="H200" s="2" t="s">
-        <v>921</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="57" t="s">
-        <v>911</v>
+        <v>901</v>
       </c>
       <c r="B201" s="57" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="D201" s="57" t="s">
-        <v>864</v>
-      </c>
-      <c r="E201" s="58" t="s">
-        <v>841</v>
+        <v>640</v>
+      </c>
+      <c r="E201" s="57">
+        <v>0</v>
       </c>
       <c r="H201" s="2" t="s">
-        <v>921</v>
+        <v>903</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="57" t="s">
-        <v>911</v>
+        <v>901</v>
       </c>
       <c r="B202" s="57" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>30</v>
+        <v>493</v>
       </c>
       <c r="D202" s="57" t="s">
-        <v>638</v>
-      </c>
-      <c r="E202" s="57" t="s">
-        <v>63</v>
+        <v>642</v>
+      </c>
+      <c r="E202" s="47" t="s">
+        <v>127</v>
       </c>
       <c r="H202" s="2" t="s">
-        <v>921</v>
+        <v>904</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="57" t="s">
-        <v>911</v>
+        <v>901</v>
       </c>
       <c r="B203" s="57" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D203" s="57" t="s">
-        <v>639</v>
-      </c>
-      <c r="E203" s="57" t="s">
-        <v>428</v>
+        <v>493</v>
+      </c>
+      <c r="D203" s="47" t="s">
+        <v>646</v>
+      </c>
+      <c r="E203" s="47" t="s">
+        <v>139</v>
       </c>
       <c r="H203" s="2" t="s">
-        <v>921</v>
+        <v>906</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="57" t="s">
-        <v>911</v>
+        <v>901</v>
       </c>
       <c r="B204" s="57" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>493</v>
+        <v>519</v>
       </c>
       <c r="D204" s="57" t="s">
-        <v>640</v>
-      </c>
-      <c r="E204" s="57">
-        <v>0</v>
+        <v>648</v>
+      </c>
+      <c r="E204" s="47" t="s">
+        <v>649</v>
       </c>
       <c r="H204" s="2" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="57" t="s">
-        <v>911</v>
+        <v>901</v>
       </c>
       <c r="B205" s="57" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>493</v>
-      </c>
-      <c r="D205" s="57" t="s">
-        <v>642</v>
+        <v>519</v>
+      </c>
+      <c r="D205" s="47" t="s">
+        <v>651</v>
       </c>
       <c r="E205" s="47" t="s">
-        <v>127</v>
+        <v>652</v>
       </c>
       <c r="H205" s="2" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="57" t="s">
-        <v>911</v>
+        <v>901</v>
       </c>
       <c r="B206" s="57" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>493</v>
+        <v>519</v>
       </c>
       <c r="D206" s="47" t="s">
-        <v>647</v>
-      </c>
-      <c r="E206" s="47" t="s">
-        <v>139</v>
+        <v>657</v>
+      </c>
+      <c r="E206" s="57" t="s">
+        <v>658</v>
       </c>
       <c r="H206" s="2" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="57" t="s">
+        <v>902</v>
+      </c>
+      <c r="B207" s="57" t="s">
+        <v>680</v>
+      </c>
+      <c r="C207" s="16" t="s">
+        <v>485</v>
+      </c>
+      <c r="D207" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="E207" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="H207" s="2" t="s">
         <v>911</v>
-      </c>
-      <c r="B207" s="57" t="s">
-        <v>684</v>
-      </c>
-      <c r="C207" s="16" t="s">
-        <v>519</v>
-      </c>
-      <c r="D207" s="57" t="s">
-        <v>649</v>
-      </c>
-      <c r="E207" s="47" t="s">
-        <v>650</v>
-      </c>
-      <c r="H207" s="2" t="s">
-        <v>917</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="57" t="s">
+        <v>902</v>
+      </c>
+      <c r="B208" s="57" t="s">
+        <v>680</v>
+      </c>
+      <c r="C208" s="16" t="s">
+        <v>487</v>
+      </c>
+      <c r="D208" s="49" t="s">
+        <v>681</v>
+      </c>
+      <c r="E208" s="57" t="s">
+        <v>453</v>
+      </c>
+      <c r="H208" s="2" t="s">
         <v>911</v>
-      </c>
-      <c r="B208" s="57" t="s">
-        <v>684</v>
-      </c>
-      <c r="C208" s="16" t="s">
-        <v>519</v>
-      </c>
-      <c r="D208" s="47" t="s">
-        <v>652</v>
-      </c>
-      <c r="E208" s="47" t="s">
-        <v>653</v>
-      </c>
-      <c r="H208" s="2" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="57" t="s">
+        <v>902</v>
+      </c>
+      <c r="B209" s="57" t="s">
+        <v>680</v>
+      </c>
+      <c r="C209" s="16" t="s">
+        <v>489</v>
+      </c>
+      <c r="D209" s="57" t="s">
+        <v>854</v>
+      </c>
+      <c r="E209" s="58" t="s">
+        <v>832</v>
+      </c>
+      <c r="H209" s="2" t="s">
         <v>911</v>
-      </c>
-      <c r="B209" s="57" t="s">
-        <v>684</v>
-      </c>
-      <c r="C209" s="16" t="s">
-        <v>519</v>
-      </c>
-      <c r="D209" s="47" t="s">
-        <v>658</v>
-      </c>
-      <c r="E209" s="57" t="s">
-        <v>659</v>
-      </c>
-      <c r="H209" s="2" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="57" t="s">
+        <v>902</v>
+      </c>
+      <c r="B210" s="57" t="s">
+        <v>680</v>
+      </c>
+      <c r="C210" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D210" s="57" t="s">
+        <v>638</v>
+      </c>
+      <c r="E210" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="H210" s="2" t="s">
         <v>911</v>
-      </c>
-      <c r="B210" s="57" t="s">
-        <v>684</v>
-      </c>
-      <c r="C210" s="16" t="s">
-        <v>592</v>
-      </c>
-      <c r="D210" s="47" t="s">
-        <v>686</v>
-      </c>
-      <c r="E210" s="47" t="s">
-        <v>686</v>
-      </c>
-      <c r="H210" s="2" t="s">
-        <v>922</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="57" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
       <c r="B211" s="57" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>485</v>
-      </c>
-      <c r="D211" s="16" t="s">
-        <v>132</v>
+        <v>34</v>
+      </c>
+      <c r="D211" s="57" t="s">
+        <v>639</v>
       </c>
       <c r="E211" s="57" t="s">
-        <v>132</v>
+        <v>428</v>
       </c>
       <c r="H211" s="2" t="s">
-        <v>921</v>
+        <v>911</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="57" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
       <c r="B212" s="57" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>487</v>
-      </c>
-      <c r="D212" s="49" t="s">
-        <v>685</v>
-      </c>
-      <c r="E212" s="57" t="s">
-        <v>453</v>
+        <v>493</v>
+      </c>
+      <c r="D212" s="57" t="s">
+        <v>640</v>
+      </c>
+      <c r="E212" s="57">
+        <v>0</v>
       </c>
       <c r="H212" s="2" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="57" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
       <c r="B213" s="57" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="D213" s="57" t="s">
-        <v>864</v>
-      </c>
-      <c r="E213" s="58" t="s">
-        <v>842</v>
+        <v>642</v>
+      </c>
+      <c r="E213" s="47" t="s">
+        <v>127</v>
       </c>
       <c r="H213" s="2" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="57" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
       <c r="B214" s="57" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D214" s="57" t="s">
-        <v>638</v>
-      </c>
-      <c r="E214" s="57" t="s">
-        <v>63</v>
+        <v>493</v>
+      </c>
+      <c r="D214" s="47" t="s">
+        <v>646</v>
+      </c>
+      <c r="E214" s="47" t="s">
+        <v>139</v>
       </c>
       <c r="H214" s="2" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="57" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
       <c r="B215" s="57" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>34</v>
+        <v>519</v>
       </c>
       <c r="D215" s="57" t="s">
-        <v>639</v>
-      </c>
-      <c r="E215" s="57" t="s">
-        <v>428</v>
+        <v>648</v>
+      </c>
+      <c r="E215" s="47" t="s">
+        <v>649</v>
       </c>
       <c r="H215" s="2" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="57" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
       <c r="B216" s="57" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="C216" s="16" t="s">
-        <v>493</v>
-      </c>
-      <c r="D216" s="57" t="s">
-        <v>640</v>
-      </c>
-      <c r="E216" s="57">
-        <v>0</v>
+        <v>519</v>
+      </c>
+      <c r="D216" s="47" t="s">
+        <v>651</v>
+      </c>
+      <c r="E216" s="47" t="s">
+        <v>652</v>
       </c>
       <c r="H216" s="2" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="57" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
       <c r="B217" s="57" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="C217" s="16" t="s">
-        <v>493</v>
-      </c>
-      <c r="D217" s="57" t="s">
-        <v>642</v>
-      </c>
-      <c r="E217" s="47" t="s">
-        <v>127</v>
+        <v>519</v>
+      </c>
+      <c r="D217" s="47" t="s">
+        <v>657</v>
+      </c>
+      <c r="E217" s="57" t="s">
+        <v>658</v>
       </c>
       <c r="H217" s="2" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A218" s="57" t="s">
-        <v>912</v>
-      </c>
-      <c r="B218" s="57" t="s">
-        <v>684</v>
+      <c r="A218" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>370</v>
       </c>
       <c r="C218" s="16" t="s">
-        <v>493</v>
-      </c>
-      <c r="D218" s="47" t="s">
-        <v>647</v>
+        <v>485</v>
+      </c>
+      <c r="D218" s="16" t="s">
+        <v>132</v>
       </c>
       <c r="E218" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="H218" s="2" t="s">
-        <v>926</v>
+        <v>132</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A219" s="57" t="s">
-        <v>912</v>
-      </c>
-      <c r="B219" s="57" t="s">
-        <v>684</v>
+      <c r="A219" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>370</v>
       </c>
       <c r="C219" s="16" t="s">
-        <v>519</v>
-      </c>
-      <c r="D219" s="57" t="s">
-        <v>649</v>
-      </c>
-      <c r="E219" s="47" t="s">
-        <v>650</v>
-      </c>
-      <c r="H219" s="2" t="s">
-        <v>927</v>
+        <v>487</v>
+      </c>
+      <c r="D219" s="49" t="s">
+        <v>247</v>
+      </c>
+      <c r="E219" s="57" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A220" s="57" t="s">
-        <v>912</v>
-      </c>
-      <c r="B220" s="57" t="s">
-        <v>684</v>
+      <c r="A220" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>370</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>519</v>
-      </c>
-      <c r="D220" s="47" t="s">
-        <v>652</v>
-      </c>
-      <c r="E220" s="47" t="s">
-        <v>653</v>
-      </c>
-      <c r="H220" s="2" t="s">
-        <v>928</v>
+        <v>489</v>
+      </c>
+      <c r="D220" s="57" t="s">
+        <v>774</v>
+      </c>
+      <c r="E220" s="58" t="s">
+        <v>836</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A221" s="57" t="s">
-        <v>912</v>
-      </c>
-      <c r="B221" s="57" t="s">
-        <v>684</v>
+      <c r="A221" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>370</v>
       </c>
       <c r="C221" s="16" t="s">
-        <v>519</v>
-      </c>
-      <c r="D221" s="47" t="s">
-        <v>658</v>
+        <v>30</v>
+      </c>
+      <c r="D221" s="57" t="s">
+        <v>63</v>
       </c>
       <c r="E221" s="57" t="s">
-        <v>659</v>
-      </c>
-      <c r="H221" s="2" t="s">
-        <v>930</v>
+        <v>63</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A222" s="57" t="s">
-        <v>912</v>
-      </c>
-      <c r="B222" s="57" t="s">
-        <v>684</v>
+      <c r="A222" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>370</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>592</v>
-      </c>
-      <c r="D222" s="47" t="s">
-        <v>687</v>
-      </c>
-      <c r="E222" s="47" t="s">
-        <v>687</v>
-      </c>
-      <c r="H222" s="2" t="s">
-        <v>922</v>
+        <v>34</v>
+      </c>
+      <c r="D222" s="57" t="s">
+        <v>340</v>
+      </c>
+      <c r="E222" s="57" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
@@ -22899,13 +22908,16 @@
         <v>370</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>485</v>
-      </c>
-      <c r="D223" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="E223" s="47" t="s">
-        <v>132</v>
+        <v>493</v>
+      </c>
+      <c r="D223" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="E223" s="57">
+        <v>0</v>
+      </c>
+      <c r="H223" s="2" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
@@ -22916,13 +22928,13 @@
         <v>370</v>
       </c>
       <c r="C224" s="16" t="s">
-        <v>487</v>
-      </c>
-      <c r="D224" s="49" t="s">
-        <v>247</v>
-      </c>
-      <c r="E224" s="57" t="s">
-        <v>446</v>
+        <v>493</v>
+      </c>
+      <c r="D224" s="50">
+        <v>1</v>
+      </c>
+      <c r="E224" s="57">
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
@@ -22933,13 +22945,13 @@
         <v>370</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>489</v>
-      </c>
-      <c r="D225" s="57" t="s">
-        <v>784</v>
-      </c>
-      <c r="E225" s="58" t="s">
-        <v>846</v>
+        <v>493</v>
+      </c>
+      <c r="D225" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="E225" s="47" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
@@ -22950,13 +22962,16 @@
         <v>370</v>
       </c>
       <c r="C226" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D226" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="E226" s="57" t="s">
-        <v>63</v>
+        <v>519</v>
+      </c>
+      <c r="D226" s="47" t="s">
+        <v>683</v>
+      </c>
+      <c r="E226" s="47" t="s">
+        <v>649</v>
+      </c>
+      <c r="H226" s="2" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
@@ -22967,13 +22982,13 @@
         <v>370</v>
       </c>
       <c r="C227" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D227" s="57" t="s">
-        <v>340</v>
-      </c>
-      <c r="E227" s="57" t="s">
-        <v>151</v>
+        <v>519</v>
+      </c>
+      <c r="D227" s="47" t="s">
+        <v>635</v>
+      </c>
+      <c r="E227" s="47" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
@@ -22984,104 +22999,98 @@
         <v>370</v>
       </c>
       <c r="C228" s="16" t="s">
-        <v>493</v>
-      </c>
-      <c r="D228" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="E228" s="57">
-        <v>0</v>
-      </c>
-      <c r="H228" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="D228" s="57" t="s">
+        <v>686</v>
+      </c>
+      <c r="E228" s="47" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A229" s="57" t="s">
+        <v>189</v>
+      </c>
+      <c r="B229" s="57" t="s">
+        <v>687</v>
+      </c>
+      <c r="C229" s="16" t="s">
+        <v>485</v>
+      </c>
+      <c r="D229" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="E229" s="57" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A230" s="57" t="s">
+        <v>189</v>
+      </c>
+      <c r="B230" s="57" t="s">
+        <v>687</v>
+      </c>
+      <c r="C230" s="16" t="s">
+        <v>487</v>
+      </c>
+      <c r="D230" s="49" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A229" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="C229" s="16" t="s">
-        <v>493</v>
-      </c>
-      <c r="D229" s="50">
-        <v>1</v>
-      </c>
-      <c r="E229" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A230" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="C230" s="16" t="s">
-        <v>493</v>
-      </c>
-      <c r="D230" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="E230" s="47" t="s">
-        <v>139</v>
+      <c r="E230" s="57" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A231" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="B231" s="2" t="s">
-        <v>370</v>
+      <c r="A231" s="57" t="s">
+        <v>189</v>
+      </c>
+      <c r="B231" s="57" t="s">
+        <v>687</v>
       </c>
       <c r="C231" s="16" t="s">
-        <v>519</v>
-      </c>
-      <c r="D231" s="47" t="s">
-        <v>689</v>
-      </c>
-      <c r="E231" s="47" t="s">
-        <v>650</v>
-      </c>
-      <c r="H231" s="2" t="s">
-        <v>690</v>
+        <v>489</v>
+      </c>
+      <c r="D231" s="57" t="s">
+        <v>853</v>
+      </c>
+      <c r="E231" s="58" t="s">
+        <v>805</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A232" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="B232" s="2" t="s">
-        <v>370</v>
+      <c r="A232" s="57" t="s">
+        <v>189</v>
+      </c>
+      <c r="B232" s="57" t="s">
+        <v>687</v>
       </c>
       <c r="C232" s="16" t="s">
-        <v>519</v>
-      </c>
-      <c r="D232" s="47" t="s">
-        <v>635</v>
-      </c>
-      <c r="E232" s="47" t="s">
-        <v>691</v>
+        <v>30</v>
+      </c>
+      <c r="D232" s="57" t="s">
+        <v>638</v>
+      </c>
+      <c r="E232" s="57" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A233" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>370</v>
+      <c r="A233" s="57" t="s">
+        <v>189</v>
+      </c>
+      <c r="B233" s="57" t="s">
+        <v>687</v>
       </c>
       <c r="C233" s="16" t="s">
-        <v>519</v>
+        <v>34</v>
       </c>
       <c r="D233" s="57" t="s">
-        <v>692</v>
-      </c>
-      <c r="E233" s="47" t="s">
-        <v>659</v>
+        <v>639</v>
+      </c>
+      <c r="E233" s="57" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
@@ -23089,16 +23098,19 @@
         <v>189</v>
       </c>
       <c r="B234" s="57" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="C234" s="16" t="s">
-        <v>485</v>
-      </c>
-      <c r="D234" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="E234" s="57" t="s">
-        <v>132</v>
+        <v>493</v>
+      </c>
+      <c r="D234" s="57" t="s">
+        <v>640</v>
+      </c>
+      <c r="E234" s="57">
+        <v>0</v>
+      </c>
+      <c r="H234" s="2" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
@@ -23106,16 +23118,19 @@
         <v>189</v>
       </c>
       <c r="B235" s="57" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="C235" s="16" t="s">
-        <v>487</v>
-      </c>
-      <c r="D235" s="49" t="s">
-        <v>694</v>
-      </c>
-      <c r="E235" s="57" t="s">
-        <v>439</v>
+        <v>493</v>
+      </c>
+      <c r="D235" s="57" t="s">
+        <v>642</v>
+      </c>
+      <c r="E235" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="H235" s="2" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
@@ -23123,16 +23138,19 @@
         <v>189</v>
       </c>
       <c r="B236" s="57" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="C236" s="16" t="s">
-        <v>489</v>
-      </c>
-      <c r="D236" s="57" t="s">
-        <v>863</v>
-      </c>
-      <c r="E236" s="58" t="s">
-        <v>815</v>
+        <v>493</v>
+      </c>
+      <c r="D236" s="47" t="s">
+        <v>646</v>
+      </c>
+      <c r="E236" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="H236" s="2" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
@@ -23140,16 +23158,19 @@
         <v>189</v>
       </c>
       <c r="B237" s="57" t="s">
+        <v>687</v>
+      </c>
+      <c r="C237" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="D237" s="57" t="s">
+        <v>648</v>
+      </c>
+      <c r="E237" s="47" t="s">
+        <v>649</v>
+      </c>
+      <c r="H237" s="2" t="s">
         <v>693</v>
-      </c>
-      <c r="C237" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D237" s="57" t="s">
-        <v>638</v>
-      </c>
-      <c r="E237" s="57" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
@@ -23157,16 +23178,19 @@
         <v>189</v>
       </c>
       <c r="B238" s="57" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="C238" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D238" s="57" t="s">
-        <v>639</v>
-      </c>
-      <c r="E238" s="57" t="s">
-        <v>428</v>
+        <v>519</v>
+      </c>
+      <c r="D238" s="47" t="s">
+        <v>651</v>
+      </c>
+      <c r="E238" s="47" t="s">
+        <v>652</v>
+      </c>
+      <c r="H238" s="2" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
@@ -23174,16 +23198,16 @@
         <v>189</v>
       </c>
       <c r="B239" s="57" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="C239" s="16" t="s">
-        <v>493</v>
-      </c>
-      <c r="D239" s="57" t="s">
-        <v>640</v>
-      </c>
-      <c r="E239" s="57">
-        <v>0</v>
+        <v>519</v>
+      </c>
+      <c r="D239" s="47" t="s">
+        <v>654</v>
+      </c>
+      <c r="E239" s="47" t="s">
+        <v>655</v>
       </c>
       <c r="H239" s="2" t="s">
         <v>695</v>
@@ -23194,16 +23218,16 @@
         <v>189</v>
       </c>
       <c r="B240" s="57" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="C240" s="16" t="s">
-        <v>493</v>
-      </c>
-      <c r="D240" s="57" t="s">
-        <v>642</v>
-      </c>
-      <c r="E240" s="47" t="s">
-        <v>127</v>
+        <v>519</v>
+      </c>
+      <c r="D240" s="47" t="s">
+        <v>657</v>
+      </c>
+      <c r="E240" s="57" t="s">
+        <v>658</v>
       </c>
       <c r="H240" s="2" t="s">
         <v>696</v>
@@ -23211,142 +23235,127 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="57" t="s">
-        <v>189</v>
+        <v>227</v>
       </c>
       <c r="B241" s="57" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C241" s="16" t="s">
-        <v>493</v>
-      </c>
-      <c r="D241" s="47" t="s">
-        <v>644</v>
-      </c>
-      <c r="E241" s="47" t="s">
-        <v>645</v>
-      </c>
-      <c r="H241" s="2" t="s">
-        <v>697</v>
+        <v>485</v>
+      </c>
+      <c r="D241" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="E241" s="57" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="57" t="s">
-        <v>189</v>
+        <v>227</v>
       </c>
       <c r="B242" s="57" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C242" s="16" t="s">
-        <v>493</v>
-      </c>
-      <c r="D242" s="47" t="s">
-        <v>647</v>
-      </c>
-      <c r="E242" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="H242" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="D242" s="49" t="s">
         <v>698</v>
+      </c>
+      <c r="E242" s="57" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="57" t="s">
-        <v>189</v>
+        <v>227</v>
       </c>
       <c r="B243" s="57" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C243" s="16" t="s">
-        <v>519</v>
+        <v>489</v>
       </c>
       <c r="D243" s="57" t="s">
-        <v>649</v>
-      </c>
-      <c r="E243" s="47" t="s">
-        <v>650</v>
-      </c>
-      <c r="H243" s="2" t="s">
-        <v>699</v>
+        <v>852</v>
+      </c>
+      <c r="E243" s="58" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="57" t="s">
-        <v>189</v>
+        <v>227</v>
       </c>
       <c r="B244" s="57" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C244" s="16" t="s">
-        <v>519</v>
-      </c>
-      <c r="D244" s="47" t="s">
-        <v>652</v>
-      </c>
-      <c r="E244" s="47" t="s">
-        <v>653</v>
-      </c>
-      <c r="H244" s="2" t="s">
-        <v>700</v>
+        <v>30</v>
+      </c>
+      <c r="D244" s="57" t="s">
+        <v>638</v>
+      </c>
+      <c r="E244" s="57" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="57" t="s">
-        <v>189</v>
+        <v>227</v>
       </c>
       <c r="B245" s="57" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C245" s="16" t="s">
-        <v>519</v>
-      </c>
-      <c r="D245" s="47" t="s">
-        <v>655</v>
-      </c>
-      <c r="E245" s="47" t="s">
-        <v>656</v>
-      </c>
-      <c r="H245" s="2" t="s">
-        <v>701</v>
+        <v>34</v>
+      </c>
+      <c r="D245" s="57" t="s">
+        <v>639</v>
+      </c>
+      <c r="E245" s="57" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="57" t="s">
-        <v>189</v>
+        <v>227</v>
       </c>
       <c r="B246" s="57" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C246" s="16" t="s">
-        <v>519</v>
-      </c>
-      <c r="D246" s="47" t="s">
-        <v>658</v>
-      </c>
-      <c r="E246" s="57" t="s">
-        <v>659</v>
+        <v>493</v>
+      </c>
+      <c r="D246" s="57" t="s">
+        <v>640</v>
+      </c>
+      <c r="E246" s="57">
+        <v>0</v>
       </c>
       <c r="H246" s="2" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="57" t="s">
-        <v>189</v>
+        <v>227</v>
       </c>
       <c r="B247" s="57" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C247" s="16" t="s">
-        <v>592</v>
-      </c>
-      <c r="D247" s="47" t="s">
-        <v>703</v>
+        <v>493</v>
+      </c>
+      <c r="D247" s="57" t="s">
+        <v>642</v>
       </c>
       <c r="E247" s="47" t="s">
-        <v>703</v>
+        <v>127</v>
       </c>
       <c r="H247" s="2" t="s">
-        <v>662</v>
+        <v>700</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
@@ -23354,16 +23363,19 @@
         <v>227</v>
       </c>
       <c r="B248" s="57" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="C248" s="16" t="s">
-        <v>485</v>
-      </c>
-      <c r="D248" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="E248" s="57" t="s">
-        <v>132</v>
+        <v>493</v>
+      </c>
+      <c r="D248" s="47" t="s">
+        <v>646</v>
+      </c>
+      <c r="E248" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="H248" s="2" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
@@ -23371,16 +23383,19 @@
         <v>227</v>
       </c>
       <c r="B249" s="57" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="C249" s="16" t="s">
-        <v>487</v>
-      </c>
-      <c r="D249" s="49" t="s">
-        <v>705</v>
-      </c>
-      <c r="E249" s="57" t="s">
-        <v>433</v>
+        <v>519</v>
+      </c>
+      <c r="D249" s="57" t="s">
+        <v>648</v>
+      </c>
+      <c r="E249" s="47" t="s">
+        <v>649</v>
+      </c>
+      <c r="H249" s="2" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
@@ -23388,16 +23403,19 @@
         <v>227</v>
       </c>
       <c r="B250" s="57" t="s">
+        <v>697</v>
+      </c>
+      <c r="C250" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="D250" s="47" t="s">
+        <v>651</v>
+      </c>
+      <c r="E250" s="47" t="s">
+        <v>652</v>
+      </c>
+      <c r="H250" s="2" t="s">
         <v>704</v>
-      </c>
-      <c r="C250" s="16" t="s">
-        <v>489</v>
-      </c>
-      <c r="D250" s="57" t="s">
-        <v>862</v>
-      </c>
-      <c r="E250" s="58" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
@@ -23405,173 +23423,164 @@
         <v>227</v>
       </c>
       <c r="B251" s="57" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="C251" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D251" s="57" t="s">
-        <v>638</v>
+        <v>519</v>
+      </c>
+      <c r="D251" s="47" t="s">
+        <v>657</v>
       </c>
       <c r="E251" s="57" t="s">
-        <v>63</v>
+        <v>658</v>
+      </c>
+      <c r="H251" s="2" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="57" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="B252" s="57" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="C252" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D252" s="57" t="s">
-        <v>639</v>
+        <v>485</v>
+      </c>
+      <c r="D252" s="16" t="s">
+        <v>132</v>
       </c>
       <c r="E252" s="57" t="s">
-        <v>428</v>
+        <v>132</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="57" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="B253" s="57" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="C253" s="16" t="s">
-        <v>493</v>
-      </c>
-      <c r="D253" s="57" t="s">
-        <v>640</v>
-      </c>
-      <c r="E253" s="57">
-        <v>0</v>
-      </c>
-      <c r="H253" s="2" t="s">
-        <v>706</v>
+        <v>487</v>
+      </c>
+      <c r="D253" s="49" t="s">
+        <v>708</v>
+      </c>
+      <c r="E253" s="57" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="57" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="B254" s="57" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="C254" s="16" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D254" s="57" t="s">
-        <v>642</v>
-      </c>
-      <c r="E254" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="H254" s="2" t="s">
-        <v>707</v>
+        <v>851</v>
+      </c>
+      <c r="E254" s="58" t="s">
+        <v>809</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="57" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="B255" s="57" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="C255" s="16" t="s">
-        <v>493</v>
-      </c>
-      <c r="D255" s="47" t="s">
-        <v>647</v>
-      </c>
-      <c r="E255" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="H255" s="2" t="s">
-        <v>709</v>
+        <v>30</v>
+      </c>
+      <c r="D255" s="57" t="s">
+        <v>638</v>
+      </c>
+      <c r="E255" s="57" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="57" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="B256" s="57" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="C256" s="16" t="s">
-        <v>519</v>
+        <v>34</v>
       </c>
       <c r="D256" s="57" t="s">
-        <v>649</v>
-      </c>
-      <c r="E256" s="47" t="s">
-        <v>650</v>
-      </c>
-      <c r="H256" s="2" t="s">
-        <v>710</v>
+        <v>639</v>
+      </c>
+      <c r="E256" s="57" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="57" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="B257" s="57" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="C257" s="16" t="s">
-        <v>519</v>
-      </c>
-      <c r="D257" s="47" t="s">
-        <v>652</v>
-      </c>
-      <c r="E257" s="47" t="s">
-        <v>653</v>
+        <v>493</v>
+      </c>
+      <c r="D257" s="57" t="s">
+        <v>640</v>
+      </c>
+      <c r="E257" s="57">
+        <v>0</v>
       </c>
       <c r="H257" s="2" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="57" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="B258" s="57" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="C258" s="16" t="s">
-        <v>519</v>
-      </c>
-      <c r="D258" s="47" t="s">
-        <v>658</v>
-      </c>
-      <c r="E258" s="57" t="s">
-        <v>659</v>
+        <v>493</v>
+      </c>
+      <c r="D258" s="57" t="s">
+        <v>642</v>
+      </c>
+      <c r="E258" s="47" t="s">
+        <v>127</v>
       </c>
       <c r="H258" s="2" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="57" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="B259" s="57" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="C259" s="16" t="s">
-        <v>592</v>
+        <v>493</v>
       </c>
       <c r="D259" s="47" t="s">
-        <v>714</v>
+        <v>646</v>
       </c>
       <c r="E259" s="47" t="s">
-        <v>714</v>
+        <v>139</v>
       </c>
       <c r="H259" s="2" t="s">
-        <v>662</v>
+        <v>712</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
@@ -23579,16 +23588,19 @@
         <v>176</v>
       </c>
       <c r="B260" s="57" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="C260" s="16" t="s">
-        <v>485</v>
-      </c>
-      <c r="D260" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="E260" s="57" t="s">
-        <v>132</v>
+        <v>519</v>
+      </c>
+      <c r="D260" s="57" t="s">
+        <v>648</v>
+      </c>
+      <c r="E260" s="47" t="s">
+        <v>649</v>
+      </c>
+      <c r="H260" s="2" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
@@ -23596,16 +23608,19 @@
         <v>176</v>
       </c>
       <c r="B261" s="57" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="C261" s="16" t="s">
-        <v>487</v>
-      </c>
-      <c r="D261" s="49" t="s">
-        <v>716</v>
-      </c>
-      <c r="E261" s="57" t="s">
-        <v>431</v>
+        <v>519</v>
+      </c>
+      <c r="D261" s="47" t="s">
+        <v>651</v>
+      </c>
+      <c r="E261" s="47" t="s">
+        <v>652</v>
+      </c>
+      <c r="H261" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
@@ -23613,190 +23628,184 @@
         <v>176</v>
       </c>
       <c r="B262" s="57" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="C262" s="16" t="s">
-        <v>489</v>
-      </c>
-      <c r="D262" s="57" t="s">
-        <v>861</v>
-      </c>
-      <c r="E262" s="58" t="s">
-        <v>819</v>
+        <v>519</v>
+      </c>
+      <c r="D262" s="47" t="s">
+        <v>657</v>
+      </c>
+      <c r="E262" s="57" t="s">
+        <v>658</v>
+      </c>
+      <c r="H262" s="2" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="57" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="B263" s="57" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="C263" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D263" s="57" t="s">
-        <v>638</v>
+        <v>485</v>
+      </c>
+      <c r="D263" s="16" t="s">
+        <v>132</v>
       </c>
       <c r="E263" s="57" t="s">
-        <v>63</v>
+        <v>132</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="57" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="B264" s="57" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="C264" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D264" s="57" t="s">
-        <v>639</v>
+        <v>487</v>
+      </c>
+      <c r="D264" s="49" t="s">
+        <v>718</v>
       </c>
       <c r="E264" s="57" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="57" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="B265" s="57" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="C265" s="16" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D265" s="57" t="s">
-        <v>640</v>
-      </c>
-      <c r="E265" s="57">
-        <v>0</v>
-      </c>
-      <c r="H265" s="2" t="s">
-        <v>717</v>
+        <v>850</v>
+      </c>
+      <c r="E265" s="58" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="57" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="B266" s="57" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="C266" s="16" t="s">
-        <v>493</v>
+        <v>30</v>
       </c>
       <c r="D266" s="57" t="s">
-        <v>642</v>
-      </c>
-      <c r="E266" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="H266" s="2" t="s">
-        <v>718</v>
+        <v>638</v>
+      </c>
+      <c r="E266" s="57" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="57" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="B267" s="57" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="C267" s="16" t="s">
-        <v>493</v>
-      </c>
-      <c r="D267" s="47" t="s">
-        <v>647</v>
-      </c>
-      <c r="E267" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="H267" s="2" t="s">
-        <v>720</v>
+        <v>34</v>
+      </c>
+      <c r="D267" s="57" t="s">
+        <v>639</v>
+      </c>
+      <c r="E267" s="57" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="57" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="B268" s="57" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="C268" s="16" t="s">
-        <v>519</v>
+        <v>493</v>
       </c>
       <c r="D268" s="57" t="s">
-        <v>649</v>
-      </c>
-      <c r="E268" s="47" t="s">
-        <v>650</v>
+        <v>640</v>
+      </c>
+      <c r="E268" s="57">
+        <v>0</v>
       </c>
       <c r="H268" s="2" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="57" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="B269" s="57" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="C269" s="16" t="s">
-        <v>519</v>
-      </c>
-      <c r="D269" s="47" t="s">
-        <v>652</v>
+        <v>493</v>
+      </c>
+      <c r="D269" s="57" t="s">
+        <v>642</v>
       </c>
       <c r="E269" s="47" t="s">
-        <v>653</v>
+        <v>127</v>
       </c>
       <c r="H269" s="2" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="57" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="B270" s="57" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="C270" s="16" t="s">
-        <v>519</v>
+        <v>493</v>
       </c>
       <c r="D270" s="47" t="s">
-        <v>658</v>
-      </c>
-      <c r="E270" s="57" t="s">
-        <v>659</v>
+        <v>646</v>
+      </c>
+      <c r="E270" s="47" t="s">
+        <v>139</v>
       </c>
       <c r="H270" s="2" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="57" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="B271" s="57" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="C271" s="16" t="s">
-        <v>592</v>
-      </c>
-      <c r="D271" s="47" t="s">
-        <v>725</v>
+        <v>519</v>
+      </c>
+      <c r="D271" s="57" t="s">
+        <v>648</v>
       </c>
       <c r="E271" s="47" t="s">
-        <v>725</v>
+        <v>649</v>
       </c>
       <c r="H271" s="2" t="s">
-        <v>662</v>
+        <v>723</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
@@ -23804,16 +23813,19 @@
         <v>154</v>
       </c>
       <c r="B272" s="57" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="C272" s="16" t="s">
-        <v>485</v>
-      </c>
-      <c r="D272" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="E272" s="57" t="s">
-        <v>132</v>
+        <v>519</v>
+      </c>
+      <c r="D272" s="47" t="s">
+        <v>651</v>
+      </c>
+      <c r="E272" s="47" t="s">
+        <v>652</v>
+      </c>
+      <c r="H272" s="2" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
@@ -23821,207 +23833,204 @@
         <v>154</v>
       </c>
       <c r="B273" s="57" t="s">
+        <v>717</v>
+      </c>
+      <c r="C273" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="D273" s="47" t="s">
+        <v>657</v>
+      </c>
+      <c r="E273" s="57" t="s">
+        <v>658</v>
+      </c>
+      <c r="H273" s="2" t="s">
         <v>726</v>
-      </c>
-      <c r="C273" s="16" t="s">
-        <v>487</v>
-      </c>
-      <c r="D273" s="49" t="s">
-        <v>727</v>
-      </c>
-      <c r="E273" s="57" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="57" t="s">
-        <v>154</v>
+        <v>220</v>
       </c>
       <c r="B274" s="57" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C274" s="16" t="s">
-        <v>489</v>
-      </c>
-      <c r="D274" s="57" t="s">
-        <v>860</v>
-      </c>
-      <c r="E274" s="58" t="s">
-        <v>820</v>
+        <v>485</v>
+      </c>
+      <c r="D274" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="E274" s="57" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="57" t="s">
-        <v>154</v>
+        <v>220</v>
       </c>
       <c r="B275" s="57" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C275" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D275" s="57" t="s">
-        <v>638</v>
+        <v>487</v>
+      </c>
+      <c r="D275" s="49" t="s">
+        <v>728</v>
       </c>
       <c r="E275" s="57" t="s">
-        <v>63</v>
+        <v>424</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="57" t="s">
-        <v>154</v>
+        <v>220</v>
       </c>
       <c r="B276" s="57" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C276" s="16" t="s">
-        <v>34</v>
+        <v>489</v>
       </c>
       <c r="D276" s="57" t="s">
-        <v>639</v>
-      </c>
-      <c r="E276" s="57" t="s">
-        <v>428</v>
+        <v>849</v>
+      </c>
+      <c r="E276" s="58" t="s">
+        <v>811</v>
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="57" t="s">
-        <v>154</v>
+        <v>220</v>
       </c>
       <c r="B277" s="57" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C277" s="16" t="s">
-        <v>493</v>
+        <v>30</v>
       </c>
       <c r="D277" s="57" t="s">
-        <v>640</v>
-      </c>
-      <c r="E277" s="57">
-        <v>0</v>
-      </c>
-      <c r="H277" s="2" t="s">
-        <v>728</v>
+        <v>638</v>
+      </c>
+      <c r="E277" s="57" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="57" t="s">
-        <v>154</v>
+        <v>220</v>
       </c>
       <c r="B278" s="57" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C278" s="16" t="s">
-        <v>493</v>
+        <v>34</v>
       </c>
       <c r="D278" s="57" t="s">
-        <v>642</v>
-      </c>
-      <c r="E278" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="H278" s="2" t="s">
-        <v>729</v>
+        <v>639</v>
+      </c>
+      <c r="E278" s="57" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="57" t="s">
-        <v>154</v>
+        <v>220</v>
       </c>
       <c r="B279" s="57" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C279" s="16" t="s">
         <v>493</v>
       </c>
       <c r="D279" s="47" t="s">
-        <v>647</v>
-      </c>
-      <c r="E279" s="47" t="s">
-        <v>139</v>
+        <v>640</v>
+      </c>
+      <c r="E279" s="57">
+        <v>0</v>
       </c>
       <c r="H279" s="2" t="s">
-        <v>731</v>
+        <v>921</v>
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="57" t="s">
-        <v>154</v>
+        <v>220</v>
       </c>
       <c r="B280" s="57" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C280" s="16" t="s">
-        <v>519</v>
+        <v>493</v>
       </c>
       <c r="D280" s="57" t="s">
-        <v>649</v>
-      </c>
-      <c r="E280" s="47" t="s">
-        <v>650</v>
-      </c>
-      <c r="H280" s="2" t="s">
-        <v>732</v>
+        <v>642</v>
+      </c>
+      <c r="E280" s="57">
+        <v>1</v>
+      </c>
+      <c r="H280" s="64" t="s">
+        <v>939</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="57" t="s">
-        <v>154</v>
+        <v>220</v>
       </c>
       <c r="B281" s="57" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C281" s="16" t="s">
-        <v>519</v>
+        <v>493</v>
       </c>
       <c r="D281" s="47" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="E281" s="47" t="s">
-        <v>653</v>
+        <v>139</v>
       </c>
       <c r="H281" s="2" t="s">
-        <v>733</v>
+        <v>922</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="57" t="s">
-        <v>154</v>
+        <v>220</v>
       </c>
       <c r="B282" s="57" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C282" s="16" t="s">
-        <v>519</v>
+        <v>493</v>
       </c>
       <c r="D282" s="47" t="s">
-        <v>658</v>
-      </c>
-      <c r="E282" s="57" t="s">
-        <v>659</v>
+        <v>648</v>
+      </c>
+      <c r="E282" s="47" t="s">
+        <v>649</v>
       </c>
       <c r="H282" s="2" t="s">
-        <v>735</v>
+        <v>923</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="57" t="s">
-        <v>154</v>
+        <v>220</v>
       </c>
       <c r="B283" s="57" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C283" s="16" t="s">
-        <v>592</v>
+        <v>519</v>
       </c>
       <c r="D283" s="47" t="s">
-        <v>736</v>
+        <v>651</v>
       </c>
       <c r="E283" s="47" t="s">
-        <v>736</v>
-      </c>
-      <c r="H283" s="2" t="s">
-        <v>662</v>
+        <v>685</v>
+      </c>
+      <c r="H283" s="64" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
@@ -24029,16 +24038,19 @@
         <v>220</v>
       </c>
       <c r="B284" s="57" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="C284" s="16" t="s">
-        <v>485</v>
-      </c>
-      <c r="D284" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="E284" s="57" t="s">
-        <v>132</v>
+        <v>519</v>
+      </c>
+      <c r="D284" s="57" t="s">
+        <v>657</v>
+      </c>
+      <c r="E284" s="47" t="s">
+        <v>658</v>
+      </c>
+      <c r="H284" s="2" t="s">
+        <v>924</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
@@ -24046,207 +24058,207 @@
         <v>220</v>
       </c>
       <c r="B285" s="57" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="C285" s="16" t="s">
-        <v>487</v>
-      </c>
-      <c r="D285" s="49" t="s">
-        <v>738</v>
-      </c>
-      <c r="E285" s="57" t="s">
-        <v>424</v>
+        <v>592</v>
+      </c>
+      <c r="D285" s="47" t="s">
+        <v>925</v>
+      </c>
+      <c r="E285" s="47" t="s">
+        <v>925</v>
+      </c>
+      <c r="H285" s="64" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="57" t="s">
-        <v>220</v>
+        <v>169</v>
       </c>
       <c r="B286" s="57" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="C286" s="16" t="s">
-        <v>489</v>
-      </c>
-      <c r="D286" s="57" t="s">
-        <v>859</v>
-      </c>
-      <c r="E286" s="58" t="s">
-        <v>821</v>
+        <v>485</v>
+      </c>
+      <c r="D286" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="E286" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="H286" s="64" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="57" t="s">
-        <v>220</v>
+        <v>169</v>
       </c>
       <c r="B287" s="57" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="C287" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D287" s="57" t="s">
-        <v>638</v>
+        <v>487</v>
+      </c>
+      <c r="D287" s="49" t="s">
+        <v>730</v>
       </c>
       <c r="E287" s="57" t="s">
-        <v>63</v>
+        <v>420</v>
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="57" t="s">
-        <v>220</v>
+        <v>169</v>
       </c>
       <c r="B288" s="57" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="C288" s="16" t="s">
-        <v>34</v>
+        <v>489</v>
       </c>
       <c r="D288" s="57" t="s">
-        <v>639</v>
-      </c>
-      <c r="E288" s="57" t="s">
-        <v>151</v>
+        <v>848</v>
+      </c>
+      <c r="E288" s="58" t="s">
+        <v>813</v>
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="57" t="s">
-        <v>220</v>
+        <v>169</v>
       </c>
       <c r="B289" s="57" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="C289" s="16" t="s">
-        <v>493</v>
-      </c>
-      <c r="D289" s="47" t="s">
-        <v>640</v>
-      </c>
-      <c r="E289" s="57">
-        <v>0</v>
-      </c>
-      <c r="H289" s="2" t="s">
-        <v>931</v>
+        <v>30</v>
+      </c>
+      <c r="D289" s="57" t="s">
+        <v>638</v>
+      </c>
+      <c r="E289" s="57" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="57" t="s">
-        <v>220</v>
+        <v>169</v>
       </c>
       <c r="B290" s="57" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="C290" s="16" t="s">
-        <v>493</v>
+        <v>34</v>
       </c>
       <c r="D290" s="57" t="s">
-        <v>642</v>
-      </c>
-      <c r="E290" s="57">
-        <v>1</v>
-      </c>
-      <c r="H290" s="74" t="s">
-        <v>949</v>
+        <v>639</v>
+      </c>
+      <c r="E290" s="57" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" s="57" t="s">
-        <v>220</v>
+        <v>169</v>
       </c>
       <c r="B291" s="57" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="C291" s="16" t="s">
         <v>493</v>
       </c>
       <c r="D291" s="47" t="s">
-        <v>647</v>
-      </c>
-      <c r="E291" s="47" t="s">
-        <v>139</v>
+        <v>640</v>
+      </c>
+      <c r="E291" s="57">
+        <v>0</v>
       </c>
       <c r="H291" s="2" t="s">
-        <v>932</v>
+        <v>731</v>
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="57" t="s">
-        <v>220</v>
+        <v>169</v>
       </c>
       <c r="B292" s="57" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="C292" s="16" t="s">
         <v>493</v>
       </c>
-      <c r="D292" s="47" t="s">
-        <v>649</v>
-      </c>
-      <c r="E292" s="47" t="s">
-        <v>650</v>
+      <c r="D292" s="57" t="s">
+        <v>642</v>
+      </c>
+      <c r="E292" s="57">
+        <v>1</v>
       </c>
       <c r="H292" s="2" t="s">
-        <v>933</v>
+        <v>732</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="57" t="s">
-        <v>220</v>
+        <v>169</v>
       </c>
       <c r="B293" s="57" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="C293" s="16" t="s">
-        <v>519</v>
+        <v>493</v>
       </c>
       <c r="D293" s="47" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="E293" s="47" t="s">
-        <v>691</v>
-      </c>
-      <c r="H293" s="74" t="s">
-        <v>950</v>
+        <v>139</v>
+      </c>
+      <c r="H293" s="2" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="57" t="s">
-        <v>220</v>
+        <v>169</v>
       </c>
       <c r="B294" s="57" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="C294" s="16" t="s">
         <v>519</v>
       </c>
-      <c r="D294" s="57" t="s">
-        <v>658</v>
+      <c r="D294" s="47" t="s">
+        <v>648</v>
       </c>
       <c r="E294" s="47" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="H294" s="2" t="s">
-        <v>934</v>
+        <v>734</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="57" t="s">
-        <v>220</v>
+        <v>169</v>
       </c>
       <c r="B295" s="57" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="C295" s="16" t="s">
-        <v>592</v>
+        <v>519</v>
       </c>
       <c r="D295" s="47" t="s">
-        <v>935</v>
+        <v>651</v>
       </c>
       <c r="E295" s="47" t="s">
-        <v>935</v>
-      </c>
-      <c r="H295" s="74" t="s">
-        <v>662</v>
+        <v>685</v>
+      </c>
+      <c r="H295" s="2" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.25">
@@ -24254,19 +24266,19 @@
         <v>169</v>
       </c>
       <c r="B296" s="57" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="C296" s="16" t="s">
-        <v>485</v>
-      </c>
-      <c r="D296" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="E296" s="57" t="s">
-        <v>132</v>
-      </c>
-      <c r="H296" s="74" t="s">
-        <v>662</v>
+        <v>519</v>
+      </c>
+      <c r="D296" s="57" t="s">
+        <v>657</v>
+      </c>
+      <c r="E296" s="47" t="s">
+        <v>658</v>
+      </c>
+      <c r="H296" s="2" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.25">
@@ -24274,207 +24286,216 @@
         <v>169</v>
       </c>
       <c r="B297" s="57" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="C297" s="16" t="s">
+        <v>592</v>
+      </c>
+      <c r="D297" s="47" t="s">
+        <v>737</v>
+      </c>
+      <c r="E297" s="47" t="s">
+        <v>737</v>
+      </c>
+      <c r="H297" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A298" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C298" s="16" t="s">
+        <v>485</v>
+      </c>
+      <c r="D298" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="E298" s="47" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A299" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C299" s="16" t="s">
         <v>487</v>
       </c>
-      <c r="D297" s="49" t="s">
-        <v>740</v>
-      </c>
-      <c r="E297" s="57" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A298" s="57" t="s">
-        <v>169</v>
-      </c>
-      <c r="B298" s="57" t="s">
-        <v>739</v>
-      </c>
-      <c r="C298" s="16" t="s">
+      <c r="D299" s="51" t="s">
+        <v>205</v>
+      </c>
+      <c r="E299" s="57" t="s">
+        <v>407</v>
+      </c>
+      <c r="H299" s="2" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A300" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C300" s="16" t="s">
         <v>489</v>
       </c>
-      <c r="D298" s="57" t="s">
-        <v>858</v>
-      </c>
-      <c r="E298" s="58" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A299" s="57" t="s">
-        <v>169</v>
-      </c>
-      <c r="B299" s="57" t="s">
-        <v>739</v>
-      </c>
-      <c r="C299" s="16" t="s">
+      <c r="D300" s="56" t="s">
+        <v>785</v>
+      </c>
+      <c r="E300" s="58" t="s">
+        <v>820</v>
+      </c>
+      <c r="H300" s="2" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A301" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C301" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D299" s="57" t="s">
-        <v>638</v>
-      </c>
-      <c r="E299" s="57" t="s">
+      <c r="D301" s="57" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A300" s="57" t="s">
-        <v>169</v>
-      </c>
-      <c r="B300" s="57" t="s">
-        <v>739</v>
-      </c>
-      <c r="C300" s="16" t="s">
+      <c r="E301" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="H301" s="2" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A302" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C302" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D300" s="57" t="s">
-        <v>639</v>
-      </c>
-      <c r="E300" s="57" t="s">
+      <c r="D302" s="57" t="s">
+        <v>340</v>
+      </c>
+      <c r="E302" s="57" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A301" s="57" t="s">
-        <v>169</v>
-      </c>
-      <c r="B301" s="57" t="s">
-        <v>739</v>
-      </c>
-      <c r="C301" s="16" t="s">
-        <v>493</v>
-      </c>
-      <c r="D301" s="47" t="s">
-        <v>640</v>
-      </c>
-      <c r="E301" s="57">
-        <v>0</v>
-      </c>
-      <c r="H301" s="2" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A302" s="57" t="s">
-        <v>169</v>
-      </c>
-      <c r="B302" s="57" t="s">
-        <v>739</v>
-      </c>
-      <c r="C302" s="16" t="s">
-        <v>493</v>
-      </c>
-      <c r="D302" s="57" t="s">
-        <v>642</v>
-      </c>
-      <c r="E302" s="57">
-        <v>1</v>
-      </c>
       <c r="H302" s="2" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A303" s="57" t="s">
-        <v>169</v>
-      </c>
-      <c r="B303" s="57" t="s">
-        <v>739</v>
+      <c r="A303" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>355</v>
       </c>
       <c r="C303" s="16" t="s">
         <v>493</v>
       </c>
       <c r="D303" s="47" t="s">
-        <v>647</v>
-      </c>
-      <c r="E303" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="E303" s="57">
+        <v>0</v>
+      </c>
+      <c r="H303" s="2" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A304" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C304" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="D304" s="50">
+        <v>1</v>
+      </c>
+      <c r="E304" s="57">
+        <v>1</v>
+      </c>
+      <c r="H304" s="2" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A305" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C305" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="D305" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="H303" s="2" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A304" s="57" t="s">
-        <v>169</v>
-      </c>
-      <c r="B304" s="57" t="s">
-        <v>739</v>
-      </c>
-      <c r="C304" s="16" t="s">
-        <v>519</v>
-      </c>
-      <c r="D304" s="47" t="s">
-        <v>649</v>
-      </c>
-      <c r="E304" s="47" t="s">
-        <v>650</v>
-      </c>
-      <c r="H304" s="2" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A305" s="57" t="s">
-        <v>169</v>
-      </c>
-      <c r="B305" s="57" t="s">
-        <v>739</v>
-      </c>
-      <c r="C305" s="16" t="s">
-        <v>519</v>
-      </c>
-      <c r="D305" s="47" t="s">
-        <v>652</v>
-      </c>
       <c r="E305" s="47" t="s">
-        <v>691</v>
+        <v>139</v>
       </c>
       <c r="H305" s="2" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A306" s="57" t="s">
-        <v>169</v>
-      </c>
-      <c r="B306" s="57" t="s">
-        <v>739</v>
+      <c r="A306" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>355</v>
       </c>
       <c r="C306" s="16" t="s">
         <v>519</v>
       </c>
-      <c r="D306" s="57" t="s">
-        <v>658</v>
+      <c r="D306" s="47" t="s">
+        <v>683</v>
       </c>
       <c r="E306" s="47" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="H306" s="2" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A307" s="57" t="s">
-        <v>169</v>
-      </c>
-      <c r="B307" s="57" t="s">
-        <v>739</v>
+      <c r="A307" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>355</v>
       </c>
       <c r="C307" s="16" t="s">
-        <v>592</v>
+        <v>519</v>
       </c>
       <c r="D307" s="47" t="s">
-        <v>747</v>
+        <v>635</v>
       </c>
       <c r="E307" s="47" t="s">
-        <v>747</v>
+        <v>685</v>
       </c>
       <c r="H307" s="2" t="s">
-        <v>662</v>
+        <v>738</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.25">
@@ -24485,369 +24506,351 @@
         <v>355</v>
       </c>
       <c r="C308" s="16" t="s">
-        <v>485</v>
-      </c>
-      <c r="D308" s="16" t="s">
-        <v>132</v>
+        <v>519</v>
+      </c>
+      <c r="D308" s="57" t="s">
+        <v>686</v>
       </c>
       <c r="E308" s="47" t="s">
-        <v>132</v>
+        <v>658</v>
+      </c>
+      <c r="H308" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
-        <v>206</v>
+        <v>740</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>355</v>
+        <v>740</v>
       </c>
       <c r="C309" s="16" t="s">
-        <v>487</v>
-      </c>
-      <c r="D309" s="51" t="s">
-        <v>205</v>
-      </c>
-      <c r="E309" s="57" t="s">
-        <v>407</v>
-      </c>
-      <c r="H309" s="2" t="s">
-        <v>748</v>
+        <v>485</v>
+      </c>
+      <c r="D309" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="E309" s="47" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
-        <v>206</v>
+        <v>740</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>355</v>
+        <v>740</v>
       </c>
       <c r="C310" s="16" t="s">
-        <v>489</v>
-      </c>
-      <c r="D310" s="56" t="s">
-        <v>795</v>
-      </c>
-      <c r="E310" s="58" t="s">
-        <v>830</v>
-      </c>
-      <c r="H310" s="2" t="s">
-        <v>748</v>
+        <v>487</v>
+      </c>
+      <c r="D310" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="E310" s="57" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
-        <v>206</v>
+        <v>740</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>355</v>
+        <v>740</v>
       </c>
       <c r="C311" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D311" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="E311" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="H311" s="2" t="s">
-        <v>748</v>
+        <v>489</v>
+      </c>
+      <c r="D311" s="56" t="s">
+        <v>788</v>
+      </c>
+      <c r="E311" s="58" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>206</v>
+        <v>740</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>355</v>
+        <v>740</v>
       </c>
       <c r="C312" s="16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D312" s="57" t="s">
-        <v>340</v>
+        <v>63</v>
       </c>
       <c r="E312" s="57" t="s">
-        <v>151</v>
-      </c>
-      <c r="H312" s="2" t="s">
-        <v>748</v>
+        <v>63</v>
       </c>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>206</v>
+        <v>740</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>355</v>
+        <v>740</v>
       </c>
       <c r="C313" s="16" t="s">
-        <v>493</v>
-      </c>
-      <c r="D313" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="E313" s="57">
-        <v>0</v>
-      </c>
-      <c r="H313" s="2" t="s">
-        <v>749</v>
+        <v>34</v>
+      </c>
+      <c r="D313" s="57" t="s">
+        <v>340</v>
+      </c>
+      <c r="E313" s="57" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>206</v>
+        <v>740</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>355</v>
+        <v>740</v>
       </c>
       <c r="C314" s="16" t="s">
         <v>493</v>
       </c>
-      <c r="D314" s="50">
-        <v>1</v>
+      <c r="D314" s="47" t="s">
+        <v>58</v>
       </c>
       <c r="E314" s="57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H314" s="2" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
-        <v>206</v>
+        <v>740</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>355</v>
+        <v>740</v>
       </c>
       <c r="C315" s="16" t="s">
         <v>493</v>
       </c>
-      <c r="D315" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="E315" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="H315" s="2" t="s">
-        <v>748</v>
+      <c r="D315" s="50">
+        <v>1</v>
+      </c>
+      <c r="E315" s="57">
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
-        <v>206</v>
+        <v>740</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>355</v>
+        <v>740</v>
       </c>
       <c r="C316" s="16" t="s">
-        <v>519</v>
+        <v>493</v>
       </c>
       <c r="D316" s="47" t="s">
-        <v>689</v>
+        <v>139</v>
       </c>
       <c r="E316" s="47" t="s">
-        <v>650</v>
-      </c>
-      <c r="H316" s="2" t="s">
-        <v>749</v>
+        <v>139</v>
       </c>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
-        <v>206</v>
+        <v>740</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>355</v>
+        <v>740</v>
       </c>
       <c r="C317" s="16" t="s">
         <v>519</v>
       </c>
       <c r="D317" s="47" t="s">
-        <v>635</v>
+        <v>683</v>
       </c>
       <c r="E317" s="47" t="s">
-        <v>691</v>
+        <v>649</v>
       </c>
       <c r="H317" s="2" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
-        <v>206</v>
+        <v>740</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>355</v>
+        <v>740</v>
       </c>
       <c r="C318" s="16" t="s">
         <v>519</v>
       </c>
-      <c r="D318" s="57" t="s">
-        <v>692</v>
+      <c r="D318" s="47" t="s">
+        <v>635</v>
       </c>
       <c r="E318" s="47" t="s">
-        <v>659</v>
-      </c>
-      <c r="H318" s="2" t="s">
-        <v>748</v>
+        <v>685</v>
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="C319" s="16" t="s">
-        <v>485</v>
-      </c>
-      <c r="D319" s="16" t="s">
-        <v>132</v>
+        <v>519</v>
+      </c>
+      <c r="D319" s="57" t="s">
+        <v>686</v>
       </c>
       <c r="E319" s="47" t="s">
-        <v>132</v>
+        <v>658</v>
       </c>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
-        <v>750</v>
-      </c>
-      <c r="B320" s="2" t="s">
-        <v>750</v>
+        <v>404</v>
+      </c>
+      <c r="B320" s="56" t="s">
+        <v>401</v>
       </c>
       <c r="C320" s="16" t="s">
-        <v>487</v>
-      </c>
-      <c r="D320" s="51" t="s">
-        <v>195</v>
-      </c>
-      <c r="E320" s="57" t="s">
-        <v>406</v>
+        <v>485</v>
+      </c>
+      <c r="D320" s="47" t="s">
+        <v>742</v>
+      </c>
+      <c r="E320" s="47" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
-        <v>750</v>
-      </c>
-      <c r="B321" s="2" t="s">
-        <v>750</v>
+        <v>404</v>
+      </c>
+      <c r="B321" s="56" t="s">
+        <v>401</v>
       </c>
       <c r="C321" s="16" t="s">
-        <v>489</v>
-      </c>
-      <c r="D321" s="56" t="s">
-        <v>798</v>
-      </c>
-      <c r="E321" s="58" t="s">
-        <v>831</v>
+        <v>487</v>
+      </c>
+      <c r="D321" s="47" t="s">
+        <v>743</v>
+      </c>
+      <c r="E321" s="50">
+        <v>5</v>
       </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
-        <v>750</v>
-      </c>
-      <c r="B322" s="2" t="s">
-        <v>750</v>
+        <v>404</v>
+      </c>
+      <c r="B322" s="56" t="s">
+        <v>401</v>
       </c>
       <c r="C322" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D322" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="E322" s="57" t="s">
-        <v>63</v>
+        <v>489</v>
+      </c>
+      <c r="D322" s="47" t="s">
+        <v>847</v>
+      </c>
+      <c r="E322" s="58" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>750</v>
-      </c>
-      <c r="B323" s="2" t="s">
-        <v>750</v>
+        <v>404</v>
+      </c>
+      <c r="B323" s="56" t="s">
+        <v>401</v>
       </c>
       <c r="C323" s="16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D323" s="57" t="s">
-        <v>340</v>
+        <v>744</v>
       </c>
       <c r="E323" s="57" t="s">
-        <v>151</v>
+        <v>63</v>
       </c>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
-        <v>750</v>
-      </c>
-      <c r="B324" s="2" t="s">
-        <v>750</v>
+        <v>404</v>
+      </c>
+      <c r="B324" s="56" t="s">
+        <v>401</v>
       </c>
       <c r="C324" s="16" t="s">
-        <v>493</v>
-      </c>
-      <c r="D324" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="E324" s="57">
-        <v>0</v>
-      </c>
-      <c r="H324" s="2" t="s">
-        <v>751</v>
+        <v>34</v>
+      </c>
+      <c r="D324" s="57" t="s">
+        <v>745</v>
+      </c>
+      <c r="E324" s="57" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
-        <v>750</v>
-      </c>
-      <c r="B325" s="2" t="s">
-        <v>750</v>
+        <v>404</v>
+      </c>
+      <c r="B325" s="56" t="s">
+        <v>401</v>
       </c>
       <c r="C325" s="16" t="s">
         <v>493</v>
       </c>
-      <c r="D325" s="50">
-        <v>1</v>
+      <c r="D325" s="47" t="s">
+        <v>746</v>
       </c>
       <c r="E325" s="57">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H325" s="2" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
-        <v>750</v>
-      </c>
-      <c r="B326" s="2" t="s">
-        <v>750</v>
+        <v>404</v>
+      </c>
+      <c r="B326" s="56" t="s">
+        <v>401</v>
       </c>
       <c r="C326" s="16" t="s">
         <v>493</v>
       </c>
       <c r="D326" s="47" t="s">
-        <v>139</v>
+        <v>748</v>
       </c>
       <c r="E326" s="47" t="s">
-        <v>139</v>
+        <v>127</v>
+      </c>
+      <c r="H326" s="2" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B327" s="56" t="s">
+        <v>401</v>
+      </c>
+      <c r="C327" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="D327" s="47" t="s">
         <v>750</v>
       </c>
-      <c r="B327" s="2" t="s">
-        <v>750</v>
-      </c>
-      <c r="C327" s="16" t="s">
-        <v>519</v>
-      </c>
-      <c r="D327" s="47" t="s">
-        <v>689</v>
-      </c>
       <c r="E327" s="47" t="s">
-        <v>650</v>
+        <v>139</v>
       </c>
       <c r="H327" s="2" t="s">
         <v>751</v>
@@ -24855,36 +24858,42 @@
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
-        <v>750</v>
-      </c>
-      <c r="B328" s="2" t="s">
-        <v>750</v>
+        <v>404</v>
+      </c>
+      <c r="B328" s="56" t="s">
+        <v>401</v>
       </c>
       <c r="C328" s="16" t="s">
         <v>519</v>
       </c>
       <c r="D328" s="47" t="s">
-        <v>635</v>
-      </c>
-      <c r="E328" s="47" t="s">
-        <v>691</v>
+        <v>752</v>
+      </c>
+      <c r="E328" s="57" t="s">
+        <v>634</v>
+      </c>
+      <c r="H328" s="2" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
-        <v>750</v>
-      </c>
-      <c r="B329" s="2" t="s">
-        <v>750</v>
+        <v>404</v>
+      </c>
+      <c r="B329" s="56" t="s">
+        <v>401</v>
       </c>
       <c r="C329" s="16" t="s">
         <v>519</v>
       </c>
-      <c r="D329" s="57" t="s">
-        <v>692</v>
+      <c r="D329" s="47" t="s">
+        <v>754</v>
       </c>
       <c r="E329" s="47" t="s">
-        <v>659</v>
+        <v>636</v>
+      </c>
+      <c r="H329" s="2" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.25">
@@ -24895,13 +24904,16 @@
         <v>401</v>
       </c>
       <c r="C330" s="16" t="s">
-        <v>485</v>
+        <v>519</v>
       </c>
       <c r="D330" s="47" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="E330" s="47" t="s">
-        <v>132</v>
+        <v>757</v>
+      </c>
+      <c r="H330" s="2" t="s">
+        <v>758</v>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.25">
@@ -24912,424 +24924,236 @@
         <v>401</v>
       </c>
       <c r="C331" s="16" t="s">
-        <v>487</v>
+        <v>592</v>
       </c>
       <c r="D331" s="47" t="s">
-        <v>753</v>
-      </c>
-      <c r="E331" s="50">
-        <v>5</v>
+        <v>759</v>
+      </c>
+      <c r="E331" s="47" t="s">
+        <v>759</v>
+      </c>
+      <c r="H331" s="2" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A332" s="2" t="s">
-        <v>404</v>
+      <c r="A332" s="56" t="s">
+        <v>402</v>
       </c>
       <c r="B332" s="56" t="s">
         <v>401</v>
       </c>
       <c r="C332" s="16" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D332" s="47" t="s">
-        <v>857</v>
-      </c>
-      <c r="E332" s="58" t="s">
-        <v>832</v>
+        <v>742</v>
+      </c>
+      <c r="E332" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="H332" s="2" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A333" s="2" t="s">
-        <v>404</v>
+      <c r="A333" s="56" t="s">
+        <v>402</v>
       </c>
       <c r="B333" s="56" t="s">
         <v>401</v>
       </c>
       <c r="C333" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D333" s="57" t="s">
-        <v>754</v>
-      </c>
-      <c r="E333" s="57" t="s">
-        <v>63</v>
+        <v>487</v>
+      </c>
+      <c r="D333" s="47" t="s">
+        <v>743</v>
+      </c>
+      <c r="E333" s="50">
+        <v>5</v>
+      </c>
+      <c r="H333" s="2" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A334" s="2" t="s">
-        <v>404</v>
+      <c r="A334" s="56" t="s">
+        <v>402</v>
       </c>
       <c r="B334" s="56" t="s">
         <v>401</v>
       </c>
       <c r="C334" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D334" s="57" t="s">
-        <v>755</v>
-      </c>
-      <c r="E334" s="57" t="s">
-        <v>151</v>
+        <v>489</v>
+      </c>
+      <c r="D334" s="47" t="s">
+        <v>847</v>
+      </c>
+      <c r="E334" s="56" t="s">
+        <v>823</v>
+      </c>
+      <c r="H334" s="2" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A335" s="2" t="s">
-        <v>404</v>
+      <c r="A335" s="56" t="s">
+        <v>402</v>
       </c>
       <c r="B335" s="56" t="s">
         <v>401</v>
       </c>
       <c r="C335" s="16" t="s">
-        <v>493</v>
-      </c>
-      <c r="D335" s="47" t="s">
-        <v>756</v>
-      </c>
-      <c r="E335" s="57">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="D335" s="57" t="s">
+        <v>744</v>
+      </c>
+      <c r="E335" s="57" t="s">
+        <v>63</v>
       </c>
       <c r="H335" s="2" t="s">
-        <v>757</v>
+        <v>660</v>
       </c>
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A336" s="2" t="s">
-        <v>404</v>
+      <c r="A336" s="56" t="s">
+        <v>402</v>
       </c>
       <c r="B336" s="56" t="s">
         <v>401</v>
       </c>
       <c r="C336" s="16" t="s">
-        <v>493</v>
-      </c>
-      <c r="D336" s="47" t="s">
-        <v>758</v>
+        <v>34</v>
+      </c>
+      <c r="D336" s="57" t="s">
+        <v>745</v>
       </c>
       <c r="E336" s="47" t="s">
-        <v>127</v>
+        <v>400</v>
       </c>
       <c r="H336" s="2" t="s">
-        <v>759</v>
+        <v>660</v>
       </c>
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A337" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="B337" s="56" t="s">
-        <v>401</v>
+      <c r="A337" s="56" t="s">
+        <v>402</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>371</v>
       </c>
       <c r="C337" s="16" t="s">
         <v>493</v>
       </c>
       <c r="D337" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="E337" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="H337" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A338" s="56" t="s">
+        <v>402</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C338" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="D338" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="E338" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="H338" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A339" s="56" t="s">
+        <v>402</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C339" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="D339" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="E339" s="47" t="s">
+        <v>216</v>
+      </c>
+      <c r="H339" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A340" s="56" t="s">
+        <v>402</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C340" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="D340" s="47" t="s">
+        <v>635</v>
+      </c>
+      <c r="E340" s="47" t="s">
         <v>760</v>
       </c>
-      <c r="E337" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="H337" s="2" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A338" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="B338" s="56" t="s">
-        <v>401</v>
-      </c>
-      <c r="C338" s="16" t="s">
-        <v>519</v>
-      </c>
-      <c r="D338" s="47" t="s">
-        <v>762</v>
-      </c>
-      <c r="E338" s="57" t="s">
-        <v>634</v>
-      </c>
-      <c r="H338" s="2" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A339" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="B339" s="56" t="s">
-        <v>401</v>
-      </c>
-      <c r="C339" s="16" t="s">
-        <v>519</v>
-      </c>
-      <c r="D339" s="47" t="s">
-        <v>764</v>
-      </c>
-      <c r="E339" s="47" t="s">
-        <v>636</v>
-      </c>
-      <c r="H339" s="2" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A340" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="B340" s="56" t="s">
-        <v>401</v>
-      </c>
-      <c r="C340" s="16" t="s">
-        <v>519</v>
-      </c>
-      <c r="D340" s="47" t="s">
-        <v>766</v>
-      </c>
-      <c r="E340" s="47" t="s">
-        <v>767</v>
-      </c>
       <c r="H340" s="2" t="s">
-        <v>768</v>
+        <v>660</v>
       </c>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A341" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="B341" s="56" t="s">
-        <v>401</v>
+      <c r="A341" s="56" t="s">
+        <v>402</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>353</v>
       </c>
       <c r="C341" s="16" t="s">
-        <v>592</v>
+        <v>493</v>
       </c>
       <c r="D341" s="47" t="s">
-        <v>769</v>
+        <v>635</v>
       </c>
       <c r="E341" s="47" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="H341" s="2" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" s="56" t="s">
         <v>402</v>
       </c>
-      <c r="B342" s="56" t="s">
-        <v>401</v>
+      <c r="B342" s="2" t="s">
+        <v>336</v>
       </c>
       <c r="C342" s="16" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="D342" s="47" t="s">
-        <v>752</v>
+        <v>635</v>
       </c>
       <c r="E342" s="47" t="s">
-        <v>132</v>
+        <v>761</v>
       </c>
       <c r="H342" s="2" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A343" s="56" t="s">
-        <v>402</v>
-      </c>
-      <c r="B343" s="56" t="s">
-        <v>401</v>
-      </c>
-      <c r="C343" s="16" t="s">
-        <v>487</v>
-      </c>
-      <c r="D343" s="47" t="s">
-        <v>753</v>
-      </c>
-      <c r="E343" s="50">
-        <v>5</v>
-      </c>
-      <c r="H343" s="2" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A344" s="56" t="s">
-        <v>402</v>
-      </c>
-      <c r="B344" s="56" t="s">
-        <v>401</v>
-      </c>
-      <c r="C344" s="16" t="s">
-        <v>489</v>
-      </c>
-      <c r="D344" s="47" t="s">
-        <v>857</v>
-      </c>
-      <c r="E344" s="56" t="s">
-        <v>833</v>
-      </c>
-      <c r="H344" s="2" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A345" s="56" t="s">
-        <v>402</v>
-      </c>
-      <c r="B345" s="56" t="s">
-        <v>401</v>
-      </c>
-      <c r="C345" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D345" s="57" t="s">
-        <v>754</v>
-      </c>
-      <c r="E345" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="H345" s="2" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A346" s="56" t="s">
-        <v>402</v>
-      </c>
-      <c r="B346" s="56" t="s">
-        <v>401</v>
-      </c>
-      <c r="C346" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D346" s="57" t="s">
-        <v>755</v>
-      </c>
-      <c r="E346" s="47" t="s">
-        <v>400</v>
-      </c>
-      <c r="H346" s="2" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A347" s="56" t="s">
-        <v>402</v>
-      </c>
-      <c r="B347" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="C347" s="16" t="s">
-        <v>493</v>
-      </c>
-      <c r="D347" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="E347" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="H347" s="2" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A348" s="56" t="s">
-        <v>402</v>
-      </c>
-      <c r="B348" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C348" s="16" t="s">
-        <v>493</v>
-      </c>
-      <c r="D348" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="E348" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="H348" s="2" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A349" s="56" t="s">
-        <v>402</v>
-      </c>
-      <c r="B349" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="C349" s="16" t="s">
-        <v>493</v>
-      </c>
-      <c r="D349" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="E349" s="47" t="s">
-        <v>216</v>
-      </c>
-      <c r="H349" s="2" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A350" s="56" t="s">
-        <v>402</v>
-      </c>
-      <c r="B350" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="C350" s="16" t="s">
-        <v>493</v>
-      </c>
-      <c r="D350" s="47" t="s">
-        <v>635</v>
-      </c>
-      <c r="E350" s="47" t="s">
-        <v>770</v>
-      </c>
-      <c r="H350" s="2" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A351" s="56" t="s">
-        <v>402</v>
-      </c>
-      <c r="B351" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C351" s="16" t="s">
-        <v>493</v>
-      </c>
-      <c r="D351" s="47" t="s">
-        <v>635</v>
-      </c>
-      <c r="E351" s="47" t="s">
-        <v>770</v>
-      </c>
-      <c r="H351" s="2" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A352" s="56" t="s">
-        <v>402</v>
-      </c>
-      <c r="B352" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="C352" s="16" t="s">
-        <v>493</v>
-      </c>
-      <c r="D352" s="47" t="s">
-        <v>635</v>
-      </c>
-      <c r="E352" s="47" t="s">
-        <v>771</v>
-      </c>
-      <c r="H352" s="2" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
   </sheetData>
@@ -25344,10 +25168,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" sqref="A1:B1"/>
@@ -25357,27 +25181,27 @@
   <cols>
     <col min="1" max="2" width="18.140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="29.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="91.42578125" style="71" customWidth="1"/>
-    <col min="5" max="5" width="84.28515625" style="71" customWidth="1"/>
+    <col min="4" max="4" width="91.42578125" style="61" customWidth="1"/>
+    <col min="5" max="5" width="84.28515625" style="61" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" style="48" customWidth="1"/>
     <col min="7" max="7" width="20.5703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" style="80"/>
+    <col min="8" max="8" width="8.5703125" style="70"/>
     <col min="9" max="16384" width="8.5703125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
       <c r="G1" s="59"/>
-      <c r="H1" s="78"/>
+      <c r="H1" s="68"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
@@ -25389,10 +25213,10 @@
       <c r="C2" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="71" t="s">
+      <c r="D2" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="71" t="s">
+      <c r="E2" s="61" t="s">
         <v>98</v>
       </c>
       <c r="F2" s="47" t="s">
@@ -25401,7 +25225,7 @@
       <c r="G2" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="69" t="s">
         <v>102</v>
       </c>
     </row>
@@ -25418,14 +25242,14 @@
       <c r="D3" s="47" t="s">
         <v>644</v>
       </c>
-      <c r="E3" s="72" t="s">
+      <c r="E3" s="62" t="s">
         <v>277</v>
       </c>
-      <c r="F3" s="77" t="s">
-        <v>936</v>
-      </c>
-      <c r="H3" s="80" t="s">
-        <v>646</v>
+      <c r="F3" s="67" t="s">
+        <v>926</v>
+      </c>
+      <c r="H3" s="70" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -25441,14 +25265,14 @@
       <c r="D4" s="47" t="s">
         <v>644</v>
       </c>
-      <c r="E4" s="73" t="s">
+      <c r="E4" s="63" t="s">
         <v>128</v>
       </c>
-      <c r="F4" s="77" t="s">
-        <v>937</v>
-      </c>
-      <c r="H4" s="80" t="s">
-        <v>646</v>
+      <c r="F4" s="67" t="s">
+        <v>927</v>
+      </c>
+      <c r="H4" s="70" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -25462,16 +25286,16 @@
         <v>519</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>655</v>
-      </c>
-      <c r="E5" s="72" t="s">
-        <v>938</v>
-      </c>
-      <c r="F5" s="77" t="s">
-        <v>936</v>
-      </c>
-      <c r="H5" s="80" t="s">
-        <v>657</v>
+        <v>654</v>
+      </c>
+      <c r="E5" s="62" t="s">
+        <v>928</v>
+      </c>
+      <c r="F5" s="67" t="s">
+        <v>926</v>
+      </c>
+      <c r="H5" s="70" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -25485,16 +25309,16 @@
         <v>519</v>
       </c>
       <c r="D6" s="47" t="s">
-        <v>655</v>
-      </c>
-      <c r="E6" s="72" t="s">
-        <v>939</v>
-      </c>
-      <c r="F6" s="77" t="s">
-        <v>937</v>
-      </c>
-      <c r="H6" s="81" t="s">
-        <v>657</v>
+        <v>654</v>
+      </c>
+      <c r="E6" s="62" t="s">
+        <v>929</v>
+      </c>
+      <c r="F6" s="67" t="s">
+        <v>927</v>
+      </c>
+      <c r="H6" s="71" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -25504,66 +25328,66 @@
       <c r="B7" s="57" t="s">
         <v>465</v>
       </c>
-      <c r="C7" s="74" t="s">
-        <v>622</v>
-      </c>
-      <c r="D7" s="75" t="s">
-        <v>940</v>
-      </c>
-      <c r="E7" s="75" t="s">
-        <v>940</v>
-      </c>
-      <c r="F7" s="77" t="s">
-        <v>622</v>
-      </c>
-      <c r="H7" s="76" t="s">
-        <v>940</v>
+      <c r="C7" s="16" t="s">
+        <v>592</v>
+      </c>
+      <c r="D7" s="62" t="s">
+        <v>945</v>
+      </c>
+      <c r="E7" s="64" t="s">
+        <v>949</v>
+      </c>
+      <c r="F7" s="67" t="s">
+        <v>926</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="57" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B8" s="57" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>493</v>
-      </c>
-      <c r="D8" s="47" t="s">
-        <v>644</v>
-      </c>
-      <c r="E8" s="72" t="s">
-        <v>277</v>
-      </c>
-      <c r="F8" s="77" t="s">
-        <v>936</v>
-      </c>
-      <c r="H8" s="80" t="s">
-        <v>667</v>
+        <v>592</v>
+      </c>
+      <c r="D8" s="62" t="s">
+        <v>946</v>
+      </c>
+      <c r="E8" s="64" t="s">
+        <v>949</v>
+      </c>
+      <c r="F8" s="67" t="s">
+        <v>927</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="57" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B9" s="57" t="s">
-        <v>464</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>493</v>
-      </c>
-      <c r="D9" s="47" t="s">
-        <v>644</v>
-      </c>
-      <c r="E9" s="73" t="s">
-        <v>128</v>
-      </c>
-      <c r="F9" s="77" t="s">
-        <v>937</v>
-      </c>
-      <c r="H9" s="80" t="s">
-        <v>667</v>
+        <v>465</v>
+      </c>
+      <c r="C9" s="64" t="s">
+        <v>622</v>
+      </c>
+      <c r="D9" s="65" t="s">
+        <v>930</v>
+      </c>
+      <c r="E9" s="65" t="s">
+        <v>930</v>
+      </c>
+      <c r="F9" s="67" t="s">
+        <v>622</v>
+      </c>
+      <c r="H9" s="66" t="s">
+        <v>930</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -25574,19 +25398,19 @@
         <v>464</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>519</v>
+        <v>493</v>
       </c>
       <c r="D10" s="47" t="s">
-        <v>655</v>
-      </c>
-      <c r="E10" s="72" t="s">
-        <v>938</v>
-      </c>
-      <c r="F10" s="77" t="s">
-        <v>936</v>
-      </c>
-      <c r="H10" s="80" t="s">
-        <v>671</v>
+        <v>644</v>
+      </c>
+      <c r="E10" s="62" t="s">
+        <v>277</v>
+      </c>
+      <c r="F10" s="67" t="s">
+        <v>926</v>
+      </c>
+      <c r="H10" s="70" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -25597,19 +25421,19 @@
         <v>464</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>519</v>
+        <v>493</v>
       </c>
       <c r="D11" s="47" t="s">
-        <v>655</v>
-      </c>
-      <c r="E11" s="72" t="s">
-        <v>939</v>
-      </c>
-      <c r="F11" s="77" t="s">
-        <v>937</v>
-      </c>
-      <c r="H11" s="80" t="s">
-        <v>671</v>
+        <v>644</v>
+      </c>
+      <c r="E11" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="F11" s="67" t="s">
+        <v>927</v>
+      </c>
+      <c r="H11" s="70" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -25619,112 +25443,112 @@
       <c r="B12" s="57" t="s">
         <v>464</v>
       </c>
-      <c r="C12" s="74" t="s">
-        <v>622</v>
-      </c>
-      <c r="D12" s="75" t="s">
-        <v>941</v>
-      </c>
-      <c r="E12" s="75" t="s">
-        <v>941</v>
-      </c>
-      <c r="F12" s="77" t="s">
-        <v>622</v>
-      </c>
-      <c r="H12" s="76" t="s">
-        <v>941</v>
+      <c r="C12" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>654</v>
+      </c>
+      <c r="E12" s="62" t="s">
+        <v>928</v>
+      </c>
+      <c r="F12" s="67" t="s">
+        <v>926</v>
+      </c>
+      <c r="H12" s="70" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="57" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="B13" s="57" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>493</v>
+        <v>519</v>
       </c>
       <c r="D13" s="47" t="s">
-        <v>644</v>
-      </c>
-      <c r="E13" s="72" t="s">
-        <v>277</v>
-      </c>
-      <c r="F13" s="77" t="s">
-        <v>936</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>677</v>
+        <v>654</v>
+      </c>
+      <c r="E13" s="62" t="s">
+        <v>929</v>
+      </c>
+      <c r="F13" s="67" t="s">
+        <v>927</v>
+      </c>
+      <c r="H13" s="70" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="57" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="B14" s="57" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>493</v>
-      </c>
-      <c r="D14" s="47" t="s">
-        <v>644</v>
-      </c>
-      <c r="E14" s="73" t="s">
-        <v>128</v>
-      </c>
-      <c r="F14" s="77" t="s">
-        <v>937</v>
+        <v>592</v>
+      </c>
+      <c r="D14" s="62" t="s">
+        <v>947</v>
+      </c>
+      <c r="E14" s="62" t="s">
+        <v>949</v>
+      </c>
+      <c r="F14" s="67" t="s">
+        <v>926</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>677</v>
+        <v>660</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="57" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="B15" s="57" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>519</v>
-      </c>
-      <c r="D15" s="47" t="s">
-        <v>655</v>
-      </c>
-      <c r="E15" s="72" t="s">
-        <v>938</v>
-      </c>
-      <c r="F15" s="77" t="s">
-        <v>936</v>
+        <v>592</v>
+      </c>
+      <c r="D15" s="62" t="s">
+        <v>948</v>
+      </c>
+      <c r="E15" s="62" t="s">
+        <v>949</v>
+      </c>
+      <c r="F15" s="67" t="s">
+        <v>927</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>681</v>
+        <v>660</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="57" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="B16" s="57" t="s">
-        <v>459</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>519</v>
-      </c>
-      <c r="D16" s="47" t="s">
-        <v>655</v>
-      </c>
-      <c r="E16" s="72" t="s">
-        <v>939</v>
-      </c>
-      <c r="F16" s="77" t="s">
-        <v>937</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>681</v>
+        <v>464</v>
+      </c>
+      <c r="C16" s="64" t="s">
+        <v>622</v>
+      </c>
+      <c r="D16" s="65" t="s">
+        <v>931</v>
+      </c>
+      <c r="E16" s="65" t="s">
+        <v>931</v>
+      </c>
+      <c r="F16" s="67" t="s">
+        <v>622</v>
+      </c>
+      <c r="H16" s="66" t="s">
+        <v>931</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -25734,28 +25558,28 @@
       <c r="B17" s="57" t="s">
         <v>459</v>
       </c>
-      <c r="C17" s="74" t="s">
-        <v>622</v>
-      </c>
-      <c r="D17" s="75" t="s">
-        <v>942</v>
-      </c>
-      <c r="E17" s="75" t="s">
-        <v>942</v>
-      </c>
-      <c r="F17" s="77" t="s">
-        <v>622</v>
-      </c>
-      <c r="H17" s="76" t="s">
-        <v>942</v>
+      <c r="C17" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="D17" s="47" t="s">
+        <v>644</v>
+      </c>
+      <c r="E17" s="62" t="s">
+        <v>277</v>
+      </c>
+      <c r="F17" s="67" t="s">
+        <v>926</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="57" t="s">
-        <v>911</v>
+        <v>257</v>
       </c>
       <c r="B18" s="57" t="s">
-        <v>684</v>
+        <v>459</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>493</v>
@@ -25763,137 +25587,137 @@
       <c r="D18" s="47" t="s">
         <v>644</v>
       </c>
-      <c r="E18" s="72" t="s">
-        <v>277</v>
-      </c>
-      <c r="F18" s="77" t="s">
-        <v>936</v>
+      <c r="E18" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="F18" s="67" t="s">
+        <v>927</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>915</v>
+        <v>674</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="57" t="s">
-        <v>911</v>
+        <v>257</v>
       </c>
       <c r="B19" s="57" t="s">
-        <v>684</v>
+        <v>459</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>493</v>
+        <v>519</v>
       </c>
       <c r="D19" s="47" t="s">
-        <v>644</v>
-      </c>
-      <c r="E19" s="73" t="s">
-        <v>128</v>
-      </c>
-      <c r="F19" s="77" t="s">
-        <v>937</v>
+        <v>654</v>
+      </c>
+      <c r="E19" s="62" t="s">
+        <v>928</v>
+      </c>
+      <c r="F19" s="67" t="s">
+        <v>926</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>915</v>
+        <v>678</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="57" t="s">
-        <v>911</v>
+        <v>257</v>
       </c>
       <c r="B20" s="57" t="s">
-        <v>684</v>
+        <v>459</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>519</v>
       </c>
       <c r="D20" s="47" t="s">
-        <v>655</v>
-      </c>
-      <c r="E20" s="72" t="s">
-        <v>938</v>
-      </c>
-      <c r="F20" s="77" t="s">
-        <v>936</v>
+        <v>654</v>
+      </c>
+      <c r="E20" s="62" t="s">
+        <v>929</v>
+      </c>
+      <c r="F20" s="67" t="s">
+        <v>927</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>919</v>
+        <v>678</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="57" t="s">
-        <v>911</v>
+        <v>257</v>
       </c>
       <c r="B21" s="57" t="s">
-        <v>684</v>
+        <v>459</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>519</v>
-      </c>
-      <c r="D21" s="47" t="s">
-        <v>655</v>
-      </c>
-      <c r="E21" s="72" t="s">
-        <v>939</v>
-      </c>
-      <c r="F21" s="77" t="s">
-        <v>937</v>
+        <v>592</v>
+      </c>
+      <c r="D21" s="62" t="s">
+        <v>950</v>
+      </c>
+      <c r="E21" s="62" t="s">
+        <v>949</v>
+      </c>
+      <c r="F21" s="67" t="s">
+        <v>926</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>919</v>
+        <v>660</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="57" t="s">
-        <v>911</v>
+        <v>257</v>
       </c>
       <c r="B22" s="57" t="s">
-        <v>684</v>
-      </c>
-      <c r="C22" s="74" t="s">
-        <v>622</v>
-      </c>
-      <c r="D22" s="75" t="s">
-        <v>943</v>
-      </c>
-      <c r="E22" s="75" t="s">
-        <v>943</v>
-      </c>
-      <c r="F22" s="77" t="s">
-        <v>622</v>
-      </c>
-      <c r="H22" s="76" t="s">
-        <v>943</v>
+        <v>459</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>592</v>
+      </c>
+      <c r="D22" s="62" t="s">
+        <v>951</v>
+      </c>
+      <c r="E22" s="62" t="s">
+        <v>949</v>
+      </c>
+      <c r="F22" s="67" t="s">
+        <v>927</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="57" t="s">
-        <v>912</v>
+        <v>257</v>
       </c>
       <c r="B23" s="57" t="s">
-        <v>684</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>493</v>
-      </c>
-      <c r="D23" s="47" t="s">
-        <v>644</v>
-      </c>
-      <c r="E23" s="72" t="s">
-        <v>277</v>
-      </c>
-      <c r="F23" s="77" t="s">
-        <v>936</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>925</v>
+        <v>459</v>
+      </c>
+      <c r="C23" s="64" t="s">
+        <v>622</v>
+      </c>
+      <c r="D23" s="65" t="s">
+        <v>932</v>
+      </c>
+      <c r="E23" s="65" t="s">
+        <v>932</v>
+      </c>
+      <c r="F23" s="67" t="s">
+        <v>622</v>
+      </c>
+      <c r="H23" s="66" t="s">
+        <v>932</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="57" t="s">
-        <v>912</v>
+        <v>901</v>
       </c>
       <c r="B24" s="57" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>493</v>
@@ -25901,321 +25725,321 @@
       <c r="D24" s="47" t="s">
         <v>644</v>
       </c>
-      <c r="E24" s="73" t="s">
-        <v>128</v>
-      </c>
-      <c r="F24" s="77" t="s">
-        <v>937</v>
+      <c r="E24" s="62" t="s">
+        <v>277</v>
+      </c>
+      <c r="F24" s="67" t="s">
+        <v>926</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>925</v>
+        <v>905</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="57" t="s">
-        <v>912</v>
+        <v>901</v>
       </c>
       <c r="B25" s="57" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>519</v>
+        <v>493</v>
       </c>
       <c r="D25" s="47" t="s">
-        <v>655</v>
-      </c>
-      <c r="E25" s="72" t="s">
-        <v>938</v>
-      </c>
-      <c r="F25" s="77" t="s">
-        <v>936</v>
+        <v>644</v>
+      </c>
+      <c r="E25" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="F25" s="67" t="s">
+        <v>927</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>929</v>
+        <v>905</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="57" t="s">
-        <v>912</v>
+        <v>901</v>
       </c>
       <c r="B26" s="57" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>519</v>
       </c>
       <c r="D26" s="47" t="s">
-        <v>655</v>
-      </c>
-      <c r="E26" s="72" t="s">
-        <v>939</v>
-      </c>
-      <c r="F26" s="77" t="s">
-        <v>937</v>
+        <v>654</v>
+      </c>
+      <c r="E26" s="62" t="s">
+        <v>928</v>
+      </c>
+      <c r="F26" s="67" t="s">
+        <v>926</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>929</v>
+        <v>909</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="57" t="s">
-        <v>912</v>
+        <v>901</v>
       </c>
       <c r="B27" s="57" t="s">
-        <v>684</v>
-      </c>
-      <c r="C27" s="74" t="s">
-        <v>622</v>
-      </c>
-      <c r="D27" s="75" t="s">
-        <v>944</v>
-      </c>
-      <c r="E27" s="75" t="s">
-        <v>944</v>
-      </c>
-      <c r="F27" s="77" t="s">
-        <v>622</v>
-      </c>
-      <c r="H27" s="76" t="s">
-        <v>944</v>
+        <v>680</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="D27" s="47" t="s">
+        <v>654</v>
+      </c>
+      <c r="E27" s="62" t="s">
+        <v>929</v>
+      </c>
+      <c r="F27" s="67" t="s">
+        <v>927</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>909</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="57" t="s">
-        <v>189</v>
+        <v>901</v>
       </c>
       <c r="B28" s="57" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>493</v>
-      </c>
-      <c r="D28" s="47" t="s">
-        <v>644</v>
-      </c>
-      <c r="E28" s="72" t="s">
-        <v>277</v>
-      </c>
-      <c r="F28" s="77" t="s">
-        <v>936</v>
+        <v>592</v>
+      </c>
+      <c r="D28" s="62" t="s">
+        <v>952</v>
+      </c>
+      <c r="E28" s="62" t="s">
+        <v>949</v>
+      </c>
+      <c r="F28" s="67" t="s">
+        <v>926</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>697</v>
+        <v>912</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="57" t="s">
-        <v>189</v>
+        <v>901</v>
       </c>
       <c r="B29" s="57" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>493</v>
-      </c>
-      <c r="D29" s="47" t="s">
-        <v>644</v>
-      </c>
-      <c r="E29" s="73" t="s">
-        <v>128</v>
-      </c>
-      <c r="F29" s="77" t="s">
-        <v>937</v>
+        <v>592</v>
+      </c>
+      <c r="D29" s="62" t="s">
+        <v>953</v>
+      </c>
+      <c r="E29" s="62" t="s">
+        <v>949</v>
+      </c>
+      <c r="F29" s="67" t="s">
+        <v>927</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>697</v>
+        <v>912</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="57" t="s">
-        <v>189</v>
+        <v>901</v>
       </c>
       <c r="B30" s="57" t="s">
-        <v>693</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>519</v>
-      </c>
-      <c r="D30" s="47" t="s">
-        <v>655</v>
-      </c>
-      <c r="E30" s="72" t="s">
-        <v>938</v>
-      </c>
-      <c r="F30" s="77" t="s">
-        <v>936</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>701</v>
+        <v>680</v>
+      </c>
+      <c r="C30" s="64" t="s">
+        <v>622</v>
+      </c>
+      <c r="D30" s="65" t="s">
+        <v>933</v>
+      </c>
+      <c r="E30" s="65" t="s">
+        <v>933</v>
+      </c>
+      <c r="F30" s="67" t="s">
+        <v>622</v>
+      </c>
+      <c r="H30" s="66" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="57" t="s">
-        <v>189</v>
+        <v>902</v>
       </c>
       <c r="B31" s="57" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>519</v>
+        <v>493</v>
       </c>
       <c r="D31" s="47" t="s">
-        <v>655</v>
-      </c>
-      <c r="E31" s="72" t="s">
-        <v>939</v>
-      </c>
-      <c r="F31" s="77" t="s">
-        <v>937</v>
+        <v>644</v>
+      </c>
+      <c r="E31" s="62" t="s">
+        <v>277</v>
+      </c>
+      <c r="F31" s="67" t="s">
+        <v>926</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>701</v>
+        <v>915</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="57" t="s">
-        <v>189</v>
+        <v>902</v>
       </c>
       <c r="B32" s="57" t="s">
-        <v>693</v>
-      </c>
-      <c r="C32" s="74" t="s">
-        <v>622</v>
-      </c>
-      <c r="D32" s="75" t="s">
-        <v>945</v>
-      </c>
-      <c r="E32" s="75" t="s">
-        <v>945</v>
-      </c>
-      <c r="F32" s="77" t="s">
-        <v>622</v>
-      </c>
-      <c r="H32" s="76" t="s">
-        <v>945</v>
+        <v>680</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="D32" s="47" t="s">
+        <v>644</v>
+      </c>
+      <c r="E32" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="F32" s="67" t="s">
+        <v>927</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>915</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="57" t="s">
-        <v>227</v>
+        <v>902</v>
       </c>
       <c r="B33" s="57" t="s">
-        <v>704</v>
+        <v>680</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>493</v>
+        <v>519</v>
       </c>
       <c r="D33" s="47" t="s">
-        <v>644</v>
-      </c>
-      <c r="E33" s="72" t="s">
-        <v>277</v>
-      </c>
-      <c r="F33" s="77" t="s">
-        <v>936</v>
+        <v>654</v>
+      </c>
+      <c r="E33" s="62" t="s">
+        <v>928</v>
+      </c>
+      <c r="F33" s="67" t="s">
+        <v>926</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>708</v>
+        <v>919</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="57" t="s">
-        <v>227</v>
+        <v>902</v>
       </c>
       <c r="B34" s="57" t="s">
-        <v>704</v>
+        <v>680</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>493</v>
+        <v>519</v>
       </c>
       <c r="D34" s="47" t="s">
-        <v>644</v>
-      </c>
-      <c r="E34" s="73" t="s">
-        <v>128</v>
-      </c>
-      <c r="F34" s="77" t="s">
-        <v>937</v>
+        <v>654</v>
+      </c>
+      <c r="E34" s="62" t="s">
+        <v>929</v>
+      </c>
+      <c r="F34" s="67" t="s">
+        <v>927</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>708</v>
+        <v>919</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="57" t="s">
-        <v>227</v>
+        <v>902</v>
       </c>
       <c r="B35" s="57" t="s">
-        <v>704</v>
+        <v>680</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>519</v>
-      </c>
-      <c r="D35" s="47" t="s">
-        <v>655</v>
-      </c>
-      <c r="E35" s="72" t="s">
-        <v>938</v>
-      </c>
-      <c r="F35" s="77" t="s">
-        <v>936</v>
+        <v>592</v>
+      </c>
+      <c r="D35" s="62" t="s">
+        <v>955</v>
+      </c>
+      <c r="E35" s="62" t="s">
+        <v>949</v>
+      </c>
+      <c r="F35" s="67" t="s">
+        <v>926</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>712</v>
+        <v>912</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="57" t="s">
-        <v>227</v>
+        <v>902</v>
       </c>
       <c r="B36" s="57" t="s">
-        <v>704</v>
+        <v>680</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>519</v>
-      </c>
-      <c r="D36" s="47" t="s">
-        <v>655</v>
-      </c>
-      <c r="E36" s="72" t="s">
-        <v>939</v>
-      </c>
-      <c r="F36" s="77" t="s">
-        <v>937</v>
+        <v>592</v>
+      </c>
+      <c r="D36" s="62" t="s">
+        <v>954</v>
+      </c>
+      <c r="E36" s="62" t="s">
+        <v>949</v>
+      </c>
+      <c r="F36" s="67" t="s">
+        <v>927</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>712</v>
+        <v>912</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="57" t="s">
-        <v>227</v>
+        <v>902</v>
       </c>
       <c r="B37" s="57" t="s">
-        <v>704</v>
-      </c>
-      <c r="C37" s="74" t="s">
+        <v>680</v>
+      </c>
+      <c r="C37" s="64" t="s">
         <v>622</v>
       </c>
-      <c r="D37" s="75" t="s">
-        <v>946</v>
-      </c>
-      <c r="E37" s="75" t="s">
-        <v>946</v>
-      </c>
-      <c r="F37" s="77" t="s">
+      <c r="D37" s="65" t="s">
+        <v>934</v>
+      </c>
+      <c r="E37" s="65" t="s">
+        <v>934</v>
+      </c>
+      <c r="F37" s="67" t="s">
         <v>622</v>
       </c>
-      <c r="H37" s="76" t="s">
-        <v>946</v>
+      <c r="H37" s="66" t="s">
+        <v>934</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="57" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="B38" s="57" t="s">
-        <v>715</v>
+        <v>687</v>
       </c>
       <c r="C38" s="16" t="s">
         <v>493</v>
@@ -26223,22 +26047,22 @@
       <c r="D38" s="47" t="s">
         <v>644</v>
       </c>
-      <c r="E38" s="72" t="s">
+      <c r="E38" s="62" t="s">
         <v>277</v>
       </c>
-      <c r="F38" s="77" t="s">
-        <v>936</v>
+      <c r="F38" s="67" t="s">
+        <v>926</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>719</v>
+        <v>691</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="57" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="B39" s="57" t="s">
-        <v>715</v>
+        <v>687</v>
       </c>
       <c r="C39" s="16" t="s">
         <v>493</v>
@@ -26246,198 +26070,612 @@
       <c r="D39" s="47" t="s">
         <v>644</v>
       </c>
-      <c r="E39" s="73" t="s">
+      <c r="E39" s="63" t="s">
         <v>128</v>
       </c>
-      <c r="F39" s="77" t="s">
-        <v>937</v>
+      <c r="F39" s="67" t="s">
+        <v>927</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>719</v>
+        <v>691</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="57" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="B40" s="57" t="s">
-        <v>715</v>
+        <v>687</v>
       </c>
       <c r="C40" s="16" t="s">
         <v>519</v>
       </c>
       <c r="D40" s="47" t="s">
-        <v>655</v>
-      </c>
-      <c r="E40" s="72" t="s">
-        <v>938</v>
-      </c>
-      <c r="F40" s="77" t="s">
-        <v>936</v>
+        <v>654</v>
+      </c>
+      <c r="E40" s="62" t="s">
+        <v>928</v>
+      </c>
+      <c r="F40" s="67" t="s">
+        <v>926</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>723</v>
+        <v>695</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="57" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="B41" s="57" t="s">
-        <v>715</v>
+        <v>687</v>
       </c>
       <c r="C41" s="16" t="s">
         <v>519</v>
       </c>
       <c r="D41" s="47" t="s">
-        <v>655</v>
-      </c>
-      <c r="E41" s="72" t="s">
-        <v>939</v>
-      </c>
-      <c r="F41" s="77" t="s">
-        <v>937</v>
+        <v>654</v>
+      </c>
+      <c r="E41" s="62" t="s">
+        <v>929</v>
+      </c>
+      <c r="F41" s="67" t="s">
+        <v>927</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>723</v>
+        <v>695</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="57" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="B42" s="57" t="s">
-        <v>715</v>
-      </c>
-      <c r="C42" s="74" t="s">
-        <v>622</v>
-      </c>
-      <c r="D42" s="75" t="s">
-        <v>947</v>
-      </c>
-      <c r="E42" s="75" t="s">
-        <v>947</v>
-      </c>
-      <c r="F42" s="77" t="s">
-        <v>622</v>
-      </c>
-      <c r="H42" s="76" t="s">
-        <v>947</v>
+        <v>687</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>592</v>
+      </c>
+      <c r="D42" s="62" t="s">
+        <v>956</v>
+      </c>
+      <c r="E42" s="62" t="s">
+        <v>949</v>
+      </c>
+      <c r="F42" s="67" t="s">
+        <v>926</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="57" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
       <c r="B43" s="57" t="s">
-        <v>726</v>
+        <v>687</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>493</v>
-      </c>
-      <c r="D43" s="47" t="s">
-        <v>644</v>
-      </c>
-      <c r="E43" s="72" t="s">
-        <v>277</v>
-      </c>
-      <c r="F43" s="77" t="s">
-        <v>936</v>
+        <v>592</v>
+      </c>
+      <c r="D43" s="62" t="s">
+        <v>957</v>
+      </c>
+      <c r="E43" s="62" t="s">
+        <v>949</v>
+      </c>
+      <c r="F43" s="67" t="s">
+        <v>927</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>730</v>
+        <v>660</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="57" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
       <c r="B44" s="57" t="s">
-        <v>726</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>493</v>
-      </c>
-      <c r="D44" s="47" t="s">
-        <v>644</v>
-      </c>
-      <c r="E44" s="73" t="s">
-        <v>128</v>
-      </c>
-      <c r="F44" s="77" t="s">
-        <v>937</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>730</v>
+        <v>687</v>
+      </c>
+      <c r="C44" s="64" t="s">
+        <v>622</v>
+      </c>
+      <c r="D44" s="65" t="s">
+        <v>935</v>
+      </c>
+      <c r="E44" s="65" t="s">
+        <v>935</v>
+      </c>
+      <c r="F44" s="67" t="s">
+        <v>622</v>
+      </c>
+      <c r="H44" s="66" t="s">
+        <v>935</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="57" t="s">
-        <v>154</v>
+        <v>227</v>
       </c>
       <c r="B45" s="57" t="s">
-        <v>726</v>
+        <v>697</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>519</v>
+        <v>493</v>
       </c>
       <c r="D45" s="47" t="s">
-        <v>655</v>
-      </c>
-      <c r="E45" s="72" t="s">
-        <v>938</v>
-      </c>
-      <c r="F45" s="77" t="s">
-        <v>936</v>
+        <v>644</v>
+      </c>
+      <c r="E45" s="62" t="s">
+        <v>277</v>
+      </c>
+      <c r="F45" s="67" t="s">
+        <v>926</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>734</v>
+        <v>701</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="57" t="s">
-        <v>154</v>
+        <v>227</v>
       </c>
       <c r="B46" s="57" t="s">
-        <v>726</v>
+        <v>697</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>519</v>
+        <v>493</v>
       </c>
       <c r="D46" s="47" t="s">
-        <v>655</v>
-      </c>
-      <c r="E46" s="72" t="s">
-        <v>939</v>
-      </c>
-      <c r="F46" s="77" t="s">
-        <v>937</v>
+        <v>644</v>
+      </c>
+      <c r="E46" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="F46" s="67" t="s">
+        <v>927</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>734</v>
+        <v>701</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="57" t="s">
+        <v>227</v>
+      </c>
+      <c r="B47" s="57" t="s">
+        <v>697</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="D47" s="47" t="s">
+        <v>654</v>
+      </c>
+      <c r="E47" s="62" t="s">
+        <v>928</v>
+      </c>
+      <c r="F47" s="67" t="s">
+        <v>926</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="57" t="s">
+        <v>227</v>
+      </c>
+      <c r="B48" s="57" t="s">
+        <v>697</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="D48" s="47" t="s">
+        <v>654</v>
+      </c>
+      <c r="E48" s="62" t="s">
+        <v>929</v>
+      </c>
+      <c r="F48" s="67" t="s">
+        <v>927</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="57" t="s">
+        <v>227</v>
+      </c>
+      <c r="B49" s="57" t="s">
+        <v>697</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>592</v>
+      </c>
+      <c r="D49" s="62" t="s">
+        <v>959</v>
+      </c>
+      <c r="E49" s="62" t="s">
+        <v>949</v>
+      </c>
+      <c r="F49" s="67" t="s">
+        <v>926</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="57" t="s">
+        <v>227</v>
+      </c>
+      <c r="B50" s="57" t="s">
+        <v>697</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>592</v>
+      </c>
+      <c r="D50" s="62" t="s">
+        <v>958</v>
+      </c>
+      <c r="E50" s="62" t="s">
+        <v>949</v>
+      </c>
+      <c r="F50" s="67" t="s">
+        <v>927</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="57" t="s">
+        <v>227</v>
+      </c>
+      <c r="B51" s="57" t="s">
+        <v>697</v>
+      </c>
+      <c r="C51" s="64" t="s">
+        <v>622</v>
+      </c>
+      <c r="D51" s="65" t="s">
+        <v>936</v>
+      </c>
+      <c r="E51" s="65" t="s">
+        <v>936</v>
+      </c>
+      <c r="F51" s="67" t="s">
+        <v>622</v>
+      </c>
+      <c r="H51" s="66" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="B52" s="57" t="s">
+        <v>707</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="D52" s="47" t="s">
+        <v>644</v>
+      </c>
+      <c r="E52" s="62" t="s">
+        <v>277</v>
+      </c>
+      <c r="F52" s="67" t="s">
+        <v>926</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="B53" s="57" t="s">
+        <v>707</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="D53" s="47" t="s">
+        <v>644</v>
+      </c>
+      <c r="E53" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="F53" s="67" t="s">
+        <v>927</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="B54" s="57" t="s">
+        <v>707</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="D54" s="47" t="s">
+        <v>654</v>
+      </c>
+      <c r="E54" s="62" t="s">
+        <v>928</v>
+      </c>
+      <c r="F54" s="67" t="s">
+        <v>926</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="B55" s="57" t="s">
+        <v>707</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="D55" s="47" t="s">
+        <v>654</v>
+      </c>
+      <c r="E55" s="62" t="s">
+        <v>929</v>
+      </c>
+      <c r="F55" s="67" t="s">
+        <v>927</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="B56" s="57" t="s">
+        <v>707</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>592</v>
+      </c>
+      <c r="D56" s="62" t="s">
+        <v>960</v>
+      </c>
+      <c r="E56" s="62" t="s">
+        <v>949</v>
+      </c>
+      <c r="F56" s="67" t="s">
+        <v>926</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="B57" s="57" t="s">
+        <v>707</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>592</v>
+      </c>
+      <c r="D57" s="62" t="s">
+        <v>961</v>
+      </c>
+      <c r="E57" s="62" t="s">
+        <v>949</v>
+      </c>
+      <c r="F57" s="67" t="s">
+        <v>927</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="B58" s="57" t="s">
+        <v>707</v>
+      </c>
+      <c r="C58" s="64" t="s">
+        <v>622</v>
+      </c>
+      <c r="D58" s="65" t="s">
+        <v>937</v>
+      </c>
+      <c r="E58" s="65" t="s">
+        <v>937</v>
+      </c>
+      <c r="F58" s="67" t="s">
+        <v>622</v>
+      </c>
+      <c r="H58" s="66" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="57" t="s">
         <v>154</v>
       </c>
-      <c r="B47" s="57" t="s">
-        <v>726</v>
-      </c>
-      <c r="C47" s="74" t="s">
+      <c r="B59" s="57" t="s">
+        <v>717</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="D59" s="47" t="s">
+        <v>644</v>
+      </c>
+      <c r="E59" s="62" t="s">
+        <v>277</v>
+      </c>
+      <c r="F59" s="67" t="s">
+        <v>926</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="B60" s="57" t="s">
+        <v>717</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="D60" s="47" t="s">
+        <v>644</v>
+      </c>
+      <c r="E60" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="F60" s="67" t="s">
+        <v>927</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="B61" s="57" t="s">
+        <v>717</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="D61" s="47" t="s">
+        <v>654</v>
+      </c>
+      <c r="E61" s="62" t="s">
+        <v>928</v>
+      </c>
+      <c r="F61" s="67" t="s">
+        <v>926</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="B62" s="57" t="s">
+        <v>717</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="D62" s="47" t="s">
+        <v>654</v>
+      </c>
+      <c r="E62" s="62" t="s">
+        <v>929</v>
+      </c>
+      <c r="F62" s="67" t="s">
+        <v>927</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="B63" s="57" t="s">
+        <v>717</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>592</v>
+      </c>
+      <c r="D63" s="62" t="s">
+        <v>962</v>
+      </c>
+      <c r="E63" s="62" t="s">
+        <v>949</v>
+      </c>
+      <c r="F63" s="67" t="s">
+        <v>926</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="B64" s="57" t="s">
+        <v>717</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>592</v>
+      </c>
+      <c r="D64" s="62" t="s">
+        <v>963</v>
+      </c>
+      <c r="E64" s="62" t="s">
+        <v>949</v>
+      </c>
+      <c r="F64" s="67" t="s">
+        <v>927</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="B65" s="57" t="s">
+        <v>717</v>
+      </c>
+      <c r="C65" s="64" t="s">
         <v>622</v>
       </c>
-      <c r="D47" s="75" t="s">
-        <v>948</v>
-      </c>
-      <c r="E47" s="75" t="s">
-        <v>948</v>
-      </c>
-      <c r="F47" s="77" t="s">
+      <c r="D65" s="65" t="s">
+        <v>938</v>
+      </c>
+      <c r="E65" s="65" t="s">
+        <v>938</v>
+      </c>
+      <c r="F65" s="67" t="s">
         <v>622</v>
       </c>
-      <c r="H47" s="76" t="s">
-        <v>948</v>
+      <c r="H65" s="66" t="s">
+        <v>938</v>
       </c>
     </row>
   </sheetData>
@@ -26451,26 +26689,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="38934ba0-d0c8-4ff1-b39d-50890708cb62">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="ab06a5aa-8e31-4bdb-9b13-38c58a92ec8a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010058BEFEFAD17A4B43A8378381BF28CF4F" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="61556453c3d4cfbe4714da52328c09a3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="38934ba0-d0c8-4ff1-b39d-50890708cb62" xmlns:ns3="ab06a5aa-8e31-4bdb-9b13-38c58a92ec8a" xmlns:ns4="ab274330-b409-4ff8-b8ad-c1dc18cc66a1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b8714ab872510242edcc52d3716bf4cc" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="38934ba0-d0c8-4ff1-b39d-50890708cb62"/>
@@ -26724,26 +26942,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{032D7E56-4464-4468-967D-9B90BB52AA5D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="38934ba0-d0c8-4ff1-b39d-50890708cb62"/>
-    <ds:schemaRef ds:uri="ab06a5aa-8e31-4bdb-9b13-38c58a92ec8a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D64FD81-61B5-4C50-AB1A-3572D60D9783}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="38934ba0-d0c8-4ff1-b39d-50890708cb62">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="ab06a5aa-8e31-4bdb-9b13-38c58a92ec8a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5C433E9-FF21-46B6-A2BC-1CCCB55EBAFA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26761,4 +26980,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D64FD81-61B5-4C50-AB1A-3572D60D9783}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{032D7E56-4464-4468-967D-9B90BB52AA5D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="38934ba0-d0c8-4ff1-b39d-50890708cb62"/>
+    <ds:schemaRef ds:uri="ab06a5aa-8e31-4bdb-9b13-38c58a92ec8a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Crosswalk/B8_UDS4_programmatic_crosswalk.xlsx
+++ b/Crosswalk/B8_UDS4_programmatic_crosswalk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaiga\Downloads\tt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaiga\Downloads\Json_f\Json_SOPS\Crosswalk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4601FE86-94A7-4ED2-8A59-8050C39A2B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3023A10-8C29-4327-86E3-6DE7A4203D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UDS3_4 Tables Data Dictionary" sheetId="18" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5732" uniqueCount="964">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5752" uniqueCount="969">
   <si>
     <t>TEMPLATE - UDS3 REDCap
 Based on Kansas ADRC implementation at https://naccdata.org/adrc-resources/redcap</t>
@@ -2449,28 +2449,13 @@
     <t>Numeric factor &amp; Numeric factor &amp; Numeric factor</t>
   </si>
   <si>
-    <t>1, 8 &amp; 1,8 &amp; 1, 8</t>
-  </si>
-  <si>
-    <t>NA &amp; NA &amp; NA</t>
-  </si>
-  <si>
     <t>1 | 1 | 1</t>
   </si>
   <si>
-    <t>GAITABN maps to 1 if PARKGAIT==1 OR GAITPSP==1 OR NPHGAIT==1</t>
-  </si>
-  <si>
-    <t>8 &amp; 8 &amp; 8</t>
-  </si>
-  <si>
     <t>&lt;BLANK&gt; &amp; &lt;BLANK&gt; &amp; &lt;BLANK&gt;</t>
   </si>
   <si>
     <t>1 Yes | 1 Yes | 1 Yes</t>
-  </si>
-  <si>
-    <t>8 Not assessed &amp; 8 Not assessed &amp; 8 Not assessed</t>
   </si>
   <si>
     <t>Not assessed</t>
@@ -4058,35 +4043,72 @@
     <t>IF(MYOCLLT==1 || MYOCLRT==1) {MYOCLON=1} ELSEIF(MYOCLLT==8 &amp;&amp; MYOCLRT==8) {MYOCLON=8} ELSEIF(MYOCLLT==1 &amp;&amp; MYOCLRT==1) {MYOCLON=3} ELSE {MYOCLON=0}</t>
   </si>
   <si>
-    <t>IF(PARKGAIT==1 || GAITPSP==1 || GAITNPH==1) {GAITABN=1} ELSEIF(PARKGAIT==8 &amp;&amp; GAITPSP==8 &amp;&amp; GAITNPH==8) {GAITABN=8} ELSE {GAITABN=0}</t>
-  </si>
-  <si>
-    <t>GAITABN only maps to 8 when ALL PARKGAIT==8 AND GAITPSP==8 AND GAITNPH==8</t>
-  </si>
-  <si>
     <t>GAITABN maps to 'Absent' ONLY if ALL PARKGAIT=='&lt;BLANK&gt;' AND GAITPSP=='&lt;BLANK&gt;' AND GAITNPH=='&lt;BLANK&gt;'</t>
   </si>
   <si>
     <t>GAITABN maps to 'Present' if PARKGAIT=='1 Yes' OR GAITPSP=='1 Yes' OR GAITNPH=='1 Yes'</t>
   </si>
   <si>
-    <t>GAITABN maps to 0 ONLY if ALL PARKGAIT is blank/NA and GAITPSP is blank/NA and GAITNPH is blank/NA</t>
-  </si>
-  <si>
-    <t>GAITABN only maps to 'Not Assessed' when ALL PARKGAIT=='8 Not assessed' AND GAITPSP=='8 Not assessed' AND GAITNPH=='8 Not assessed'</t>
+    <t>8 &amp; 8 &amp; 0</t>
+  </si>
+  <si>
+    <t>ADRC must decide if GAITNPH being 0 maps GAITABN to 8 if both PARKGAIT and PSPGAIT are 8</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>GAITNPH does not have "Not assessed" option; ADRC must decide if GAITNPH being "0 No" maps GAITABN to "8 Not assessed" if both PARKGAIT and PSPGAIT are "8 Not assessed"</t>
+  </si>
+  <si>
+    <t>ADRC must decide if GAITNPH being 0 maps GAITABN to 0 even if both PARKGAIT and PSPGAIT are 8</t>
+  </si>
+  <si>
+    <t>8 Not assessed &amp; 8 Not assessed &amp; 0 No</t>
+  </si>
+  <si>
+    <t>IF(PARKGAIT==1 || GAITPSP==1 || GAITNPH==1) {GAITABN=1} ELSEIF(PARKGAIT==8 &amp;&amp; GAITPSP==8 &amp;&amp; GAITNPH==0) {GAITABN=8} ELSE {GAITABN=0}</t>
+  </si>
+  <si>
+    <t>ADRC must decide if GAITNPH being "0 No" maps GAITABN to "0 No" even if both PARKGAIT and PSPGAIT are "8 Not assessed"</t>
+  </si>
+  <si>
+    <t>1, 8 &amp; 1,8 &amp; 0-1</t>
+  </si>
+  <si>
+    <t>NA &amp; NA &amp; 0</t>
+  </si>
+  <si>
+    <t>GAITNPH does not have "Not assessed" option; ADRC must decide if GAITNPH being "0 No" maps GAITABN to "Not assessed" or to "No" when both PARKGAIT and PSPGAIT are "8 Not assessed"</t>
+  </si>
+  <si>
+    <t>Merging</t>
+  </si>
+  <si>
+    <t>GAITABN maps to 1 if PARKGAIT==1 OR GAITPSP==1 OR GAITNPH==1</t>
+  </si>
+  <si>
+    <t>ADRC must decide appropriate merging and accounting of GAITNPH; GAITABN maps to 0 ONLY if ALL PARKGAIT is blank/NA and GAITPSP is blank/NA and GAITNPH is blank/NA/0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4462,166 +4484,166 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -4631,56 +4653,58 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5070,21 +5094,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="E1" s="74" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="E1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="I1" s="74" t="s">
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="I1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
     </row>
     <row r="2" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -5116,38 +5140,38 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="76" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="D3" s="34"/>
-      <c r="E3" s="72" t="s">
+      <c r="E3" s="76" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="32" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="H3" s="34"/>
-      <c r="I3" s="72" t="s">
+      <c r="I3" s="76" t="s">
         <v>5</v>
       </c>
       <c r="J3" s="32" t="s">
         <v>7</v>
       </c>
       <c r="K3" s="33" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="117.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="72"/>
+      <c r="A4" s="76"/>
       <c r="B4" s="35" t="s">
         <v>8</v>
       </c>
@@ -5155,7 +5179,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="34"/>
-      <c r="E4" s="72"/>
+      <c r="E4" s="76"/>
       <c r="F4" s="35" t="s">
         <v>8</v>
       </c>
@@ -5163,7 +5187,7 @@
         <v>9</v>
       </c>
       <c r="H4" s="34"/>
-      <c r="I4" s="72"/>
+      <c r="I4" s="76"/>
       <c r="J4" s="35" t="s">
         <v>10</v>
       </c>
@@ -5172,8 +5196,8 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="72" t="s">
-        <v>855</v>
+      <c r="A5" s="76" t="s">
+        <v>850</v>
       </c>
       <c r="B5" s="32" t="s">
         <v>12</v>
@@ -5182,8 +5206,8 @@
         <v>13</v>
       </c>
       <c r="D5" s="34"/>
-      <c r="E5" s="72" t="s">
-        <v>855</v>
+      <c r="E5" s="76" t="s">
+        <v>850</v>
       </c>
       <c r="F5" s="32" t="s">
         <v>12</v>
@@ -5192,8 +5216,8 @@
         <v>13</v>
       </c>
       <c r="H5" s="34"/>
-      <c r="I5" s="72" t="s">
-        <v>855</v>
+      <c r="I5" s="76" t="s">
+        <v>850</v>
       </c>
       <c r="J5" s="32" t="s">
         <v>14</v>
@@ -5203,57 +5227,57 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="72"/>
+      <c r="A6" s="76"/>
       <c r="B6" s="37" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="D6" s="34"/>
-      <c r="E6" s="72"/>
+      <c r="E6" s="76"/>
       <c r="F6" s="37" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="38" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="H6" s="34"/>
-      <c r="I6" s="72"/>
+      <c r="I6" s="76"/>
       <c r="J6" s="37" t="s">
         <v>17</v>
       </c>
       <c r="K6" s="38" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="72"/>
+      <c r="A7" s="76"/>
       <c r="B7" s="39" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="D7" s="34"/>
-      <c r="E7" s="72"/>
+      <c r="E7" s="76"/>
       <c r="F7" s="39" t="s">
         <v>18</v>
       </c>
       <c r="G7" s="40" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="H7" s="34"/>
-      <c r="I7" s="72"/>
+      <c r="I7" s="76"/>
       <c r="J7" s="39" t="s">
         <v>18</v>
       </c>
       <c r="K7" s="40" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="72"/>
+      <c r="A8" s="76"/>
       <c r="B8" s="37" t="s">
         <v>19</v>
       </c>
@@ -5261,7 +5285,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="34"/>
-      <c r="E8" s="72"/>
+      <c r="E8" s="76"/>
       <c r="F8" s="37" t="s">
         <v>19</v>
       </c>
@@ -5269,7 +5293,7 @@
         <v>21</v>
       </c>
       <c r="H8" s="34"/>
-      <c r="I8" s="72"/>
+      <c r="I8" s="76"/>
       <c r="J8" s="37" t="s">
         <v>19</v>
       </c>
@@ -5278,32 +5302,32 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="72"/>
+      <c r="A9" s="76"/>
       <c r="B9" s="39" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="D9" s="34"/>
-      <c r="E9" s="72"/>
+      <c r="E9" s="76"/>
       <c r="F9" s="39" t="s">
         <v>23</v>
       </c>
       <c r="G9" s="40" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="H9" s="34"/>
-      <c r="I9" s="72"/>
+      <c r="I9" s="76"/>
       <c r="J9" s="39" t="s">
         <v>23</v>
       </c>
       <c r="K9" s="40" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="72"/>
+      <c r="A10" s="76"/>
       <c r="B10" s="37" t="s">
         <v>24</v>
       </c>
@@ -5311,24 +5335,24 @@
         <v>25</v>
       </c>
       <c r="D10" s="34"/>
-      <c r="E10" s="72"/>
+      <c r="E10" s="76"/>
       <c r="F10" s="37" t="s">
         <v>24</v>
       </c>
       <c r="G10" s="38" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="H10" s="34"/>
-      <c r="I10" s="72"/>
+      <c r="I10" s="76"/>
       <c r="J10" s="37" t="s">
         <v>24</v>
       </c>
       <c r="K10" s="38" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="72"/>
+      <c r="A11" s="76"/>
       <c r="B11" s="39" t="s">
         <v>26</v>
       </c>
@@ -5336,7 +5360,7 @@
         <v>27</v>
       </c>
       <c r="D11" s="34"/>
-      <c r="E11" s="72"/>
+      <c r="E11" s="76"/>
       <c r="F11" s="39" t="s">
         <v>26</v>
       </c>
@@ -5344,7 +5368,7 @@
         <v>27</v>
       </c>
       <c r="H11" s="34"/>
-      <c r="I11" s="72"/>
+      <c r="I11" s="76"/>
       <c r="J11" s="39" t="s">
         <v>26</v>
       </c>
@@ -5353,83 +5377,83 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="72"/>
+      <c r="A12" s="76"/>
       <c r="B12" s="37" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="D12" s="34"/>
-      <c r="E12" s="72"/>
+      <c r="E12" s="76"/>
       <c r="F12" s="37" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="G12" s="38" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="H12" s="34"/>
-      <c r="I12" s="72"/>
+      <c r="I12" s="76"/>
       <c r="J12" s="37" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="K12" s="38" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="72"/>
+      <c r="A13" s="76"/>
       <c r="B13" s="39" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="D13" s="34"/>
-      <c r="E13" s="72"/>
+      <c r="E13" s="76"/>
       <c r="F13" s="39" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="G13" s="41" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="H13" s="34"/>
-      <c r="I13" s="72"/>
+      <c r="I13" s="76"/>
       <c r="J13" s="39" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="K13" s="41" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="132.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="72"/>
+      <c r="A14" s="76"/>
       <c r="B14" s="35" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="D14" s="34"/>
-      <c r="E14" s="72"/>
+      <c r="E14" s="76"/>
       <c r="F14" s="35" t="s">
         <v>28</v>
       </c>
       <c r="G14" s="42" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="H14" s="34"/>
-      <c r="I14" s="72"/>
+      <c r="I14" s="76"/>
       <c r="J14" s="35" t="s">
         <v>28</v>
       </c>
       <c r="K14" s="42" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="72" t="s">
-        <v>869</v>
+      <c r="A15" s="76" t="s">
+        <v>864</v>
       </c>
       <c r="B15" s="32" t="s">
         <v>112</v>
@@ -5438,8 +5462,8 @@
         <v>113</v>
       </c>
       <c r="D15" s="34"/>
-      <c r="E15" s="72" t="s">
-        <v>869</v>
+      <c r="E15" s="76" t="s">
+        <v>864</v>
       </c>
       <c r="F15" s="32" t="s">
         <v>114</v>
@@ -5448,8 +5472,8 @@
         <v>29</v>
       </c>
       <c r="H15" s="34"/>
-      <c r="I15" s="72" t="s">
-        <v>869</v>
+      <c r="I15" s="76" t="s">
+        <v>864</v>
       </c>
       <c r="J15" s="32" t="s">
         <v>115</v>
@@ -5459,32 +5483,32 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="72"/>
+      <c r="A16" s="76"/>
       <c r="B16" s="37" t="s">
         <v>116</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="D16" s="34"/>
-      <c r="E16" s="72"/>
+      <c r="E16" s="76"/>
       <c r="F16" s="37" t="s">
         <v>117</v>
       </c>
       <c r="G16" s="38" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="H16" s="34"/>
-      <c r="I16" s="72"/>
+      <c r="I16" s="76"/>
       <c r="J16" s="37" t="s">
         <v>118</v>
       </c>
       <c r="K16" s="38" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="72"/>
+      <c r="A17" s="76"/>
       <c r="B17" s="39" t="s">
         <v>30</v>
       </c>
@@ -5492,7 +5516,7 @@
         <v>31</v>
       </c>
       <c r="D17" s="34"/>
-      <c r="E17" s="72"/>
+      <c r="E17" s="76"/>
       <c r="F17" s="39" t="s">
         <v>30</v>
       </c>
@@ -5500,7 +5524,7 @@
         <v>32</v>
       </c>
       <c r="H17" s="34"/>
-      <c r="I17" s="72"/>
+      <c r="I17" s="76"/>
       <c r="J17" s="39" t="s">
         <v>30</v>
       </c>
@@ -5509,23 +5533,23 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="72"/>
+      <c r="A18" s="76"/>
       <c r="B18" s="43" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="D18" s="34"/>
-      <c r="E18" s="72"/>
+      <c r="E18" s="76"/>
       <c r="F18" s="43" t="s">
         <v>34</v>
       </c>
       <c r="G18" s="38" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="H18" s="34"/>
-      <c r="I18" s="72"/>
+      <c r="I18" s="76"/>
       <c r="J18" s="43" t="s">
         <v>34</v>
       </c>
@@ -5534,53 +5558,53 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="72"/>
+      <c r="A19" s="76"/>
       <c r="B19" s="39" t="s">
+        <v>870</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>871</v>
+      </c>
+      <c r="D19" s="34"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="39" t="s">
+        <v>870</v>
+      </c>
+      <c r="G19" s="40" t="s">
+        <v>871</v>
+      </c>
+      <c r="H19" s="34"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="39" t="s">
+        <v>870</v>
+      </c>
+      <c r="K19" s="40" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="76"/>
+      <c r="B20" s="35" t="s">
+        <v>873</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>874</v>
+      </c>
+      <c r="D20" s="34"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="35" t="s">
+        <v>873</v>
+      </c>
+      <c r="G20" s="36" t="s">
         <v>875</v>
       </c>
-      <c r="C19" s="40" t="s">
-        <v>876</v>
-      </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="39" t="s">
+      <c r="H20" s="34"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="35" t="s">
+        <v>873</v>
+      </c>
+      <c r="K20" s="36" t="s">
         <v>875</v>
-      </c>
-      <c r="G19" s="40" t="s">
-        <v>876</v>
-      </c>
-      <c r="H19" s="34"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="39" t="s">
-        <v>875</v>
-      </c>
-      <c r="K19" s="40" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="72"/>
-      <c r="B20" s="35" t="s">
-        <v>878</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>879</v>
-      </c>
-      <c r="D20" s="34"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="35" t="s">
-        <v>878</v>
-      </c>
-      <c r="G20" s="36" t="s">
-        <v>880</v>
-      </c>
-      <c r="H20" s="34"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="35" t="s">
-        <v>878</v>
-      </c>
-      <c r="K20" s="36" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -5647,7 +5671,7 @@
       <c r="C25" s="34"/>
       <c r="D25" s="34"/>
       <c r="E25" s="5" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="F25" s="45"/>
       <c r="G25" s="44"/>
@@ -5673,23 +5697,23 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E27" s="5" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A5:A14"/>
+    <mergeCell ref="E5:E14"/>
+    <mergeCell ref="I5:I14"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="E15:E20"/>
+    <mergeCell ref="I15:I20"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="I3:I4"/>
-    <mergeCell ref="A5:A14"/>
-    <mergeCell ref="E5:E14"/>
-    <mergeCell ref="I5:I14"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="E15:E20"/>
-    <mergeCell ref="I15:I20"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5724,31 +5748,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75" t="s">
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
     </row>
     <row r="2" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
@@ -9065,8 +9089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W55"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView topLeftCell="G21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R53" sqref="R53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9085,31 +9109,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="76" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76" t="s">
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
     </row>
     <row r="2" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
@@ -9748,7 +9772,7 @@
         <v>287</v>
       </c>
       <c r="O12" s="16" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="P12" s="16" t="s">
         <v>63</v>
@@ -9807,7 +9831,7 @@
         <v>127</v>
       </c>
       <c r="O13" s="15" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="P13" s="15" t="s">
         <v>63</v>
@@ -9868,7 +9892,7 @@
         <v>277</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="P14" s="15" t="s">
         <v>63</v>
@@ -9929,7 +9953,7 @@
         <v>274</v>
       </c>
       <c r="O15" s="15" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="P15" s="15" t="s">
         <v>63</v>
@@ -9990,7 +10014,7 @@
         <v>267</v>
       </c>
       <c r="O16" s="15" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="P16" s="15" t="s">
         <v>63</v>
@@ -10051,7 +10075,7 @@
         <v>260</v>
       </c>
       <c r="O17" s="15" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="P17" s="15" t="s">
         <v>63</v>
@@ -10112,7 +10136,7 @@
         <v>270</v>
       </c>
       <c r="O18" s="15" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="P18" s="15" t="s">
         <v>63</v>
@@ -10173,7 +10197,7 @@
         <v>263</v>
       </c>
       <c r="O19" s="15" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="P19" s="15" t="s">
         <v>63</v>
@@ -10234,7 +10258,7 @@
         <v>256</v>
       </c>
       <c r="O20" s="15" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="P20" s="15" t="s">
         <v>63</v>
@@ -10293,7 +10317,7 @@
         <v>253</v>
       </c>
       <c r="O21" s="15" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="P21" s="15" t="s">
         <v>63</v>
@@ -10354,7 +10378,7 @@
         <v>250</v>
       </c>
       <c r="O22" s="15" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="P22" s="15" t="s">
         <v>63</v>
@@ -10415,7 +10439,7 @@
         <v>247</v>
       </c>
       <c r="O23" s="15" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="P23" s="15" t="s">
         <v>63</v>
@@ -10474,7 +10498,7 @@
         <v>128</v>
       </c>
       <c r="O24" s="15" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="P24" s="15" t="s">
         <v>63</v>
@@ -10533,7 +10557,7 @@
         <v>242</v>
       </c>
       <c r="O25" s="15" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="P25" s="15" t="s">
         <v>63</v>
@@ -10592,7 +10616,7 @@
         <v>239</v>
       </c>
       <c r="O26" s="15" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="P26" s="15" t="s">
         <v>63</v>
@@ -10651,7 +10675,7 @@
         <v>236</v>
       </c>
       <c r="O27" s="15" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="P27" s="15" t="s">
         <v>63</v>
@@ -10712,7 +10736,7 @@
         <v>230</v>
       </c>
       <c r="O28" s="15" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="P28" s="15" t="s">
         <v>63</v>
@@ -10773,7 +10797,7 @@
         <v>223</v>
       </c>
       <c r="O29" s="15" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="P29" s="15" t="s">
         <v>63</v>
@@ -10832,7 +10856,7 @@
         <v>233</v>
       </c>
       <c r="O30" s="15" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="P30" s="15" t="s">
         <v>63</v>
@@ -10893,7 +10917,7 @@
         <v>226</v>
       </c>
       <c r="O31" s="15" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="P31" s="15" t="s">
         <v>63</v>
@@ -10954,7 +10978,7 @@
         <v>219</v>
       </c>
       <c r="O32" s="15" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="P32" s="15" t="s">
         <v>63</v>
@@ -11013,7 +11037,7 @@
         <v>216</v>
       </c>
       <c r="O33" s="15" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="P33" s="15" t="s">
         <v>63</v>
@@ -11072,7 +11096,7 @@
         <v>213</v>
       </c>
       <c r="O34" s="15" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="P34" s="15" t="s">
         <v>63</v>
@@ -11131,7 +11155,7 @@
         <v>209</v>
       </c>
       <c r="O35" s="15" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="P35" s="15" t="s">
         <v>63</v>
@@ -11192,7 +11216,7 @@
         <v>205</v>
       </c>
       <c r="O36" s="15" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="P36" s="15" t="s">
         <v>63</v>
@@ -11251,7 +11275,7 @@
         <v>202</v>
       </c>
       <c r="O37" s="15" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="P37" s="15" t="s">
         <v>63</v>
@@ -11312,7 +11336,7 @@
         <v>199</v>
       </c>
       <c r="O38" s="15" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="P38" s="15" t="s">
         <v>63</v>
@@ -11373,7 +11397,7 @@
         <v>195</v>
       </c>
       <c r="O39" s="15" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="P39" s="15" t="s">
         <v>63</v>
@@ -11434,7 +11458,7 @@
         <v>192</v>
       </c>
       <c r="O40" s="15" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="P40" s="15" t="s">
         <v>63</v>
@@ -11493,7 +11517,7 @@
         <v>185</v>
       </c>
       <c r="O41" s="15" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="P41" s="15" t="s">
         <v>63</v>
@@ -11554,7 +11578,7 @@
         <v>179</v>
       </c>
       <c r="O42" s="15" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="P42" s="15" t="s">
         <v>63</v>
@@ -11615,7 +11639,7 @@
         <v>172</v>
       </c>
       <c r="O43" s="15" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="P43" s="15" t="s">
         <v>63</v>
@@ -11676,7 +11700,7 @@
         <v>165</v>
       </c>
       <c r="O44" s="15" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="P44" s="15" t="s">
         <v>63</v>
@@ -11737,7 +11761,7 @@
         <v>157</v>
       </c>
       <c r="O45" s="15" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="P45" s="15" t="s">
         <v>63</v>
@@ -11798,7 +11822,7 @@
         <v>188</v>
       </c>
       <c r="O46" s="15" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="P46" s="15" t="s">
         <v>63</v>
@@ -11857,7 +11881,7 @@
         <v>182</v>
       </c>
       <c r="O47" s="15" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="P47" s="15" t="s">
         <v>63</v>
@@ -11918,7 +11942,7 @@
         <v>175</v>
       </c>
       <c r="O48" s="15" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="P48" s="15" t="s">
         <v>63</v>
@@ -11979,7 +12003,7 @@
         <v>168</v>
       </c>
       <c r="O49" s="15" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="P49" s="15" t="s">
         <v>63</v>
@@ -12040,7 +12064,7 @@
         <v>161</v>
       </c>
       <c r="O50" s="15" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="P50" s="15" t="s">
         <v>63</v>
@@ -12101,7 +12125,7 @@
         <v>153</v>
       </c>
       <c r="O51" s="15" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="P51" s="15" t="s">
         <v>63</v>
@@ -12160,7 +12184,7 @@
         <v>147</v>
       </c>
       <c r="O52" s="15" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="P52" s="15" t="s">
         <v>63</v>
@@ -12221,7 +12245,7 @@
         <v>142</v>
       </c>
       <c r="O53" s="15" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="P53" s="15" t="s">
         <v>63</v>
@@ -12280,7 +12304,7 @@
         <v>139</v>
       </c>
       <c r="O54" s="15" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="P54" s="15" t="s">
         <v>63</v>
@@ -12339,7 +12363,7 @@
         <v>131</v>
       </c>
       <c r="O55" s="15" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="P55" s="15" t="s">
         <v>60</v>
@@ -12376,10 +12400,10 @@
   <dimension ref="A1:AK51"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="T31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:B1"/>
+      <selection pane="bottomRight" activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12402,31 +12426,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75" t="s">
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
     </row>
     <row r="2" spans="1:37" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
@@ -12838,7 +12862,7 @@
         <v>73</v>
       </c>
       <c r="O8" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="P8" s="16" t="s">
         <v>74</v>
@@ -12911,7 +12935,7 @@
         <v>76</v>
       </c>
       <c r="O9" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="P9" s="16" t="s">
         <v>60</v>
@@ -12983,7 +13007,7 @@
         <v>77</v>
       </c>
       <c r="O10" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="P10" s="16" t="s">
         <v>63</v>
@@ -13055,7 +13079,7 @@
         <v>80</v>
       </c>
       <c r="O11" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="P11" s="16" t="s">
         <v>63</v>
@@ -13127,7 +13151,7 @@
         <v>83</v>
       </c>
       <c r="O12" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="P12" s="16" t="s">
         <v>63</v>
@@ -13199,7 +13223,7 @@
         <v>87</v>
       </c>
       <c r="O13" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="P13" s="16" t="s">
         <v>63</v>
@@ -13269,7 +13293,7 @@
         <v>127</v>
       </c>
       <c r="O14" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="P14" s="15" t="s">
         <v>63</v>
@@ -13281,7 +13305,7 @@
         <v>468</v>
       </c>
       <c r="S14" s="52" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="T14" s="16"/>
       <c r="U14" s="16"/>
@@ -13343,7 +13367,7 @@
         <v>277</v>
       </c>
       <c r="O15" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="P15" s="15" t="s">
         <v>63</v>
@@ -13418,7 +13442,7 @@
         <v>128</v>
       </c>
       <c r="O16" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="P16" s="15" t="s">
         <v>63</v>
@@ -13493,7 +13517,7 @@
         <v>242</v>
       </c>
       <c r="O17" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="P17" s="15" t="s">
         <v>63</v>
@@ -13567,7 +13591,7 @@
         <v>239</v>
       </c>
       <c r="O18" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="P18" s="15" t="s">
         <v>63</v>
@@ -13640,7 +13664,7 @@
         <v>462</v>
       </c>
       <c r="O19" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="P19" s="15" t="s">
         <v>63</v>
@@ -13713,7 +13737,7 @@
         <v>460</v>
       </c>
       <c r="O20" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="P20" s="15" t="s">
         <v>63</v>
@@ -13788,7 +13812,7 @@
         <v>458</v>
       </c>
       <c r="O21" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="P21" s="15" t="s">
         <v>63</v>
@@ -13861,7 +13885,7 @@
         <v>456</v>
       </c>
       <c r="O22" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="P22" s="15" t="s">
         <v>63</v>
@@ -13894,7 +13918,7 @@
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A23" s="59" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="B23" s="20" t="s">
         <v>454</v>
@@ -13936,7 +13960,7 @@
         <v>455</v>
       </c>
       <c r="O23" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="P23" s="15" t="s">
         <v>63</v>
@@ -13969,7 +13993,7 @@
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A24" s="54" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="B24" s="20" t="s">
         <v>454</v>
@@ -14011,7 +14035,7 @@
         <v>453</v>
       </c>
       <c r="O24" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="P24" s="15" t="s">
         <v>63</v>
@@ -14084,7 +14108,7 @@
         <v>451</v>
       </c>
       <c r="O25" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="P25" s="15" t="s">
         <v>63</v>
@@ -14157,7 +14181,7 @@
         <v>449</v>
       </c>
       <c r="O26" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="P26" s="15" t="s">
         <v>63</v>
@@ -14229,7 +14253,7 @@
         <v>447</v>
       </c>
       <c r="O27" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="P27" s="15" t="s">
         <v>63</v>
@@ -14304,7 +14328,7 @@
         <v>446</v>
       </c>
       <c r="O28" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="P28" s="15" t="s">
         <v>63</v>
@@ -14374,10 +14398,10 @@
         <v>132</v>
       </c>
       <c r="N29" s="53" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="O29" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="P29" s="15" t="s">
         <v>63</v>
@@ -14450,7 +14474,7 @@
         <v>443</v>
       </c>
       <c r="O30" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="P30" s="15" t="s">
         <v>63</v>
@@ -14523,7 +14547,7 @@
         <v>4</v>
       </c>
       <c r="O31" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="P31" s="15" t="s">
         <v>63</v>
@@ -14598,7 +14622,7 @@
         <v>439</v>
       </c>
       <c r="O32" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="P32" s="15" t="s">
         <v>63</v>
@@ -14671,7 +14695,7 @@
         <v>437</v>
       </c>
       <c r="O33" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="P33" s="15" t="s">
         <v>63</v>
@@ -14744,7 +14768,7 @@
         <v>435</v>
       </c>
       <c r="O34" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="P34" s="15" t="s">
         <v>63</v>
@@ -14819,7 +14843,7 @@
         <v>433</v>
       </c>
       <c r="O35" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="P35" s="15" t="s">
         <v>63</v>
@@ -14894,7 +14918,7 @@
         <v>431</v>
       </c>
       <c r="O36" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="P36" s="15" t="s">
         <v>63</v>
@@ -14969,7 +14993,7 @@
         <v>429</v>
       </c>
       <c r="O37" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="P37" s="15" t="s">
         <v>63</v>
@@ -15034,8 +15058,8 @@
       <c r="K38" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="L38" s="15" t="s">
-        <v>158</v>
+      <c r="L38" s="73" t="s">
+        <v>966</v>
       </c>
       <c r="M38" s="15" t="s">
         <v>132</v>
@@ -15044,7 +15068,7 @@
         <v>424</v>
       </c>
       <c r="O38" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="P38" s="15" t="s">
         <v>63</v>
@@ -15117,7 +15141,7 @@
         <v>422</v>
       </c>
       <c r="O39" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="P39" s="15" t="s">
         <v>63</v>
@@ -15182,8 +15206,8 @@
       <c r="K40" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="L40" s="15" t="s">
-        <v>158</v>
+      <c r="L40" s="73" t="s">
+        <v>966</v>
       </c>
       <c r="M40" s="15" t="s">
         <v>132</v>
@@ -15192,7 +15216,7 @@
         <v>420</v>
       </c>
       <c r="O40" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="P40" s="15" t="s">
         <v>63</v>
@@ -15262,7 +15286,7 @@
         <v>418</v>
       </c>
       <c r="O41" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="P41" s="15" t="s">
         <v>63</v>
@@ -15332,7 +15356,7 @@
         <v>416</v>
       </c>
       <c r="O42" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="P42" s="15" t="s">
         <v>63</v>
@@ -15402,7 +15426,7 @@
         <v>414</v>
       </c>
       <c r="O43" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="P43" s="15" t="s">
         <v>63</v>
@@ -15472,7 +15496,7 @@
         <v>412</v>
       </c>
       <c r="O44" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="P44" s="15" t="s">
         <v>63</v>
@@ -15542,7 +15566,7 @@
         <v>410</v>
       </c>
       <c r="O45" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="P45" s="15" t="s">
         <v>63</v>
@@ -15612,7 +15636,7 @@
         <v>408</v>
       </c>
       <c r="O46" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="P46" s="15" t="s">
         <v>63</v>
@@ -15684,7 +15708,7 @@
         <v>407</v>
       </c>
       <c r="O47" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="P47" s="15" t="s">
         <v>63</v>
@@ -15756,7 +15780,7 @@
         <v>406</v>
       </c>
       <c r="O48" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="P48" s="15" t="s">
         <v>63</v>
@@ -15828,7 +15852,7 @@
         <v>5</v>
       </c>
       <c r="O49" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="P49" s="15" t="s">
         <v>63</v>
@@ -15900,7 +15924,7 @@
         <v>209</v>
       </c>
       <c r="O50" s="15" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="P50" s="15" t="s">
         <v>63</v>
@@ -15970,7 +15994,7 @@
         <v>396</v>
       </c>
       <c r="O51" s="15" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="P51" s="15" t="s">
         <v>60</v>
@@ -16035,11 +16059,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
     </row>
     <row r="2" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -16053,7 +16077,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="79" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="14" t="s">
@@ -16064,7 +16088,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="77"/>
+      <c r="A4" s="79"/>
       <c r="B4" s="8" t="s">
         <v>91</v>
       </c>
@@ -16073,7 +16097,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="80" t="s">
         <v>93</v>
       </c>
       <c r="B5" s="14" t="s">
@@ -16084,7 +16108,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="79"/>
+      <c r="A6" s="81"/>
       <c r="B6" s="12" t="s">
         <v>96</v>
       </c>
@@ -16093,7 +16117,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="79"/>
+      <c r="A7" s="81"/>
       <c r="B7" s="10" t="s">
         <v>98</v>
       </c>
@@ -16102,7 +16126,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="79"/>
+      <c r="A8" s="81"/>
       <c r="B8" s="30" t="s">
         <v>100</v>
       </c>
@@ -16111,7 +16135,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="80"/>
+      <c r="A9" s="82"/>
       <c r="B9" s="10" t="s">
         <v>119</v>
       </c>
@@ -16186,7 +16210,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="46" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="B22" s="24"/>
       <c r="C22" s="5"/>
@@ -16198,35 +16222,35 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="67" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="B24" s="24"/>
       <c r="C24" s="5"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="67" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="B25" s="24"/>
       <c r="C25" s="5"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="67" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="B26" s="24"/>
       <c r="C26" s="5"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="68" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="B27" s="24"/>
       <c r="C27" s="5"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="68" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="B28" s="24"/>
       <c r="C28" s="5"/>
@@ -16261,7 +16285,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="67" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="B33" s="24"/>
       <c r="C33" s="5"/>
@@ -17863,13 +17887,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H342"/>
+  <dimension ref="A1:H339"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="F317" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="H316" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D288" sqref="D288"/>
+      <selection pane="bottomRight" activeCell="H334" sqref="H334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17886,16 +17910,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
       <c r="G1" s="31"/>
       <c r="H1" s="16"/>
     </row>
@@ -20259,7 +20283,7 @@
         <v>589</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="F98" s="47" t="s">
         <v>56</v>
@@ -20407,7 +20431,7 @@
         <v>596</v>
       </c>
       <c r="E104" s="47" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="F104" s="47" t="s">
         <v>56</v>
@@ -20524,10 +20548,10 @@
         <v>489</v>
       </c>
       <c r="D109" s="16" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="E109" s="47" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="F109" s="47" t="s">
         <v>56</v>
@@ -20797,7 +20821,7 @@
         <v>607</v>
       </c>
       <c r="E120" s="47" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="F120" s="47" t="s">
         <v>56</v>
@@ -21181,7 +21205,7 @@
         <v>621</v>
       </c>
       <c r="E135" s="47" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="F135" s="47" t="s">
         <v>619</v>
@@ -21390,10 +21414,10 @@
         <v>489</v>
       </c>
       <c r="D144" s="57" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="E144" s="58" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
@@ -21583,10 +21607,10 @@
         <v>489</v>
       </c>
       <c r="D155" s="57" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="E155" s="58" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
@@ -21739,10 +21763,10 @@
         <v>489</v>
       </c>
       <c r="D164" s="57" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="E164" s="58" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
@@ -21970,10 +21994,10 @@
         <v>489</v>
       </c>
       <c r="D176" s="57" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="E176" s="58" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="F176" s="48" t="s">
         <v>57</v>
@@ -22205,10 +22229,10 @@
         <v>489</v>
       </c>
       <c r="D187" s="57" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="E187" s="58" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
@@ -22367,7 +22391,7 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="57" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="B196" s="57" t="s">
         <v>680</v>
@@ -22382,12 +22406,12 @@
         <v>132</v>
       </c>
       <c r="H196" s="2" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="57" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="B197" s="57" t="s">
         <v>680</v>
@@ -22402,12 +22426,12 @@
         <v>455</v>
       </c>
       <c r="H197" s="2" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="57" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="B198" s="57" t="s">
         <v>680</v>
@@ -22416,18 +22440,18 @@
         <v>489</v>
       </c>
       <c r="D198" s="57" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="E198" s="58" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="H198" s="2" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="57" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="B199" s="57" t="s">
         <v>680</v>
@@ -22442,12 +22466,12 @@
         <v>63</v>
       </c>
       <c r="H199" s="2" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="57" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="B200" s="57" t="s">
         <v>680</v>
@@ -22462,12 +22486,12 @@
         <v>428</v>
       </c>
       <c r="H200" s="2" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="57" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="B201" s="57" t="s">
         <v>680</v>
@@ -22482,12 +22506,12 @@
         <v>0</v>
       </c>
       <c r="H201" s="2" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="57" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="B202" s="57" t="s">
         <v>680</v>
@@ -22502,12 +22526,12 @@
         <v>127</v>
       </c>
       <c r="H202" s="2" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="57" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="B203" s="57" t="s">
         <v>680</v>
@@ -22522,12 +22546,12 @@
         <v>139</v>
       </c>
       <c r="H203" s="2" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="57" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="B204" s="57" t="s">
         <v>680</v>
@@ -22542,12 +22566,12 @@
         <v>649</v>
       </c>
       <c r="H204" s="2" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="57" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="B205" s="57" t="s">
         <v>680</v>
@@ -22562,12 +22586,12 @@
         <v>652</v>
       </c>
       <c r="H205" s="2" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="57" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="B206" s="57" t="s">
         <v>680</v>
@@ -22582,12 +22606,12 @@
         <v>658</v>
       </c>
       <c r="H206" s="2" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="57" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="B207" s="57" t="s">
         <v>680</v>
@@ -22602,12 +22626,12 @@
         <v>132</v>
       </c>
       <c r="H207" s="2" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="57" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="B208" s="57" t="s">
         <v>680</v>
@@ -22622,12 +22646,12 @@
         <v>453</v>
       </c>
       <c r="H208" s="2" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="57" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="B209" s="57" t="s">
         <v>680</v>
@@ -22636,18 +22660,18 @@
         <v>489</v>
       </c>
       <c r="D209" s="57" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="E209" s="58" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="H209" s="2" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="57" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="B210" s="57" t="s">
         <v>680</v>
@@ -22662,12 +22686,12 @@
         <v>63</v>
       </c>
       <c r="H210" s="2" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="57" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="B211" s="57" t="s">
         <v>680</v>
@@ -22682,12 +22706,12 @@
         <v>428</v>
       </c>
       <c r="H211" s="2" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="57" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="B212" s="57" t="s">
         <v>680</v>
@@ -22702,12 +22726,12 @@
         <v>0</v>
       </c>
       <c r="H212" s="2" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="57" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="B213" s="57" t="s">
         <v>680</v>
@@ -22722,12 +22746,12 @@
         <v>127</v>
       </c>
       <c r="H213" s="2" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="57" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="B214" s="57" t="s">
         <v>680</v>
@@ -22742,12 +22766,12 @@
         <v>139</v>
       </c>
       <c r="H214" s="2" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="57" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="B215" s="57" t="s">
         <v>680</v>
@@ -22762,12 +22786,12 @@
         <v>649</v>
       </c>
       <c r="H215" s="2" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="57" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="B216" s="57" t="s">
         <v>680</v>
@@ -22782,12 +22806,12 @@
         <v>652</v>
       </c>
       <c r="H216" s="2" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="57" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="B217" s="57" t="s">
         <v>680</v>
@@ -22802,7 +22826,7 @@
         <v>658</v>
       </c>
       <c r="H217" s="2" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
@@ -22850,10 +22874,10 @@
         <v>489</v>
       </c>
       <c r="D220" s="57" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="E220" s="58" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
@@ -23043,10 +23067,10 @@
         <v>489</v>
       </c>
       <c r="D231" s="57" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="E231" s="58" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
@@ -23268,10 +23292,10 @@
         <v>489</v>
       </c>
       <c r="D243" s="57" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="E243" s="58" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
@@ -23473,10 +23497,10 @@
         <v>489</v>
       </c>
       <c r="D254" s="57" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="E254" s="58" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
@@ -23678,10 +23702,10 @@
         <v>489</v>
       </c>
       <c r="D265" s="57" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="E265" s="58" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.3">
@@ -23883,10 +23907,10 @@
         <v>489</v>
       </c>
       <c r="D276" s="57" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="E276" s="58" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.3">
@@ -23940,7 +23964,7 @@
         <v>0</v>
       </c>
       <c r="H279" s="2" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.3">
@@ -23960,7 +23984,7 @@
         <v>1</v>
       </c>
       <c r="H280" s="63" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.3">
@@ -23980,7 +24004,7 @@
         <v>139</v>
       </c>
       <c r="H281" s="2" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.3">
@@ -24000,7 +24024,7 @@
         <v>649</v>
       </c>
       <c r="H282" s="2" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.3">
@@ -24020,7 +24044,7 @@
         <v>685</v>
       </c>
       <c r="H283" s="63" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.3">
@@ -24040,7 +24064,7 @@
         <v>658</v>
       </c>
       <c r="H284" s="2" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
     </row>
     <row r="285" spans="1:8" s="22" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -24054,10 +24078,10 @@
         <v>592</v>
       </c>
       <c r="D285" s="60" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="E285" s="60" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="F285" s="70"/>
       <c r="H285" s="71" t="s">
@@ -24112,10 +24136,10 @@
         <v>489</v>
       </c>
       <c r="D288" s="57" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="E288" s="58" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.3">
@@ -24340,10 +24364,10 @@
         <v>489</v>
       </c>
       <c r="D300" s="56" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="E300" s="58" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="H300" s="2" t="s">
         <v>738</v>
@@ -24554,10 +24578,10 @@
         <v>489</v>
       </c>
       <c r="D311" s="56" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="E311" s="58" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.3">
@@ -24747,10 +24771,10 @@
         <v>489</v>
       </c>
       <c r="D322" s="47" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="E322" s="58" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.3">
@@ -24781,7 +24805,7 @@
         <v>34</v>
       </c>
       <c r="D324" s="57" t="s">
-        <v>745</v>
+        <v>963</v>
       </c>
       <c r="E324" s="57" t="s">
         <v>151</v>
@@ -24798,13 +24822,13 @@
         <v>493</v>
       </c>
       <c r="D325" s="47" t="s">
-        <v>746</v>
+        <v>964</v>
       </c>
       <c r="E325" s="57">
         <v>0</v>
       </c>
       <c r="H325" s="2" t="s">
-        <v>962</v>
+        <v>968</v>
       </c>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.3">
@@ -24818,13 +24842,13 @@
         <v>493</v>
       </c>
       <c r="D326" s="47" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="E326" s="47" t="s">
         <v>127</v>
       </c>
       <c r="H326" s="2" t="s">
-        <v>748</v>
+        <v>967</v>
       </c>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.3">
@@ -24835,16 +24859,16 @@
         <v>401</v>
       </c>
       <c r="C327" s="16" t="s">
-        <v>493</v>
+        <v>519</v>
       </c>
       <c r="D327" s="47" t="s">
-        <v>749</v>
-      </c>
-      <c r="E327" s="47" t="s">
-        <v>139</v>
+        <v>746</v>
+      </c>
+      <c r="E327" s="57" t="s">
+        <v>634</v>
       </c>
       <c r="H327" s="2" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.3">
@@ -24858,73 +24882,64 @@
         <v>519</v>
       </c>
       <c r="D328" s="47" t="s">
-        <v>750</v>
-      </c>
-      <c r="E328" s="57" t="s">
-        <v>634</v>
+        <v>747</v>
+      </c>
+      <c r="E328" s="47" t="s">
+        <v>636</v>
       </c>
       <c r="H328" s="2" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A329" s="2" t="s">
-        <v>404</v>
+      <c r="A329" s="56" t="s">
+        <v>402</v>
       </c>
       <c r="B329" s="56" t="s">
         <v>401</v>
       </c>
       <c r="C329" s="16" t="s">
-        <v>519</v>
+        <v>485</v>
       </c>
       <c r="D329" s="47" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
       <c r="E329" s="47" t="s">
-        <v>636</v>
-      </c>
-      <c r="H329" s="2" t="s">
-        <v>961</v>
+        <v>132</v>
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A330" s="2" t="s">
-        <v>404</v>
+      <c r="A330" s="56" t="s">
+        <v>402</v>
       </c>
       <c r="B330" s="56" t="s">
         <v>401</v>
       </c>
       <c r="C330" s="16" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
       <c r="D330" s="47" t="s">
-        <v>752</v>
-      </c>
-      <c r="E330" s="47" t="s">
-        <v>753</v>
-      </c>
-      <c r="H330" s="2" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="331" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A331" s="2" t="s">
-        <v>404</v>
+        <v>743</v>
+      </c>
+      <c r="E330" s="50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A331" s="56" t="s">
+        <v>402</v>
       </c>
       <c r="B331" s="56" t="s">
         <v>401</v>
       </c>
       <c r="C331" s="16" t="s">
-        <v>592</v>
-      </c>
-      <c r="D331" s="60" t="s">
-        <v>958</v>
-      </c>
-      <c r="E331" s="60" t="s">
-        <v>958</v>
-      </c>
-      <c r="H331" s="2" t="s">
-        <v>660</v>
+        <v>489</v>
+      </c>
+      <c r="D331" s="47" t="s">
+        <v>836</v>
+      </c>
+      <c r="E331" s="56" t="s">
+        <v>812</v>
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.3">
@@ -24935,16 +24950,13 @@
         <v>401</v>
       </c>
       <c r="C332" s="16" t="s">
-        <v>485</v>
-      </c>
-      <c r="D332" s="47" t="s">
-        <v>742</v>
-      </c>
-      <c r="E332" s="47" t="s">
-        <v>132</v>
-      </c>
-      <c r="H332" s="2" t="s">
-        <v>660</v>
+        <v>30</v>
+      </c>
+      <c r="D332" s="57" t="s">
+        <v>744</v>
+      </c>
+      <c r="E332" s="57" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.3">
@@ -24955,79 +24967,67 @@
         <v>401</v>
       </c>
       <c r="C333" s="16" t="s">
-        <v>487</v>
-      </c>
-      <c r="D333" s="47" t="s">
-        <v>743</v>
-      </c>
-      <c r="E333" s="50">
-        <v>5</v>
-      </c>
-      <c r="H333" s="2" t="s">
-        <v>660</v>
+        <v>34</v>
+      </c>
+      <c r="D333" s="57" t="s">
+        <v>963</v>
+      </c>
+      <c r="E333" s="47" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A334" s="56" t="s">
         <v>402</v>
       </c>
-      <c r="B334" s="56" t="s">
-        <v>401</v>
+      <c r="B334" s="2" t="s">
+        <v>371</v>
       </c>
       <c r="C334" s="16" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="D334" s="47" t="s">
-        <v>841</v>
-      </c>
-      <c r="E334" s="56" t="s">
-        <v>817</v>
-      </c>
-      <c r="H334" s="2" t="s">
-        <v>660</v>
+        <v>127</v>
+      </c>
+      <c r="E334" s="47" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A335" s="56" t="s">
         <v>402</v>
       </c>
-      <c r="B335" s="56" t="s">
-        <v>401</v>
+      <c r="B335" s="2" t="s">
+        <v>353</v>
       </c>
       <c r="C335" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D335" s="57" t="s">
-        <v>744</v>
-      </c>
-      <c r="E335" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="H335" s="2" t="s">
-        <v>660</v>
+        <v>493</v>
+      </c>
+      <c r="D335" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="E335" s="47" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A336" s="56" t="s">
         <v>402</v>
       </c>
-      <c r="B336" s="56" t="s">
-        <v>401</v>
+      <c r="B336" s="2" t="s">
+        <v>336</v>
       </c>
       <c r="C336" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D336" s="57" t="s">
-        <v>745</v>
+        <v>493</v>
+      </c>
+      <c r="D336" s="47" t="s">
+        <v>127</v>
       </c>
       <c r="E336" s="47" t="s">
-        <v>400</v>
-      </c>
-      <c r="H336" s="2" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" s="56" t="s">
         <v>402</v>
       </c>
@@ -25038,16 +25038,13 @@
         <v>493</v>
       </c>
       <c r="D337" s="47" t="s">
-        <v>127</v>
+        <v>635</v>
       </c>
       <c r="E337" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="H337" s="2" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" s="56" t="s">
         <v>402</v>
       </c>
@@ -25058,16 +25055,13 @@
         <v>493</v>
       </c>
       <c r="D338" s="47" t="s">
-        <v>127</v>
+        <v>635</v>
       </c>
       <c r="E338" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="H338" s="2" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" s="56" t="s">
         <v>402</v>
       </c>
@@ -25078,73 +25072,10 @@
         <v>493</v>
       </c>
       <c r="D339" s="47" t="s">
-        <v>127</v>
+        <v>635</v>
       </c>
       <c r="E339" s="47" t="s">
-        <v>216</v>
-      </c>
-      <c r="H339" s="2" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A340" s="56" t="s">
-        <v>402</v>
-      </c>
-      <c r="B340" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="C340" s="16" t="s">
-        <v>493</v>
-      </c>
-      <c r="D340" s="47" t="s">
-        <v>635</v>
-      </c>
-      <c r="E340" s="47" t="s">
-        <v>754</v>
-      </c>
-      <c r="H340" s="2" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A341" s="56" t="s">
-        <v>402</v>
-      </c>
-      <c r="B341" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C341" s="16" t="s">
-        <v>493</v>
-      </c>
-      <c r="D341" s="47" t="s">
-        <v>635</v>
-      </c>
-      <c r="E341" s="47" t="s">
-        <v>754</v>
-      </c>
-      <c r="H341" s="2" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A342" s="56" t="s">
-        <v>402</v>
-      </c>
-      <c r="B342" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="C342" s="16" t="s">
-        <v>493</v>
-      </c>
-      <c r="D342" s="47" t="s">
-        <v>635</v>
-      </c>
-      <c r="E342" s="47" t="s">
-        <v>755</v>
-      </c>
-      <c r="H342" s="2" t="s">
-        <v>660</v>
+        <v>750</v>
       </c>
     </row>
   </sheetData>
@@ -25159,13 +25090,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25180,16 +25111,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
       <c r="G1" s="31"/>
       <c r="H1" s="16"/>
     </row>
@@ -25236,7 +25167,7 @@
         <v>277</v>
       </c>
       <c r="F3" s="66" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>645</v>
@@ -25259,7 +25190,7 @@
         <v>128</v>
       </c>
       <c r="F4" s="66" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>645</v>
@@ -25279,10 +25210,10 @@
         <v>654</v>
       </c>
       <c r="E5" s="61" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="F5" s="66" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>656</v>
@@ -25302,10 +25233,10 @@
         <v>654</v>
       </c>
       <c r="E6" s="61" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="F6" s="66" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="H6" s="63" t="s">
         <v>656</v>
@@ -25322,13 +25253,13 @@
         <v>592</v>
       </c>
       <c r="D7" s="62" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="E7" s="63" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F7" s="66" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>660</v>
@@ -25345,13 +25276,13 @@
         <v>592</v>
       </c>
       <c r="D8" s="62" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="E8" s="63" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F8" s="66" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>660</v>
@@ -25368,16 +25299,16 @@
         <v>622</v>
       </c>
       <c r="D9" s="64" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="E9" s="64" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="F9" s="66" t="s">
         <v>622</v>
       </c>
       <c r="H9" s="65" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -25397,7 +25328,7 @@
         <v>277</v>
       </c>
       <c r="F10" s="66" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>665</v>
@@ -25420,7 +25351,7 @@
         <v>128</v>
       </c>
       <c r="F11" s="66" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>665</v>
@@ -25440,10 +25371,10 @@
         <v>654</v>
       </c>
       <c r="E12" s="61" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="F12" s="66" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>669</v>
@@ -25463,10 +25394,10 @@
         <v>654</v>
       </c>
       <c r="E13" s="61" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="F13" s="66" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>669</v>
@@ -25483,13 +25414,13 @@
         <v>592</v>
       </c>
       <c r="D14" s="62" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="E14" s="61" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F14" s="66" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>660</v>
@@ -25506,13 +25437,13 @@
         <v>592</v>
       </c>
       <c r="D15" s="62" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="E15" s="61" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F15" s="66" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>660</v>
@@ -25529,16 +25460,16 @@
         <v>622</v>
       </c>
       <c r="D16" s="64" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="E16" s="64" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="F16" s="66" t="s">
         <v>622</v>
       </c>
       <c r="H16" s="65" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -25558,7 +25489,7 @@
         <v>277</v>
       </c>
       <c r="F17" s="66" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>674</v>
@@ -25581,7 +25512,7 @@
         <v>128</v>
       </c>
       <c r="F18" s="66" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>674</v>
@@ -25601,10 +25532,10 @@
         <v>654</v>
       </c>
       <c r="E19" s="61" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="F19" s="66" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>678</v>
@@ -25624,10 +25555,10 @@
         <v>654</v>
       </c>
       <c r="E20" s="61" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="F20" s="66" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>678</v>
@@ -25644,13 +25575,13 @@
         <v>592</v>
       </c>
       <c r="D21" s="62" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="E21" s="61" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F21" s="66" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>660</v>
@@ -25667,13 +25598,13 @@
         <v>592</v>
       </c>
       <c r="D22" s="62" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="E22" s="61" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F22" s="66" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>660</v>
@@ -25690,21 +25621,21 @@
         <v>622</v>
       </c>
       <c r="D23" s="64" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="E23" s="64" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="F23" s="66" t="s">
         <v>622</v>
       </c>
       <c r="H23" s="65" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="57" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="B24" s="57" t="s">
         <v>680</v>
@@ -25719,15 +25650,15 @@
         <v>277</v>
       </c>
       <c r="F24" s="66" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="57" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="B25" s="57" t="s">
         <v>680</v>
@@ -25742,15 +25673,15 @@
         <v>128</v>
       </c>
       <c r="F25" s="66" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="57" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="B26" s="57" t="s">
         <v>680</v>
@@ -25762,18 +25693,18 @@
         <v>654</v>
       </c>
       <c r="E26" s="61" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="F26" s="66" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="57" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="B27" s="57" t="s">
         <v>680</v>
@@ -25785,18 +25716,18 @@
         <v>654</v>
       </c>
       <c r="E27" s="61" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="F27" s="66" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="57" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="B28" s="57" t="s">
         <v>680</v>
@@ -25805,21 +25736,21 @@
         <v>592</v>
       </c>
       <c r="D28" s="62" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="E28" s="61" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F28" s="66" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="57" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="B29" s="57" t="s">
         <v>680</v>
@@ -25828,21 +25759,21 @@
         <v>592</v>
       </c>
       <c r="D29" s="62" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="E29" s="61" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F29" s="66" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="57" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="B30" s="57" t="s">
         <v>680</v>
@@ -25851,21 +25782,21 @@
         <v>622</v>
       </c>
       <c r="D30" s="64" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="E30" s="64" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="F30" s="66" t="s">
         <v>622</v>
       </c>
       <c r="H30" s="65" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="57" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="B31" s="57" t="s">
         <v>680</v>
@@ -25880,15 +25811,15 @@
         <v>277</v>
       </c>
       <c r="F31" s="66" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="57" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="B32" s="57" t="s">
         <v>680</v>
@@ -25903,15 +25834,15 @@
         <v>128</v>
       </c>
       <c r="F32" s="66" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="57" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="B33" s="57" t="s">
         <v>680</v>
@@ -25923,18 +25854,18 @@
         <v>654</v>
       </c>
       <c r="E33" s="61" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="F33" s="66" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="57" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="B34" s="57" t="s">
         <v>680</v>
@@ -25946,18 +25877,18 @@
         <v>654</v>
       </c>
       <c r="E34" s="61" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="F34" s="66" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="57" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="B35" s="57" t="s">
         <v>680</v>
@@ -25966,21 +25897,21 @@
         <v>592</v>
       </c>
       <c r="D35" s="62" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="E35" s="61" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F35" s="66" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="57" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="B36" s="57" t="s">
         <v>680</v>
@@ -25989,21 +25920,21 @@
         <v>592</v>
       </c>
       <c r="D36" s="62" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="E36" s="61" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F36" s="66" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="57" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="B37" s="57" t="s">
         <v>680</v>
@@ -26012,16 +25943,16 @@
         <v>622</v>
       </c>
       <c r="D37" s="64" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="E37" s="64" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="F37" s="66" t="s">
         <v>622</v>
       </c>
       <c r="H37" s="65" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -26041,7 +25972,7 @@
         <v>277</v>
       </c>
       <c r="F38" s="66" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>691</v>
@@ -26064,7 +25995,7 @@
         <v>128</v>
       </c>
       <c r="F39" s="66" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>691</v>
@@ -26084,10 +26015,10 @@
         <v>654</v>
       </c>
       <c r="E40" s="61" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="F40" s="66" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>695</v>
@@ -26107,10 +26038,10 @@
         <v>654</v>
       </c>
       <c r="E41" s="61" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="F41" s="66" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>695</v>
@@ -26127,13 +26058,13 @@
         <v>592</v>
       </c>
       <c r="D42" s="62" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="E42" s="61" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F42" s="66" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>660</v>
@@ -26150,13 +26081,13 @@
         <v>592</v>
       </c>
       <c r="D43" s="62" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="E43" s="61" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F43" s="66" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>660</v>
@@ -26173,16 +26104,16 @@
         <v>622</v>
       </c>
       <c r="D44" s="64" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="E44" s="64" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="F44" s="66" t="s">
         <v>622</v>
       </c>
       <c r="H44" s="65" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -26202,7 +26133,7 @@
         <v>277</v>
       </c>
       <c r="F45" s="66" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>701</v>
@@ -26225,7 +26156,7 @@
         <v>128</v>
       </c>
       <c r="F46" s="66" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>701</v>
@@ -26245,10 +26176,10 @@
         <v>654</v>
       </c>
       <c r="E47" s="61" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="F47" s="66" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>705</v>
@@ -26268,10 +26199,10 @@
         <v>654</v>
       </c>
       <c r="E48" s="61" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="F48" s="66" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>705</v>
@@ -26288,13 +26219,13 @@
         <v>592</v>
       </c>
       <c r="D49" s="62" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="E49" s="61" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F49" s="66" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>660</v>
@@ -26311,13 +26242,13 @@
         <v>592</v>
       </c>
       <c r="D50" s="62" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="E50" s="61" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F50" s="66" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>660</v>
@@ -26334,16 +26265,16 @@
         <v>622</v>
       </c>
       <c r="D51" s="64" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="E51" s="64" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="F51" s="66" t="s">
         <v>622</v>
       </c>
       <c r="H51" s="65" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -26363,7 +26294,7 @@
         <v>277</v>
       </c>
       <c r="F52" s="66" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>711</v>
@@ -26386,7 +26317,7 @@
         <v>128</v>
       </c>
       <c r="F53" s="66" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>711</v>
@@ -26406,10 +26337,10 @@
         <v>654</v>
       </c>
       <c r="E54" s="61" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="F54" s="66" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>715</v>
@@ -26429,10 +26360,10 @@
         <v>654</v>
       </c>
       <c r="E55" s="61" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="F55" s="66" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>715</v>
@@ -26449,13 +26380,13 @@
         <v>592</v>
       </c>
       <c r="D56" s="62" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="E56" s="61" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F56" s="66" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>660</v>
@@ -26472,13 +26403,13 @@
         <v>592</v>
       </c>
       <c r="D57" s="62" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="E57" s="61" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F57" s="66" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>660</v>
@@ -26495,16 +26426,16 @@
         <v>622</v>
       </c>
       <c r="D58" s="64" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="E58" s="64" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="F58" s="66" t="s">
         <v>622</v>
       </c>
       <c r="H58" s="65" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -26524,7 +26455,7 @@
         <v>277</v>
       </c>
       <c r="F59" s="66" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>721</v>
@@ -26547,7 +26478,7 @@
         <v>128</v>
       </c>
       <c r="F60" s="66" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>721</v>
@@ -26567,10 +26498,10 @@
         <v>654</v>
       </c>
       <c r="E61" s="61" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="F61" s="66" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>725</v>
@@ -26590,10 +26521,10 @@
         <v>654</v>
       </c>
       <c r="E62" s="61" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="F62" s="66" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>725</v>
@@ -26610,13 +26541,13 @@
         <v>592</v>
       </c>
       <c r="D63" s="62" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="E63" s="61" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F63" s="66" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>660</v>
@@ -26633,13 +26564,13 @@
         <v>592</v>
       </c>
       <c r="D64" s="62" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="E64" s="61" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F64" s="66" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>660</v>
@@ -26656,16 +26587,177 @@
         <v>622</v>
       </c>
       <c r="D65" s="64" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="E65" s="64" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="F65" s="66" t="s">
         <v>622</v>
       </c>
       <c r="H65" s="65" t="s">
-        <v>932</v>
+        <v>927</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="D66" s="47" t="s">
+        <v>955</v>
+      </c>
+      <c r="E66" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="F66" s="48" t="s">
+        <v>915</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="D67" s="47" t="s">
+        <v>955</v>
+      </c>
+      <c r="E67" s="47" t="s">
+        <v>957</v>
+      </c>
+      <c r="F67" s="48" t="s">
+        <v>916</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="D68" s="47" t="s">
+        <v>960</v>
+      </c>
+      <c r="E68" s="47" t="s">
+        <v>748</v>
+      </c>
+      <c r="F68" s="48" t="s">
+        <v>915</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="D69" s="47" t="s">
+        <v>960</v>
+      </c>
+      <c r="E69" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F69" s="48" t="s">
+        <v>916</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B70" s="56" t="s">
+        <v>401</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>592</v>
+      </c>
+      <c r="D70" s="60" t="s">
+        <v>961</v>
+      </c>
+      <c r="E70" s="60" t="s">
+        <v>961</v>
+      </c>
+      <c r="F70" s="48" t="s">
+        <v>915</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B71" s="56" t="s">
+        <v>401</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>592</v>
+      </c>
+      <c r="D71" s="60" t="s">
+        <v>961</v>
+      </c>
+      <c r="E71" s="60" t="s">
+        <v>961</v>
+      </c>
+      <c r="F71" s="48" t="s">
+        <v>916</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="D72" s="72" t="s">
+        <v>958</v>
+      </c>
+      <c r="E72" s="72" t="s">
+        <v>958</v>
+      </c>
+      <c r="F72" s="48" t="s">
+        <v>622</v>
+      </c>
+      <c r="H72" s="72" t="s">
+        <v>965</v>
       </c>
     </row>
   </sheetData>
@@ -26933,6 +27025,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="38934ba0-d0c8-4ff1-b39d-50890708cb62">
@@ -26941,15 +27042,6 @@
     <TaxCatchAll xmlns="ab06a5aa-8e31-4bdb-9b13-38c58a92ec8a" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -26973,6 +27065,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D64FD81-61B5-4C50-AB1A-3572D60D9783}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{032D7E56-4464-4468-967D-9B90BB52AA5D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -26981,12 +27081,4 @@
     <ds:schemaRef ds:uri="ab06a5aa-8e31-4bdb-9b13-38c58a92ec8a"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D64FD81-61B5-4C50-AB1A-3572D60D9783}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Crosswalk/B8_UDS4_programmatic_crosswalk.xlsx
+++ b/Crosswalk/B8_UDS4_programmatic_crosswalk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaiga\Downloads\Json_f\Json_SOPS\Crosswalk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3023A10-8C29-4327-86E3-6DE7A4203D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065F6F51-F9AB-4DF0-B8BC-86CB8A8183E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UDS3_4 Tables Data Dictionary" sheetId="18" r:id="rId1"/>
@@ -4007,18 +4007,9 @@
     <t>IF(RIGIDL==1 || RIGIDR==1) {RIGIDARM=1} ELSEIF(RIGIDL==8 &amp;&amp; RIGIDR==8) {RIGIDARM=8} ELSEIF(RIGIDL==1 &amp;&amp; RIGIDR==1) {RIGIDARM=3} ELSE {RIGIDARM=0}</t>
   </si>
   <si>
-    <t>IF(DYSTONL==1 || DYSTONR==1) {DYSTONARM=1} ELSEIF(DYSTONL==8 &amp;&amp; DYSTONR==8) {DYSTONARM=8} ELSEIF(DYSTONL==1 &amp;&amp; DYSTONR==1) {DYSTONARM=2} ELSE {DYSTONARM=0}</t>
-  </si>
-  <si>
     <t>IF(DYSTONL==1 || DYSTONR==1) {DYSTONARM=1} ELSEIF(DYSTONL==8 &amp;&amp; DYSTONR==8) {DYSTONARM=8} ELSEIF(DYSTONL==1 &amp;&amp; DYSTONR==1) {DYSTONARM=3} ELSE {DYSTONARM=0}</t>
   </si>
   <si>
-    <t>IF(DYSTONL==1 || DYSTONR==1) {DYSTONLEG=1} ELSEIF(DYSTONL==8 &amp;&amp; DYSTONR==8) {DYSTONLEG=8} ELSEIF(DYSTONL==1 &amp;&amp; DYSTONR==1) {DYSTONLEG=3} ELSE {DYSTONLEG=0}</t>
-  </si>
-  <si>
-    <t>IF(DYSTONL==1 || DYSTONR==1) {DYSTONLEG=1} ELSEIF(DYSTONL==8 &amp;&amp; DYSTONR==8) {DYSTONLEG=8} ELSEIF(DYSTONL==1 &amp;&amp; DYSTONR==1) {DYSTONLEG=2} ELSE {DYSTONLEG=0}</t>
-  </si>
-  <si>
     <t>IF(APRAXL==1 || APRAXR==1) {LIMBAPRAX=1} ELSEIF(APRAXL==8 &amp;&amp; APRAXR==8) {LIMBAPRAX=8} ELSEIF(APRAXL==1 &amp;&amp; APRAXR==1) {LIMBAPRAX=2} ELSE {LIMBAPRAX=0}</t>
   </si>
   <si>
@@ -4089,6 +4080,15 @@
   </si>
   <si>
     <t>ADRC must decide appropriate merging and accounting of GAITNPH; GAITABN maps to 0 ONLY if ALL PARKGAIT is blank/NA and GAITPSP is blank/NA and GAITNPH is blank/NA/0</t>
+  </si>
+  <si>
+    <t>IF(DYSTONL==1 || DYSTONR==1) {DYSTARM=1} ELSEIF(DYSTONL==8 &amp;&amp; DYSTONR==8) {DYSTARM=8} ELSEIF(DYSTONL==1 &amp;&amp; DYSTONR==1) {DYSTARM=2} ELSE {DYSTARM=0}</t>
+  </si>
+  <si>
+    <t>IF(DYSTONL==1 || DYSTONR==1) {DYSTLEG=1} ELSEIF(DYSTONL==8 &amp;&amp; DYSTONR==8) {DYSTLEG=8} ELSEIF(DYSTONL==1 &amp;&amp; DYSTONR==1) {DYSTLEG=2} ELSE {DYSTLEG=0}</t>
+  </si>
+  <si>
+    <t>IF(DYSTONL==1 || DYSTONR==1) {DYSTLEG=1} ELSEIF(DYSTONL==8 &amp;&amp; DYSTONR==8) {DYSTLEG=8} ELSEIF(DYSTONL==1 &amp;&amp; DYSTONR==1) {DYSTLEG=3} ELSE {DYSTLEG=0}</t>
   </si>
 </sst>
 </file>
@@ -4677,13 +4677,13 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -5094,21 +5094,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="E1" s="75" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="E1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="I1" s="75" t="s">
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="I1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
     </row>
     <row r="2" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -5140,7 +5140,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="74" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="32" t="s">
@@ -5150,7 +5150,7 @@
         <v>847</v>
       </c>
       <c r="D3" s="34"/>
-      <c r="E3" s="76" t="s">
+      <c r="E3" s="74" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="32" t="s">
@@ -5160,7 +5160,7 @@
         <v>848</v>
       </c>
       <c r="H3" s="34"/>
-      <c r="I3" s="76" t="s">
+      <c r="I3" s="74" t="s">
         <v>5</v>
       </c>
       <c r="J3" s="32" t="s">
@@ -5171,7 +5171,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="117.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="76"/>
+      <c r="A4" s="74"/>
       <c r="B4" s="35" t="s">
         <v>8</v>
       </c>
@@ -5179,7 +5179,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="34"/>
-      <c r="E4" s="76"/>
+      <c r="E4" s="74"/>
       <c r="F4" s="35" t="s">
         <v>8</v>
       </c>
@@ -5187,7 +5187,7 @@
         <v>9</v>
       </c>
       <c r="H4" s="34"/>
-      <c r="I4" s="76"/>
+      <c r="I4" s="74"/>
       <c r="J4" s="35" t="s">
         <v>10</v>
       </c>
@@ -5196,7 +5196,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="74" t="s">
         <v>850</v>
       </c>
       <c r="B5" s="32" t="s">
@@ -5206,7 +5206,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="34"/>
-      <c r="E5" s="76" t="s">
+      <c r="E5" s="74" t="s">
         <v>850</v>
       </c>
       <c r="F5" s="32" t="s">
@@ -5216,7 +5216,7 @@
         <v>13</v>
       </c>
       <c r="H5" s="34"/>
-      <c r="I5" s="76" t="s">
+      <c r="I5" s="74" t="s">
         <v>850</v>
       </c>
       <c r="J5" s="32" t="s">
@@ -5227,7 +5227,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="76"/>
+      <c r="A6" s="74"/>
       <c r="B6" s="37" t="s">
         <v>16</v>
       </c>
@@ -5235,7 +5235,7 @@
         <v>851</v>
       </c>
       <c r="D6" s="34"/>
-      <c r="E6" s="76"/>
+      <c r="E6" s="74"/>
       <c r="F6" s="37" t="s">
         <v>16</v>
       </c>
@@ -5243,7 +5243,7 @@
         <v>851</v>
       </c>
       <c r="H6" s="34"/>
-      <c r="I6" s="76"/>
+      <c r="I6" s="74"/>
       <c r="J6" s="37" t="s">
         <v>17</v>
       </c>
@@ -5252,7 +5252,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="76"/>
+      <c r="A7" s="74"/>
       <c r="B7" s="39" t="s">
         <v>18</v>
       </c>
@@ -5260,7 +5260,7 @@
         <v>853</v>
       </c>
       <c r="D7" s="34"/>
-      <c r="E7" s="76"/>
+      <c r="E7" s="74"/>
       <c r="F7" s="39" t="s">
         <v>18</v>
       </c>
@@ -5268,7 +5268,7 @@
         <v>854</v>
       </c>
       <c r="H7" s="34"/>
-      <c r="I7" s="76"/>
+      <c r="I7" s="74"/>
       <c r="J7" s="39" t="s">
         <v>18</v>
       </c>
@@ -5277,7 +5277,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="76"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="37" t="s">
         <v>19</v>
       </c>
@@ -5285,7 +5285,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="34"/>
-      <c r="E8" s="76"/>
+      <c r="E8" s="74"/>
       <c r="F8" s="37" t="s">
         <v>19</v>
       </c>
@@ -5293,7 +5293,7 @@
         <v>21</v>
       </c>
       <c r="H8" s="34"/>
-      <c r="I8" s="76"/>
+      <c r="I8" s="74"/>
       <c r="J8" s="37" t="s">
         <v>19</v>
       </c>
@@ -5302,7 +5302,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="76"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="39" t="s">
         <v>23</v>
       </c>
@@ -5310,7 +5310,7 @@
         <v>855</v>
       </c>
       <c r="D9" s="34"/>
-      <c r="E9" s="76"/>
+      <c r="E9" s="74"/>
       <c r="F9" s="39" t="s">
         <v>23</v>
       </c>
@@ -5318,7 +5318,7 @@
         <v>856</v>
       </c>
       <c r="H9" s="34"/>
-      <c r="I9" s="76"/>
+      <c r="I9" s="74"/>
       <c r="J9" s="39" t="s">
         <v>23</v>
       </c>
@@ -5327,7 +5327,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="76"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="37" t="s">
         <v>24</v>
       </c>
@@ -5335,7 +5335,7 @@
         <v>25</v>
       </c>
       <c r="D10" s="34"/>
-      <c r="E10" s="76"/>
+      <c r="E10" s="74"/>
       <c r="F10" s="37" t="s">
         <v>24</v>
       </c>
@@ -5343,7 +5343,7 @@
         <v>857</v>
       </c>
       <c r="H10" s="34"/>
-      <c r="I10" s="76"/>
+      <c r="I10" s="74"/>
       <c r="J10" s="37" t="s">
         <v>24</v>
       </c>
@@ -5352,7 +5352,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="76"/>
+      <c r="A11" s="74"/>
       <c r="B11" s="39" t="s">
         <v>26</v>
       </c>
@@ -5360,7 +5360,7 @@
         <v>27</v>
       </c>
       <c r="D11" s="34"/>
-      <c r="E11" s="76"/>
+      <c r="E11" s="74"/>
       <c r="F11" s="39" t="s">
         <v>26</v>
       </c>
@@ -5368,7 +5368,7 @@
         <v>27</v>
       </c>
       <c r="H11" s="34"/>
-      <c r="I11" s="76"/>
+      <c r="I11" s="74"/>
       <c r="J11" s="39" t="s">
         <v>26</v>
       </c>
@@ -5377,7 +5377,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="76"/>
+      <c r="A12" s="74"/>
       <c r="B12" s="37" t="s">
         <v>858</v>
       </c>
@@ -5385,7 +5385,7 @@
         <v>859</v>
       </c>
       <c r="D12" s="34"/>
-      <c r="E12" s="76"/>
+      <c r="E12" s="74"/>
       <c r="F12" s="37" t="s">
         <v>858</v>
       </c>
@@ -5393,7 +5393,7 @@
         <v>859</v>
       </c>
       <c r="H12" s="34"/>
-      <c r="I12" s="76"/>
+      <c r="I12" s="74"/>
       <c r="J12" s="37" t="s">
         <v>858</v>
       </c>
@@ -5402,7 +5402,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="76"/>
+      <c r="A13" s="74"/>
       <c r="B13" s="39" t="s">
         <v>860</v>
       </c>
@@ -5410,7 +5410,7 @@
         <v>861</v>
       </c>
       <c r="D13" s="34"/>
-      <c r="E13" s="76"/>
+      <c r="E13" s="74"/>
       <c r="F13" s="39" t="s">
         <v>860</v>
       </c>
@@ -5418,7 +5418,7 @@
         <v>861</v>
       </c>
       <c r="H13" s="34"/>
-      <c r="I13" s="76"/>
+      <c r="I13" s="74"/>
       <c r="J13" s="39" t="s">
         <v>860</v>
       </c>
@@ -5427,7 +5427,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="132.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="76"/>
+      <c r="A14" s="74"/>
       <c r="B14" s="35" t="s">
         <v>28</v>
       </c>
@@ -5435,7 +5435,7 @@
         <v>862</v>
       </c>
       <c r="D14" s="34"/>
-      <c r="E14" s="76"/>
+      <c r="E14" s="74"/>
       <c r="F14" s="35" t="s">
         <v>28</v>
       </c>
@@ -5443,7 +5443,7 @@
         <v>862</v>
       </c>
       <c r="H14" s="34"/>
-      <c r="I14" s="76"/>
+      <c r="I14" s="74"/>
       <c r="J14" s="35" t="s">
         <v>28</v>
       </c>
@@ -5452,7 +5452,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="76" t="s">
+      <c r="A15" s="74" t="s">
         <v>864</v>
       </c>
       <c r="B15" s="32" t="s">
@@ -5462,7 +5462,7 @@
         <v>113</v>
       </c>
       <c r="D15" s="34"/>
-      <c r="E15" s="76" t="s">
+      <c r="E15" s="74" t="s">
         <v>864</v>
       </c>
       <c r="F15" s="32" t="s">
@@ -5472,7 +5472,7 @@
         <v>29</v>
       </c>
       <c r="H15" s="34"/>
-      <c r="I15" s="76" t="s">
+      <c r="I15" s="74" t="s">
         <v>864</v>
       </c>
       <c r="J15" s="32" t="s">
@@ -5483,7 +5483,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="76"/>
+      <c r="A16" s="74"/>
       <c r="B16" s="37" t="s">
         <v>116</v>
       </c>
@@ -5491,7 +5491,7 @@
         <v>865</v>
       </c>
       <c r="D16" s="34"/>
-      <c r="E16" s="76"/>
+      <c r="E16" s="74"/>
       <c r="F16" s="37" t="s">
         <v>117</v>
       </c>
@@ -5499,7 +5499,7 @@
         <v>866</v>
       </c>
       <c r="H16" s="34"/>
-      <c r="I16" s="76"/>
+      <c r="I16" s="74"/>
       <c r="J16" s="37" t="s">
         <v>118</v>
       </c>
@@ -5508,7 +5508,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="76"/>
+      <c r="A17" s="74"/>
       <c r="B17" s="39" t="s">
         <v>30</v>
       </c>
@@ -5516,7 +5516,7 @@
         <v>31</v>
       </c>
       <c r="D17" s="34"/>
-      <c r="E17" s="76"/>
+      <c r="E17" s="74"/>
       <c r="F17" s="39" t="s">
         <v>30</v>
       </c>
@@ -5524,7 +5524,7 @@
         <v>32</v>
       </c>
       <c r="H17" s="34"/>
-      <c r="I17" s="76"/>
+      <c r="I17" s="74"/>
       <c r="J17" s="39" t="s">
         <v>30</v>
       </c>
@@ -5533,7 +5533,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="76"/>
+      <c r="A18" s="74"/>
       <c r="B18" s="43" t="s">
         <v>867</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>868</v>
       </c>
       <c r="D18" s="34"/>
-      <c r="E18" s="76"/>
+      <c r="E18" s="74"/>
       <c r="F18" s="43" t="s">
         <v>34</v>
       </c>
@@ -5549,7 +5549,7 @@
         <v>869</v>
       </c>
       <c r="H18" s="34"/>
-      <c r="I18" s="76"/>
+      <c r="I18" s="74"/>
       <c r="J18" s="43" t="s">
         <v>34</v>
       </c>
@@ -5558,7 +5558,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="76"/>
+      <c r="A19" s="74"/>
       <c r="B19" s="39" t="s">
         <v>870</v>
       </c>
@@ -5566,7 +5566,7 @@
         <v>871</v>
       </c>
       <c r="D19" s="34"/>
-      <c r="E19" s="76"/>
+      <c r="E19" s="74"/>
       <c r="F19" s="39" t="s">
         <v>870</v>
       </c>
@@ -5574,7 +5574,7 @@
         <v>871</v>
       </c>
       <c r="H19" s="34"/>
-      <c r="I19" s="76"/>
+      <c r="I19" s="74"/>
       <c r="J19" s="39" t="s">
         <v>870</v>
       </c>
@@ -5583,7 +5583,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="76"/>
+      <c r="A20" s="74"/>
       <c r="B20" s="35" t="s">
         <v>873</v>
       </c>
@@ -5591,7 +5591,7 @@
         <v>874</v>
       </c>
       <c r="D20" s="34"/>
-      <c r="E20" s="76"/>
+      <c r="E20" s="74"/>
       <c r="F20" s="35" t="s">
         <v>873</v>
       </c>
@@ -5599,7 +5599,7 @@
         <v>875</v>
       </c>
       <c r="H20" s="34"/>
-      <c r="I20" s="76"/>
+      <c r="I20" s="74"/>
       <c r="J20" s="35" t="s">
         <v>873</v>
       </c>
@@ -5702,18 +5702,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="I3:I4"/>
     <mergeCell ref="A5:A14"/>
     <mergeCell ref="E5:E14"/>
     <mergeCell ref="I5:I14"/>
     <mergeCell ref="A15:A20"/>
     <mergeCell ref="E15:E20"/>
     <mergeCell ref="I15:I20"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -15059,7 +15059,7 @@
         <v>56</v>
       </c>
       <c r="L38" s="73" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="M38" s="15" t="s">
         <v>132</v>
@@ -15207,7 +15207,7 @@
         <v>56</v>
       </c>
       <c r="L40" s="73" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="M40" s="15" t="s">
         <v>132</v>
@@ -16059,11 +16059,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
     </row>
     <row r="2" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -17890,10 +17890,10 @@
   <dimension ref="A1:H339"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="H316" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="E199" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H334" sqref="H334"/>
+      <selection pane="bottomRight" activeCell="E217" sqref="E217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24805,7 +24805,7 @@
         <v>34</v>
       </c>
       <c r="D324" s="57" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="E324" s="57" t="s">
         <v>151</v>
@@ -24822,13 +24822,13 @@
         <v>493</v>
       </c>
       <c r="D325" s="47" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="E325" s="57">
         <v>0</v>
       </c>
       <c r="H325" s="2" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.3">
@@ -24848,7 +24848,7 @@
         <v>127</v>
       </c>
       <c r="H326" s="2" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.3">
@@ -24868,7 +24868,7 @@
         <v>634</v>
       </c>
       <c r="H327" s="2" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.3">
@@ -24888,7 +24888,7 @@
         <v>636</v>
       </c>
       <c r="H328" s="2" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.3">
@@ -24970,7 +24970,7 @@
         <v>34</v>
       </c>
       <c r="D333" s="57" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="E333" s="47" t="s">
         <v>400</v>
@@ -25093,10 +25093,10 @@
   <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A70" sqref="A70"/>
+      <selection pane="bottomRight" activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25736,7 +25736,7 @@
         <v>592</v>
       </c>
       <c r="D28" s="62" t="s">
-        <v>941</v>
+        <v>966</v>
       </c>
       <c r="E28" s="61" t="s">
         <v>938</v>
@@ -25759,7 +25759,7 @@
         <v>592</v>
       </c>
       <c r="D29" s="62" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E29" s="61" t="s">
         <v>938</v>
@@ -25897,7 +25897,7 @@
         <v>592</v>
       </c>
       <c r="D35" s="62" t="s">
-        <v>944</v>
+        <v>967</v>
       </c>
       <c r="E35" s="61" t="s">
         <v>938</v>
@@ -25920,7 +25920,7 @@
         <v>592</v>
       </c>
       <c r="D36" s="62" t="s">
-        <v>943</v>
+        <v>968</v>
       </c>
       <c r="E36" s="61" t="s">
         <v>938</v>
@@ -26058,7 +26058,7 @@
         <v>592</v>
       </c>
       <c r="D42" s="62" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="E42" s="61" t="s">
         <v>938</v>
@@ -26081,7 +26081,7 @@
         <v>592</v>
       </c>
       <c r="D43" s="62" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="E43" s="61" t="s">
         <v>938</v>
@@ -26219,7 +26219,7 @@
         <v>592</v>
       </c>
       <c r="D49" s="62" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="E49" s="61" t="s">
         <v>938</v>
@@ -26242,7 +26242,7 @@
         <v>592</v>
       </c>
       <c r="D50" s="62" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="E50" s="61" t="s">
         <v>938</v>
@@ -26380,7 +26380,7 @@
         <v>592</v>
       </c>
       <c r="D56" s="62" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="E56" s="61" t="s">
         <v>938</v>
@@ -26403,7 +26403,7 @@
         <v>592</v>
       </c>
       <c r="D57" s="62" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="E57" s="61" t="s">
         <v>938</v>
@@ -26541,7 +26541,7 @@
         <v>592</v>
       </c>
       <c r="D63" s="62" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="E63" s="61" t="s">
         <v>938</v>
@@ -26564,7 +26564,7 @@
         <v>592</v>
       </c>
       <c r="D64" s="62" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="E64" s="61" t="s">
         <v>938</v>
@@ -26610,7 +26610,7 @@
         <v>493</v>
       </c>
       <c r="D66" s="47" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="E66" s="47" t="s">
         <v>139</v>
@@ -26619,7 +26619,7 @@
         <v>915</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
@@ -26633,16 +26633,16 @@
         <v>493</v>
       </c>
       <c r="D67" s="47" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="E67" s="47" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="F67" s="48" t="s">
         <v>916</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
@@ -26656,7 +26656,7 @@
         <v>493</v>
       </c>
       <c r="D68" s="47" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="E68" s="47" t="s">
         <v>748</v>
@@ -26665,7 +26665,7 @@
         <v>915</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
@@ -26679,7 +26679,7 @@
         <v>493</v>
       </c>
       <c r="D69" s="47" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="E69" s="47" t="s">
         <v>57</v>
@@ -26688,7 +26688,7 @@
         <v>916</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -26702,16 +26702,16 @@
         <v>592</v>
       </c>
       <c r="D70" s="60" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="E70" s="60" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="F70" s="48" t="s">
         <v>915</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -26725,16 +26725,16 @@
         <v>592</v>
       </c>
       <c r="D71" s="60" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="E71" s="60" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="F71" s="48" t="s">
         <v>916</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
@@ -26748,16 +26748,16 @@
         <v>622</v>
       </c>
       <c r="D72" s="72" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="E72" s="72" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="F72" s="48" t="s">
         <v>622</v>
       </c>
       <c r="H72" s="72" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
     </row>
   </sheetData>
@@ -26771,6 +26771,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="38934ba0-d0c8-4ff1-b39d-50890708cb62">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="ab06a5aa-8e31-4bdb-9b13-38c58a92ec8a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010058BEFEFAD17A4B43A8378381BF28CF4F" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="61556453c3d4cfbe4714da52328c09a3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="38934ba0-d0c8-4ff1-b39d-50890708cb62" xmlns:ns3="ab06a5aa-8e31-4bdb-9b13-38c58a92ec8a" xmlns:ns4="ab274330-b409-4ff8-b8ad-c1dc18cc66a1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b8714ab872510242edcc52d3716bf4cc" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="38934ba0-d0c8-4ff1-b39d-50890708cb62"/>
@@ -27024,27 +27044,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{032D7E56-4464-4468-967D-9B90BB52AA5D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="38934ba0-d0c8-4ff1-b39d-50890708cb62"/>
+    <ds:schemaRef ds:uri="ab06a5aa-8e31-4bdb-9b13-38c58a92ec8a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="38934ba0-d0c8-4ff1-b39d-50890708cb62">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="ab06a5aa-8e31-4bdb-9b13-38c58a92ec8a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D64FD81-61B5-4C50-AB1A-3572D60D9783}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5C433E9-FF21-46B6-A2BC-1CCCB55EBAFA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -27062,23 +27081,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D64FD81-61B5-4C50-AB1A-3572D60D9783}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{032D7E56-4464-4468-967D-9B90BB52AA5D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="38934ba0-d0c8-4ff1-b39d-50890708cb62"/>
-    <ds:schemaRef ds:uri="ab06a5aa-8e31-4bdb-9b13-38c58a92ec8a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Crosswalk/B8_UDS4_programmatic_crosswalk.xlsx
+++ b/Crosswalk/B8_UDS4_programmatic_crosswalk.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaiga\Downloads\Json_f\Json_SOPS\Crosswalk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaiga\Music\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065F6F51-F9AB-4DF0-B8BC-86CB8A8183E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20143741-60D7-4B01-A50C-387A47C60472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UDS3_4 Tables Data Dictionary" sheetId="18" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5752" uniqueCount="969">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5752" uniqueCount="993">
   <si>
     <t>TEMPLATE - UDS3 REDCap
 Based on Kansas ADRC implementation at https://naccdata.org/adrc-resources/redcap</t>
@@ -2317,9 +2317,6 @@
     <t>VFIELDCUT maps to 1 ONLY if CORTVISL==1 XOR CORTVISR==1</t>
   </si>
   <si>
-    <t>ADRC must decide if bilateral mapping is to 2 or 3; HSPATNEG only maps to 2 or 3 when both CORTVISL==1 AND CORTVISR==1</t>
-  </si>
-  <si>
     <t>VFIELDCUT only maps to 8 when both CORTVISL==8 AND CORTVISR==8</t>
   </si>
   <si>
@@ -2329,9 +2326,6 @@
     <t>VFIELDCUT maps to 'Focal or Unilateral' ONLY if CORTVISL=='1 Yes' XOR CORTVISR=='1 Yes'</t>
   </si>
   <si>
-    <t>ADRC must decide if bilateral mapping is to 'Bilateral &amp; Largely Symmetric' or 'Bilateral &amp; Largely Asymmetric'; HSPATNEG only maps to 'Bilateral &amp; Largely Symmetric' or 'Bilateral &amp; Largely Asymmetric' when both CORTVISL=='1 Yes' AND CORTVISR=='1 Yes'</t>
-  </si>
-  <si>
     <t>VFIELDCUT only maps to 'Not Assessed' when both CORTVISL=='8 Not assessed' AND CORTVISR=='8 Not assessed'</t>
   </si>
   <si>
@@ -2347,9 +2341,6 @@
     <t>LIMBATAX maps to 1 ONLY if ATAXL==1 XOR ATAXR==1</t>
   </si>
   <si>
-    <t>ADRC must decide if bilateral mapping is to 2 or 3; LIMBATAX only maps to 2 or 3 when both ATAXL==1 AND ATAXR==1</t>
-  </si>
-  <si>
     <t>LIMBATAX only maps to 8 when both ATAXL==8 AND ATAXR==8</t>
   </si>
   <si>
@@ -2359,9 +2350,6 @@
     <t>LIMBATAX maps to 'Focal or Unilateral' ONLY if ATAXL=='1 Yes' XOR ATAXR=='1 Yes'</t>
   </si>
   <si>
-    <t>ADRC must decide if bilateral mapping is to 'Bilateral &amp; Largely Symmetric' or 'Bilateral &amp; Largely Asymmetric'; LIMBATAX only maps to 'Bilateral &amp; Largely Symmetric' or 'Bilateral &amp; Largely Asymmetric' when both ATAXL=='1 Yes' AND ATAXR=='1 Yes'</t>
-  </si>
-  <si>
     <t>LIMBATAX only maps to 'Not Assessed' when both ATAXL=='8 Not assessed' AND ATAXR=='8 Not assessed'</t>
   </si>
   <si>
@@ -2377,9 +2365,6 @@
     <t>MYOCLON maps to 1 ONLY if MYOCLLT==1 XOR MYOCLRT==1</t>
   </si>
   <si>
-    <t>ADRC must decide if bilateral mapping is to 2 or 3; MYOCLON only maps to 2 or 3 when both MYOCLLT==1 AND MYOCLRT==1</t>
-  </si>
-  <si>
     <t>MYOCLON only maps to 8 when both MYOCLLT==8 AND MYOCLRT==8</t>
   </si>
   <si>
@@ -2387,9 +2372,6 @@
   </si>
   <si>
     <t>MYOCLON maps to 'Focal or Unilateral' ONLY if MYOCLLT=='1 Yes' XOR MYOCLRT=='1 Yes'</t>
-  </si>
-  <si>
-    <t>ADRC must decide if bilateral mapping is to 'Bilateral &amp; Largely Symmetric' or 'Bilateral &amp; Largely Asymmetric'; MYOCLON only maps to 'Bilateral &amp; Largely Symmetric' or 'Bilateral &amp; Largely Asymmetric' when both MYOCLLT=='1 Yes' AND MYOCLRT=='1 Yes'</t>
   </si>
   <si>
     <t>MYOCLON only maps to 'Not Assessed' when both MYOCLLT=='8 Not assessed' AND MYOCLRT=='8 Not assessed'</t>
@@ -4007,9 +3989,6 @@
     <t>IF(RIGIDL==1 || RIGIDR==1) {RIGIDARM=1} ELSEIF(RIGIDL==8 &amp;&amp; RIGIDR==8) {RIGIDARM=8} ELSEIF(RIGIDL==1 &amp;&amp; RIGIDR==1) {RIGIDARM=3} ELSE {RIGIDARM=0}</t>
   </si>
   <si>
-    <t>IF(DYSTONL==1 || DYSTONR==1) {DYSTONARM=1} ELSEIF(DYSTONL==8 &amp;&amp; DYSTONR==8) {DYSTONARM=8} ELSEIF(DYSTONL==1 &amp;&amp; DYSTONR==1) {DYSTONARM=3} ELSE {DYSTONARM=0}</t>
-  </si>
-  <si>
     <t>IF(APRAXL==1 || APRAXR==1) {LIMBAPRAX=1} ELSEIF(APRAXL==8 &amp;&amp; APRAXR==8) {LIMBAPRAX=8} ELSEIF(APRAXL==1 &amp;&amp; APRAXR==1) {LIMBAPRAX=2} ELSE {LIMBAPRAX=0}</t>
   </si>
   <si>
@@ -4043,36 +4022,24 @@
     <t>8 &amp; 8 &amp; 0</t>
   </si>
   <si>
-    <t>ADRC must decide if GAITNPH being 0 maps GAITABN to 8 if both PARKGAIT and PSPGAIT are 8</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
     <t>GAITNPH does not have "Not assessed" option; ADRC must decide if GAITNPH being "0 No" maps GAITABN to "8 Not assessed" if both PARKGAIT and PSPGAIT are "8 Not assessed"</t>
   </si>
   <si>
-    <t>ADRC must decide if GAITNPH being 0 maps GAITABN to 0 even if both PARKGAIT and PSPGAIT are 8</t>
-  </si>
-  <si>
     <t>8 Not assessed &amp; 8 Not assessed &amp; 0 No</t>
   </si>
   <si>
     <t>IF(PARKGAIT==1 || GAITPSP==1 || GAITNPH==1) {GAITABN=1} ELSEIF(PARKGAIT==8 &amp;&amp; GAITPSP==8 &amp;&amp; GAITNPH==0) {GAITABN=8} ELSE {GAITABN=0}</t>
   </si>
   <si>
-    <t>ADRC must decide if GAITNPH being "0 No" maps GAITABN to "0 No" even if both PARKGAIT and PSPGAIT are "8 Not assessed"</t>
-  </si>
-  <si>
     <t>1, 8 &amp; 1,8 &amp; 0-1</t>
   </si>
   <si>
     <t>NA &amp; NA &amp; 0</t>
   </si>
   <si>
-    <t>GAITNPH does not have "Not assessed" option; ADRC must decide if GAITNPH being "0 No" maps GAITABN to "Not assessed" or to "No" when both PARKGAIT and PSPGAIT are "8 Not assessed"</t>
-  </si>
-  <si>
     <t>Merging</t>
   </si>
   <si>
@@ -4089,13 +4056,118 @@
   </si>
   <si>
     <t>IF(DYSTONL==1 || DYSTONR==1) {DYSTLEG=1} ELSEIF(DYSTONL==8 &amp;&amp; DYSTONR==8) {DYSTLEG=8} ELSEIF(DYSTONL==1 &amp;&amp; DYSTONR==1) {DYSTLEG=3} ELSE {DYSTLEG=0}</t>
+  </si>
+  <si>
+    <t>ADRC must decide if bilateral mapping is to 2 or 3; LIMBAPRAX only maps to 2 or 3 when both APRAXL==1 AND APRAXR==2</t>
+  </si>
+  <si>
+    <t>ADRC must decide if bilateral mapping is to 2 or 3; LIMBAPRAX only maps to 2 or 3 when both APRAXL==1 AND APRAXR==3</t>
+  </si>
+  <si>
+    <t>ADRC must decide if bilateral mapping is to 2 or 3; LIMBAPRAX only maps to 2 or 3 when both APRAXL==1 AND APRAXR==4</t>
+  </si>
+  <si>
+    <t>ADRC must decide if bilateral mapping is to 2 or 3; LIMBAPRAX only maps to 2 or 3 when both APRAXL==1 AND APRAXR==5</t>
+  </si>
+  <si>
+    <t>ADRC must decide if bilateral mapping is to 2 or 3; LIMBAPRAX only maps to 2 or 3 when both APRAXL==1 AND APRAXR==6</t>
+  </si>
+  <si>
+    <t>ADRC must decide if bilateral mapping is to 2 or 3; LIMBAPRAX only maps to 2 or 3 when both APRAXL==1 AND APRAXR==7</t>
+  </si>
+  <si>
+    <t>ADRC must decide if bilateral mapping is to 2 or 3; LIMBAPRAX only maps to 2 or 3 when both APRAXL==1 AND APRAXR==8</t>
+  </si>
+  <si>
+    <t>ADRC must decide if bilateral mapping is to 2 or 3; LIMBAPRAX only maps to 2 or 3 when both APRAXL==1 AND APRAXR==9</t>
+  </si>
+  <si>
+    <t>ADRC must decide if bilateral mapping is to 2 or 3; LIMBAPRAX only maps to 2 or 3 when both APRAXL==1 AND APRAXR==10</t>
+  </si>
+  <si>
+    <t>ADRC must decide if bilateral mapping is to 2 or 3; LIMBAPRAX only maps to 2 or 3 when both APRAXL==1 AND APRAXR==11</t>
+  </si>
+  <si>
+    <t>ADRC must decide if bilateral mapping is to 2 or 3; LIMBAPRAX only maps to 2 or 3 when both APRAXL==1 AND APRAXR==12</t>
+  </si>
+  <si>
+    <t>ADRC must decide if bilateral mapping is to 2 or 3; LIMBAPRAX only maps to 2 or 3 when both APRAXL==1 AND APRAXR==13</t>
+  </si>
+  <si>
+    <t>ADRC must decide if bilateral mapping is to 2 or 3; LIMBAPRAX only maps to 2 or 3 when both APRAXL==1 AND APRAXR==14</t>
+  </si>
+  <si>
+    <t>ADRC must decide if bilateral mapping is to 2 or 3; LIMBAPRAX only maps to 2 or 3 when both APRAXL==1 AND APRAXR==15</t>
+  </si>
+  <si>
+    <t>ADRC must decide if bilateral mapping is to 2 or 3; LIMBAPRAX only maps to 2 or 3 when both APRAXL==1 AND APRAXR==16</t>
+  </si>
+  <si>
+    <t>ADRC must decide if bilateral mapping is to 2 or 3; LIMBAPRAX only maps to 2 or 3 when both APRAXL==1 AND APRAXR==17</t>
+  </si>
+  <si>
+    <t>ADRC must decide if bilateral mapping is to 2 or 3; LIMBAPRAX only maps to 2 or 3 when both APRAXL==1 AND APRAXR==18</t>
+  </si>
+  <si>
+    <t>ADRC must decide if bilateral mapping is to 2 or 3; LIMBAPRAX only maps to 2 or 3 when both APRAXL==1 AND APRAXR==19</t>
+  </si>
+  <si>
+    <t>ADRC must decide if bilateral mapping is to 2 or 3; LIMBAPRAX only maps to 2 or 3 when both APRAXL==1 AND APRAXR==20</t>
+  </si>
+  <si>
+    <t>ADRC must decide if bilateral mapping is to 2 or 3; LIMBAPRAX only maps to 2 or 3 when both APRAXL==1 AND APRAXR==21</t>
+  </si>
+  <si>
+    <t>ADRC must decide if bilateral mapping is to 2 or 3; LIMBAPRAX only maps to 2 or 3 when both APRAXL==1 AND APRAXR==22</t>
+  </si>
+  <si>
+    <t>ADRC must decide if bilateral mapping is to 2 or 3; LIMBAPRAX only maps to 2 or 3 when both APRAXL==1 AND APRAXR==23</t>
+  </si>
+  <si>
+    <t>ADRC must decide if bilateral mapping is to 2 or 3; LIMBAPRAX only maps to 2 or 3 when both APRAXL==1 AND APRAXR==24</t>
+  </si>
+  <si>
+    <t>ADRC must decide if bilateral mapping is to 2 or 3; LIMBAPRAX only maps to 2 or 3 when both APRAXL==1 AND APRAXR==25</t>
+  </si>
+  <si>
+    <t>ADRC must decide if bilateral mapping is to 2 or 3; LIMBAPRAX only maps to 2 or 3 when both APRAXL==1 AND APRAXR==26</t>
+  </si>
+  <si>
+    <t>ADRC must decide if bilateral mapping is to 2 or 3; LIMBAPRAX only maps to 2 or 3 when both APRAXL==1 AND APRAXR==27</t>
+  </si>
+  <si>
+    <t>ADRC must decide if bilateral mapping is to 2 or 3; LIMBAPRAX only maps to 2 or 3 when both APRAXL==1 AND APRAXR==28</t>
+  </si>
+  <si>
+    <t>ADRC must decide if bilateral mapping is to 2 or 3; LIMBAPRAX only maps to 2 or 3 when both APRAXL==1 AND APRAXR==29</t>
+  </si>
+  <si>
+    <t>ADRC must decide if bilateral mapping is to 2 or 3; LIMBAPRAX only maps to 2 or 3 when both APRAXL==1 AND APRAXR==30</t>
+  </si>
+  <si>
+    <t>ADRC must decide if bilateral mapping is to 2 or 3; LIMBAPRAX only maps to 2 or 3 when both APRAXL==1 AND APRAXR==31</t>
+  </si>
+  <si>
+    <t>ADRC must decide if bilateral mapping is to 2 or 3; LIMBAPRAX only maps to 2 or 3 when both APRAXL==1 AND APRAXR==32</t>
+  </si>
+  <si>
+    <t>ADRC must decide if bilateral mapping is to 2 or 3; LIMBAPRAX only maps to 2 or 3 when both APRAXL==1 AND APRAXR==33</t>
+  </si>
+  <si>
+    <t>ADRC must decide if bilateral mapping is to 2 or 3; LIMBAPRAX only maps to 2 or 3 when both APRAXL==1 AND APRAXR==34</t>
+  </si>
+  <si>
+    <t>ADRC must decide if bilateral mapping is to 2 or 3; LIMBAPRAX only maps to 2 or 3 when both APRAXL==1 AND APRAXR==35</t>
+  </si>
+  <si>
+    <t>IF(DYSTONL==1 || DYSTONR==1) {DYSTARM=1} ELSEIF(DYSTONL==8 &amp;&amp; DYSTONR==8) {DYSTARM=8} ELSEIF(DYSTONL==1 &amp;&amp; DYSTONR==1) {DYSTARM=3} ELSE {DYSTARM=0}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -4238,6 +4310,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -4677,13 +4755,13 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -5094,21 +5172,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="E1" s="76" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="E1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="I1" s="76" t="s">
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="I1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
     </row>
     <row r="2" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -5140,38 +5218,38 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="76" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="D3" s="34"/>
-      <c r="E3" s="74" t="s">
+      <c r="E3" s="76" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="32" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="H3" s="34"/>
-      <c r="I3" s="74" t="s">
+      <c r="I3" s="76" t="s">
         <v>5</v>
       </c>
       <c r="J3" s="32" t="s">
         <v>7</v>
       </c>
       <c r="K3" s="33" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="117.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="74"/>
+      <c r="A4" s="76"/>
       <c r="B4" s="35" t="s">
         <v>8</v>
       </c>
@@ -5179,7 +5257,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="34"/>
-      <c r="E4" s="74"/>
+      <c r="E4" s="76"/>
       <c r="F4" s="35" t="s">
         <v>8</v>
       </c>
@@ -5187,7 +5265,7 @@
         <v>9</v>
       </c>
       <c r="H4" s="34"/>
-      <c r="I4" s="74"/>
+      <c r="I4" s="76"/>
       <c r="J4" s="35" t="s">
         <v>10</v>
       </c>
@@ -5196,8 +5274,8 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="74" t="s">
-        <v>850</v>
+      <c r="A5" s="76" t="s">
+        <v>844</v>
       </c>
       <c r="B5" s="32" t="s">
         <v>12</v>
@@ -5206,8 +5284,8 @@
         <v>13</v>
       </c>
       <c r="D5" s="34"/>
-      <c r="E5" s="74" t="s">
-        <v>850</v>
+      <c r="E5" s="76" t="s">
+        <v>844</v>
       </c>
       <c r="F5" s="32" t="s">
         <v>12</v>
@@ -5216,8 +5294,8 @@
         <v>13</v>
       </c>
       <c r="H5" s="34"/>
-      <c r="I5" s="74" t="s">
-        <v>850</v>
+      <c r="I5" s="76" t="s">
+        <v>844</v>
       </c>
       <c r="J5" s="32" t="s">
         <v>14</v>
@@ -5227,57 +5305,57 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="74"/>
+      <c r="A6" s="76"/>
       <c r="B6" s="37" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="D6" s="34"/>
-      <c r="E6" s="74"/>
+      <c r="E6" s="76"/>
       <c r="F6" s="37" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="38" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="H6" s="34"/>
-      <c r="I6" s="74"/>
+      <c r="I6" s="76"/>
       <c r="J6" s="37" t="s">
         <v>17</v>
       </c>
       <c r="K6" s="38" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="74"/>
+      <c r="A7" s="76"/>
       <c r="B7" s="39" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="D7" s="34"/>
-      <c r="E7" s="74"/>
+      <c r="E7" s="76"/>
       <c r="F7" s="39" t="s">
         <v>18</v>
       </c>
       <c r="G7" s="40" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="H7" s="34"/>
-      <c r="I7" s="74"/>
+      <c r="I7" s="76"/>
       <c r="J7" s="39" t="s">
         <v>18</v>
       </c>
       <c r="K7" s="40" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="74"/>
+      <c r="A8" s="76"/>
       <c r="B8" s="37" t="s">
         <v>19</v>
       </c>
@@ -5285,7 +5363,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="34"/>
-      <c r="E8" s="74"/>
+      <c r="E8" s="76"/>
       <c r="F8" s="37" t="s">
         <v>19</v>
       </c>
@@ -5293,7 +5371,7 @@
         <v>21</v>
       </c>
       <c r="H8" s="34"/>
-      <c r="I8" s="74"/>
+      <c r="I8" s="76"/>
       <c r="J8" s="37" t="s">
         <v>19</v>
       </c>
@@ -5302,32 +5380,32 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="74"/>
+      <c r="A9" s="76"/>
       <c r="B9" s="39" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="D9" s="34"/>
-      <c r="E9" s="74"/>
+      <c r="E9" s="76"/>
       <c r="F9" s="39" t="s">
         <v>23</v>
       </c>
       <c r="G9" s="40" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="H9" s="34"/>
-      <c r="I9" s="74"/>
+      <c r="I9" s="76"/>
       <c r="J9" s="39" t="s">
         <v>23</v>
       </c>
       <c r="K9" s="40" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="74"/>
+      <c r="A10" s="76"/>
       <c r="B10" s="37" t="s">
         <v>24</v>
       </c>
@@ -5335,24 +5413,24 @@
         <v>25</v>
       </c>
       <c r="D10" s="34"/>
-      <c r="E10" s="74"/>
+      <c r="E10" s="76"/>
       <c r="F10" s="37" t="s">
         <v>24</v>
       </c>
       <c r="G10" s="38" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="H10" s="34"/>
-      <c r="I10" s="74"/>
+      <c r="I10" s="76"/>
       <c r="J10" s="37" t="s">
         <v>24</v>
       </c>
       <c r="K10" s="38" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="74"/>
+      <c r="A11" s="76"/>
       <c r="B11" s="39" t="s">
         <v>26</v>
       </c>
@@ -5360,7 +5438,7 @@
         <v>27</v>
       </c>
       <c r="D11" s="34"/>
-      <c r="E11" s="74"/>
+      <c r="E11" s="76"/>
       <c r="F11" s="39" t="s">
         <v>26</v>
       </c>
@@ -5368,7 +5446,7 @@
         <v>27</v>
       </c>
       <c r="H11" s="34"/>
-      <c r="I11" s="74"/>
+      <c r="I11" s="76"/>
       <c r="J11" s="39" t="s">
         <v>26</v>
       </c>
@@ -5377,83 +5455,83 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="74"/>
+      <c r="A12" s="76"/>
       <c r="B12" s="37" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="D12" s="34"/>
-      <c r="E12" s="74"/>
+      <c r="E12" s="76"/>
       <c r="F12" s="37" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="G12" s="38" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="H12" s="34"/>
-      <c r="I12" s="74"/>
+      <c r="I12" s="76"/>
       <c r="J12" s="37" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="K12" s="38" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="74"/>
+      <c r="A13" s="76"/>
       <c r="B13" s="39" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="D13" s="34"/>
-      <c r="E13" s="74"/>
+      <c r="E13" s="76"/>
       <c r="F13" s="39" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G13" s="41" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="H13" s="34"/>
-      <c r="I13" s="74"/>
+      <c r="I13" s="76"/>
       <c r="J13" s="39" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="K13" s="41" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="132.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="74"/>
+      <c r="A14" s="76"/>
       <c r="B14" s="35" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="D14" s="34"/>
-      <c r="E14" s="74"/>
+      <c r="E14" s="76"/>
       <c r="F14" s="35" t="s">
         <v>28</v>
       </c>
       <c r="G14" s="42" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="H14" s="34"/>
-      <c r="I14" s="74"/>
+      <c r="I14" s="76"/>
       <c r="J14" s="35" t="s">
         <v>28</v>
       </c>
       <c r="K14" s="42" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="74" t="s">
-        <v>864</v>
+      <c r="A15" s="76" t="s">
+        <v>858</v>
       </c>
       <c r="B15" s="32" t="s">
         <v>112</v>
@@ -5462,8 +5540,8 @@
         <v>113</v>
       </c>
       <c r="D15" s="34"/>
-      <c r="E15" s="74" t="s">
-        <v>864</v>
+      <c r="E15" s="76" t="s">
+        <v>858</v>
       </c>
       <c r="F15" s="32" t="s">
         <v>114</v>
@@ -5472,8 +5550,8 @@
         <v>29</v>
       </c>
       <c r="H15" s="34"/>
-      <c r="I15" s="74" t="s">
-        <v>864</v>
+      <c r="I15" s="76" t="s">
+        <v>858</v>
       </c>
       <c r="J15" s="32" t="s">
         <v>115</v>
@@ -5483,32 +5561,32 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="74"/>
+      <c r="A16" s="76"/>
       <c r="B16" s="37" t="s">
         <v>116</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="D16" s="34"/>
-      <c r="E16" s="74"/>
+      <c r="E16" s="76"/>
       <c r="F16" s="37" t="s">
         <v>117</v>
       </c>
       <c r="G16" s="38" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="H16" s="34"/>
-      <c r="I16" s="74"/>
+      <c r="I16" s="76"/>
       <c r="J16" s="37" t="s">
         <v>118</v>
       </c>
       <c r="K16" s="38" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="74"/>
+      <c r="A17" s="76"/>
       <c r="B17" s="39" t="s">
         <v>30</v>
       </c>
@@ -5516,7 +5594,7 @@
         <v>31</v>
       </c>
       <c r="D17" s="34"/>
-      <c r="E17" s="74"/>
+      <c r="E17" s="76"/>
       <c r="F17" s="39" t="s">
         <v>30</v>
       </c>
@@ -5524,7 +5602,7 @@
         <v>32</v>
       </c>
       <c r="H17" s="34"/>
-      <c r="I17" s="74"/>
+      <c r="I17" s="76"/>
       <c r="J17" s="39" t="s">
         <v>30</v>
       </c>
@@ -5533,23 +5611,23 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="74"/>
+      <c r="A18" s="76"/>
       <c r="B18" s="43" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="D18" s="34"/>
-      <c r="E18" s="74"/>
+      <c r="E18" s="76"/>
       <c r="F18" s="43" t="s">
         <v>34</v>
       </c>
       <c r="G18" s="38" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="H18" s="34"/>
-      <c r="I18" s="74"/>
+      <c r="I18" s="76"/>
       <c r="J18" s="43" t="s">
         <v>34</v>
       </c>
@@ -5558,53 +5636,53 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="74"/>
+      <c r="A19" s="76"/>
       <c r="B19" s="39" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="D19" s="34"/>
-      <c r="E19" s="74"/>
+      <c r="E19" s="76"/>
       <c r="F19" s="39" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="G19" s="40" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="H19" s="34"/>
-      <c r="I19" s="74"/>
+      <c r="I19" s="76"/>
       <c r="J19" s="39" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="K19" s="40" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="74"/>
+      <c r="A20" s="76"/>
       <c r="B20" s="35" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="D20" s="34"/>
-      <c r="E20" s="74"/>
+      <c r="E20" s="76"/>
       <c r="F20" s="35" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="G20" s="36" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="H20" s="34"/>
-      <c r="I20" s="74"/>
+      <c r="I20" s="76"/>
       <c r="J20" s="35" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="K20" s="36" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -5671,7 +5749,7 @@
       <c r="C25" s="34"/>
       <c r="D25" s="34"/>
       <c r="E25" s="5" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="F25" s="45"/>
       <c r="G25" s="44"/>
@@ -5697,23 +5775,23 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E27" s="5" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A5:A14"/>
+    <mergeCell ref="E5:E14"/>
+    <mergeCell ref="I5:I14"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="E15:E20"/>
+    <mergeCell ref="I15:I20"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="I3:I4"/>
-    <mergeCell ref="A5:A14"/>
-    <mergeCell ref="E5:E14"/>
-    <mergeCell ref="I5:I14"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="E15:E20"/>
-    <mergeCell ref="I15:I20"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -9772,7 +9850,7 @@
         <v>287</v>
       </c>
       <c r="O12" s="16" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="P12" s="16" t="s">
         <v>63</v>
@@ -9831,7 +9909,7 @@
         <v>127</v>
       </c>
       <c r="O13" s="15" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="P13" s="15" t="s">
         <v>63</v>
@@ -9892,7 +9970,7 @@
         <v>277</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="P14" s="15" t="s">
         <v>63</v>
@@ -9953,7 +10031,7 @@
         <v>274</v>
       </c>
       <c r="O15" s="15" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="P15" s="15" t="s">
         <v>63</v>
@@ -10014,7 +10092,7 @@
         <v>267</v>
       </c>
       <c r="O16" s="15" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="P16" s="15" t="s">
         <v>63</v>
@@ -10075,7 +10153,7 @@
         <v>260</v>
       </c>
       <c r="O17" s="15" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="P17" s="15" t="s">
         <v>63</v>
@@ -10136,7 +10214,7 @@
         <v>270</v>
       </c>
       <c r="O18" s="15" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="P18" s="15" t="s">
         <v>63</v>
@@ -10197,7 +10275,7 @@
         <v>263</v>
       </c>
       <c r="O19" s="15" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="P19" s="15" t="s">
         <v>63</v>
@@ -10258,7 +10336,7 @@
         <v>256</v>
       </c>
       <c r="O20" s="15" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="P20" s="15" t="s">
         <v>63</v>
@@ -10317,7 +10395,7 @@
         <v>253</v>
       </c>
       <c r="O21" s="15" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="P21" s="15" t="s">
         <v>63</v>
@@ -10378,7 +10456,7 @@
         <v>250</v>
       </c>
       <c r="O22" s="15" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="P22" s="15" t="s">
         <v>63</v>
@@ -10439,7 +10517,7 @@
         <v>247</v>
       </c>
       <c r="O23" s="15" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="P23" s="15" t="s">
         <v>63</v>
@@ -10498,7 +10576,7 @@
         <v>128</v>
       </c>
       <c r="O24" s="15" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="P24" s="15" t="s">
         <v>63</v>
@@ -10557,7 +10635,7 @@
         <v>242</v>
       </c>
       <c r="O25" s="15" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="P25" s="15" t="s">
         <v>63</v>
@@ -10616,7 +10694,7 @@
         <v>239</v>
       </c>
       <c r="O26" s="15" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="P26" s="15" t="s">
         <v>63</v>
@@ -10675,7 +10753,7 @@
         <v>236</v>
       </c>
       <c r="O27" s="15" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="P27" s="15" t="s">
         <v>63</v>
@@ -10736,7 +10814,7 @@
         <v>230</v>
       </c>
       <c r="O28" s="15" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="P28" s="15" t="s">
         <v>63</v>
@@ -10797,7 +10875,7 @@
         <v>223</v>
       </c>
       <c r="O29" s="15" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="P29" s="15" t="s">
         <v>63</v>
@@ -10856,7 +10934,7 @@
         <v>233</v>
       </c>
       <c r="O30" s="15" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="P30" s="15" t="s">
         <v>63</v>
@@ -10917,7 +10995,7 @@
         <v>226</v>
       </c>
       <c r="O31" s="15" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="P31" s="15" t="s">
         <v>63</v>
@@ -10978,7 +11056,7 @@
         <v>219</v>
       </c>
       <c r="O32" s="15" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="P32" s="15" t="s">
         <v>63</v>
@@ -11037,7 +11115,7 @@
         <v>216</v>
       </c>
       <c r="O33" s="15" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="P33" s="15" t="s">
         <v>63</v>
@@ -11096,7 +11174,7 @@
         <v>213</v>
       </c>
       <c r="O34" s="15" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="P34" s="15" t="s">
         <v>63</v>
@@ -11155,7 +11233,7 @@
         <v>209</v>
       </c>
       <c r="O35" s="15" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="P35" s="15" t="s">
         <v>63</v>
@@ -11216,7 +11294,7 @@
         <v>205</v>
       </c>
       <c r="O36" s="15" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="P36" s="15" t="s">
         <v>63</v>
@@ -11275,7 +11353,7 @@
         <v>202</v>
       </c>
       <c r="O37" s="15" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="P37" s="15" t="s">
         <v>63</v>
@@ -11336,7 +11414,7 @@
         <v>199</v>
       </c>
       <c r="O38" s="15" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="P38" s="15" t="s">
         <v>63</v>
@@ -11397,7 +11475,7 @@
         <v>195</v>
       </c>
       <c r="O39" s="15" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="P39" s="15" t="s">
         <v>63</v>
@@ -11458,7 +11536,7 @@
         <v>192</v>
       </c>
       <c r="O40" s="15" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="P40" s="15" t="s">
         <v>63</v>
@@ -11517,7 +11595,7 @@
         <v>185</v>
       </c>
       <c r="O41" s="15" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="P41" s="15" t="s">
         <v>63</v>
@@ -11578,7 +11656,7 @@
         <v>179</v>
       </c>
       <c r="O42" s="15" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="P42" s="15" t="s">
         <v>63</v>
@@ -11639,7 +11717,7 @@
         <v>172</v>
       </c>
       <c r="O43" s="15" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="P43" s="15" t="s">
         <v>63</v>
@@ -11700,7 +11778,7 @@
         <v>165</v>
       </c>
       <c r="O44" s="15" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="P44" s="15" t="s">
         <v>63</v>
@@ -11761,7 +11839,7 @@
         <v>157</v>
       </c>
       <c r="O45" s="15" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="P45" s="15" t="s">
         <v>63</v>
@@ -11822,7 +11900,7 @@
         <v>188</v>
       </c>
       <c r="O46" s="15" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="P46" s="15" t="s">
         <v>63</v>
@@ -11881,7 +11959,7 @@
         <v>182</v>
       </c>
       <c r="O47" s="15" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="P47" s="15" t="s">
         <v>63</v>
@@ -11942,7 +12020,7 @@
         <v>175</v>
       </c>
       <c r="O48" s="15" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="P48" s="15" t="s">
         <v>63</v>
@@ -12003,7 +12081,7 @@
         <v>168</v>
       </c>
       <c r="O49" s="15" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="P49" s="15" t="s">
         <v>63</v>
@@ -12064,7 +12142,7 @@
         <v>161</v>
       </c>
       <c r="O50" s="15" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="P50" s="15" t="s">
         <v>63</v>
@@ -12125,7 +12203,7 @@
         <v>153</v>
       </c>
       <c r="O51" s="15" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="P51" s="15" t="s">
         <v>63</v>
@@ -12184,7 +12262,7 @@
         <v>147</v>
       </c>
       <c r="O52" s="15" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="P52" s="15" t="s">
         <v>63</v>
@@ -12245,7 +12323,7 @@
         <v>142</v>
       </c>
       <c r="O53" s="15" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="P53" s="15" t="s">
         <v>63</v>
@@ -12304,7 +12382,7 @@
         <v>139</v>
       </c>
       <c r="O54" s="15" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="P54" s="15" t="s">
         <v>63</v>
@@ -12363,7 +12441,7 @@
         <v>131</v>
       </c>
       <c r="O55" s="15" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="P55" s="15" t="s">
         <v>60</v>
@@ -12862,7 +12940,7 @@
         <v>73</v>
       </c>
       <c r="O8" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="P8" s="16" t="s">
         <v>74</v>
@@ -12935,7 +13013,7 @@
         <v>76</v>
       </c>
       <c r="O9" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="P9" s="16" t="s">
         <v>60</v>
@@ -13007,7 +13085,7 @@
         <v>77</v>
       </c>
       <c r="O10" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="P10" s="16" t="s">
         <v>63</v>
@@ -13079,7 +13157,7 @@
         <v>80</v>
       </c>
       <c r="O11" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="P11" s="16" t="s">
         <v>63</v>
@@ -13151,7 +13229,7 @@
         <v>83</v>
       </c>
       <c r="O12" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="P12" s="16" t="s">
         <v>63</v>
@@ -13223,7 +13301,7 @@
         <v>87</v>
       </c>
       <c r="O13" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="P13" s="16" t="s">
         <v>63</v>
@@ -13293,7 +13371,7 @@
         <v>127</v>
       </c>
       <c r="O14" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="P14" s="15" t="s">
         <v>63</v>
@@ -13305,7 +13383,7 @@
         <v>468</v>
       </c>
       <c r="S14" s="52" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="T14" s="16"/>
       <c r="U14" s="16"/>
@@ -13367,7 +13445,7 @@
         <v>277</v>
       </c>
       <c r="O15" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="P15" s="15" t="s">
         <v>63</v>
@@ -13442,7 +13520,7 @@
         <v>128</v>
       </c>
       <c r="O16" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="P16" s="15" t="s">
         <v>63</v>
@@ -13517,7 +13595,7 @@
         <v>242</v>
       </c>
       <c r="O17" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="P17" s="15" t="s">
         <v>63</v>
@@ -13591,7 +13669,7 @@
         <v>239</v>
       </c>
       <c r="O18" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="P18" s="15" t="s">
         <v>63</v>
@@ -13664,7 +13742,7 @@
         <v>462</v>
       </c>
       <c r="O19" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="P19" s="15" t="s">
         <v>63</v>
@@ -13737,7 +13815,7 @@
         <v>460</v>
       </c>
       <c r="O20" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="P20" s="15" t="s">
         <v>63</v>
@@ -13812,7 +13890,7 @@
         <v>458</v>
       </c>
       <c r="O21" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="P21" s="15" t="s">
         <v>63</v>
@@ -13885,7 +13963,7 @@
         <v>456</v>
       </c>
       <c r="O22" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="P22" s="15" t="s">
         <v>63</v>
@@ -13918,7 +13996,7 @@
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A23" s="59" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="B23" s="20" t="s">
         <v>454</v>
@@ -13960,7 +14038,7 @@
         <v>455</v>
       </c>
       <c r="O23" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="P23" s="15" t="s">
         <v>63</v>
@@ -13993,7 +14071,7 @@
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A24" s="54" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="B24" s="20" t="s">
         <v>454</v>
@@ -14035,7 +14113,7 @@
         <v>453</v>
       </c>
       <c r="O24" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="P24" s="15" t="s">
         <v>63</v>
@@ -14108,7 +14186,7 @@
         <v>451</v>
       </c>
       <c r="O25" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="P25" s="15" t="s">
         <v>63</v>
@@ -14181,7 +14259,7 @@
         <v>449</v>
       </c>
       <c r="O26" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="P26" s="15" t="s">
         <v>63</v>
@@ -14253,7 +14331,7 @@
         <v>447</v>
       </c>
       <c r="O27" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="P27" s="15" t="s">
         <v>63</v>
@@ -14328,7 +14406,7 @@
         <v>446</v>
       </c>
       <c r="O28" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="P28" s="15" t="s">
         <v>63</v>
@@ -14398,10 +14476,10 @@
         <v>132</v>
       </c>
       <c r="N29" s="53" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="O29" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="P29" s="15" t="s">
         <v>63</v>
@@ -14474,7 +14552,7 @@
         <v>443</v>
       </c>
       <c r="O30" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="P30" s="15" t="s">
         <v>63</v>
@@ -14547,7 +14625,7 @@
         <v>4</v>
       </c>
       <c r="O31" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="P31" s="15" t="s">
         <v>63</v>
@@ -14622,7 +14700,7 @@
         <v>439</v>
       </c>
       <c r="O32" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="P32" s="15" t="s">
         <v>63</v>
@@ -14695,7 +14773,7 @@
         <v>437</v>
       </c>
       <c r="O33" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="P33" s="15" t="s">
         <v>63</v>
@@ -14768,7 +14846,7 @@
         <v>435</v>
       </c>
       <c r="O34" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="P34" s="15" t="s">
         <v>63</v>
@@ -14843,7 +14921,7 @@
         <v>433</v>
       </c>
       <c r="O35" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="P35" s="15" t="s">
         <v>63</v>
@@ -14918,7 +14996,7 @@
         <v>431</v>
       </c>
       <c r="O36" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="P36" s="15" t="s">
         <v>63</v>
@@ -14993,7 +15071,7 @@
         <v>429</v>
       </c>
       <c r="O37" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="P37" s="15" t="s">
         <v>63</v>
@@ -15059,7 +15137,7 @@
         <v>56</v>
       </c>
       <c r="L38" s="73" t="s">
-        <v>963</v>
+        <v>952</v>
       </c>
       <c r="M38" s="15" t="s">
         <v>132</v>
@@ -15068,7 +15146,7 @@
         <v>424</v>
       </c>
       <c r="O38" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="P38" s="15" t="s">
         <v>63</v>
@@ -15141,7 +15219,7 @@
         <v>422</v>
       </c>
       <c r="O39" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="P39" s="15" t="s">
         <v>63</v>
@@ -15207,7 +15285,7 @@
         <v>56</v>
       </c>
       <c r="L40" s="73" t="s">
-        <v>963</v>
+        <v>952</v>
       </c>
       <c r="M40" s="15" t="s">
         <v>132</v>
@@ -15216,7 +15294,7 @@
         <v>420</v>
       </c>
       <c r="O40" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="P40" s="15" t="s">
         <v>63</v>
@@ -15286,7 +15364,7 @@
         <v>418</v>
       </c>
       <c r="O41" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="P41" s="15" t="s">
         <v>63</v>
@@ -15356,7 +15434,7 @@
         <v>416</v>
       </c>
       <c r="O42" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="P42" s="15" t="s">
         <v>63</v>
@@ -15426,7 +15504,7 @@
         <v>414</v>
       </c>
       <c r="O43" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="P43" s="15" t="s">
         <v>63</v>
@@ -15496,7 +15574,7 @@
         <v>412</v>
       </c>
       <c r="O44" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="P44" s="15" t="s">
         <v>63</v>
@@ -15566,7 +15644,7 @@
         <v>410</v>
       </c>
       <c r="O45" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="P45" s="15" t="s">
         <v>63</v>
@@ -15636,7 +15714,7 @@
         <v>408</v>
       </c>
       <c r="O46" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="P46" s="15" t="s">
         <v>63</v>
@@ -15708,7 +15786,7 @@
         <v>407</v>
       </c>
       <c r="O47" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="P47" s="15" t="s">
         <v>63</v>
@@ -15780,7 +15858,7 @@
         <v>406</v>
       </c>
       <c r="O48" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="P48" s="15" t="s">
         <v>63</v>
@@ -15852,7 +15930,7 @@
         <v>5</v>
       </c>
       <c r="O49" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="P49" s="15" t="s">
         <v>63</v>
@@ -15924,7 +16002,7 @@
         <v>209</v>
       </c>
       <c r="O50" s="15" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="P50" s="15" t="s">
         <v>63</v>
@@ -15994,7 +16072,7 @@
         <v>396</v>
       </c>
       <c r="O51" s="15" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="P51" s="15" t="s">
         <v>60</v>
@@ -16059,11 +16137,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
     </row>
     <row r="2" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -16210,7 +16288,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="46" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="B22" s="24"/>
       <c r="C22" s="5"/>
@@ -16222,35 +16300,35 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="67" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="B24" s="24"/>
       <c r="C24" s="5"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="67" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="B25" s="24"/>
       <c r="C25" s="5"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="67" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="B26" s="24"/>
       <c r="C26" s="5"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="68" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="B27" s="24"/>
       <c r="C27" s="5"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="68" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="B28" s="24"/>
       <c r="C28" s="5"/>
@@ -16285,7 +16363,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="67" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="B33" s="24"/>
       <c r="C33" s="5"/>
@@ -17889,8 +17967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H339"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="E199" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="E163" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="E217" sqref="E217"/>
@@ -20283,7 +20361,7 @@
         <v>589</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="F98" s="47" t="s">
         <v>56</v>
@@ -20431,7 +20509,7 @@
         <v>596</v>
       </c>
       <c r="E104" s="47" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="F104" s="47" t="s">
         <v>56</v>
@@ -20548,10 +20626,10 @@
         <v>489</v>
       </c>
       <c r="D109" s="16" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="E109" s="47" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="F109" s="47" t="s">
         <v>56</v>
@@ -20821,7 +20899,7 @@
         <v>607</v>
       </c>
       <c r="E120" s="47" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="F120" s="47" t="s">
         <v>56</v>
@@ -21205,7 +21283,7 @@
         <v>621</v>
       </c>
       <c r="E135" s="47" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="F135" s="47" t="s">
         <v>619</v>
@@ -21414,10 +21492,10 @@
         <v>489</v>
       </c>
       <c r="D144" s="57" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="E144" s="58" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
@@ -21607,10 +21685,10 @@
         <v>489</v>
       </c>
       <c r="D155" s="57" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="E155" s="58" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
@@ -21763,10 +21841,10 @@
         <v>489</v>
       </c>
       <c r="D164" s="57" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="E164" s="58" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
@@ -21994,10 +22072,10 @@
         <v>489</v>
       </c>
       <c r="D176" s="57" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="E176" s="58" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="F176" s="48" t="s">
         <v>57</v>
@@ -22229,10 +22307,10 @@
         <v>489</v>
       </c>
       <c r="D187" s="57" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="E187" s="58" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
@@ -22391,7 +22469,7 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="57" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="B196" s="57" t="s">
         <v>680</v>
@@ -22406,12 +22484,12 @@
         <v>132</v>
       </c>
       <c r="H196" s="2" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="57" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="B197" s="57" t="s">
         <v>680</v>
@@ -22426,12 +22504,12 @@
         <v>455</v>
       </c>
       <c r="H197" s="2" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="57" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="B198" s="57" t="s">
         <v>680</v>
@@ -22440,18 +22518,18 @@
         <v>489</v>
       </c>
       <c r="D198" s="57" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="E198" s="58" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="H198" s="2" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="57" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="B199" s="57" t="s">
         <v>680</v>
@@ -22466,12 +22544,12 @@
         <v>63</v>
       </c>
       <c r="H199" s="2" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="57" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="B200" s="57" t="s">
         <v>680</v>
@@ -22486,12 +22564,12 @@
         <v>428</v>
       </c>
       <c r="H200" s="2" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="57" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="B201" s="57" t="s">
         <v>680</v>
@@ -22506,12 +22584,12 @@
         <v>0</v>
       </c>
       <c r="H201" s="2" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="57" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="B202" s="57" t="s">
         <v>680</v>
@@ -22526,12 +22604,12 @@
         <v>127</v>
       </c>
       <c r="H202" s="2" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="57" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="B203" s="57" t="s">
         <v>680</v>
@@ -22546,12 +22624,12 @@
         <v>139</v>
       </c>
       <c r="H203" s="2" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="57" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="B204" s="57" t="s">
         <v>680</v>
@@ -22566,12 +22644,12 @@
         <v>649</v>
       </c>
       <c r="H204" s="2" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="57" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="B205" s="57" t="s">
         <v>680</v>
@@ -22586,12 +22664,12 @@
         <v>652</v>
       </c>
       <c r="H205" s="2" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="57" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="B206" s="57" t="s">
         <v>680</v>
@@ -22606,12 +22684,12 @@
         <v>658</v>
       </c>
       <c r="H206" s="2" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="57" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="B207" s="57" t="s">
         <v>680</v>
@@ -22626,12 +22704,12 @@
         <v>132</v>
       </c>
       <c r="H207" s="2" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="57" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="B208" s="57" t="s">
         <v>680</v>
@@ -22646,12 +22724,12 @@
         <v>453</v>
       </c>
       <c r="H208" s="2" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="57" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="B209" s="57" t="s">
         <v>680</v>
@@ -22660,18 +22738,18 @@
         <v>489</v>
       </c>
       <c r="D209" s="57" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="E209" s="58" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="H209" s="2" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="57" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="B210" s="57" t="s">
         <v>680</v>
@@ -22686,12 +22764,12 @@
         <v>63</v>
       </c>
       <c r="H210" s="2" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="57" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="B211" s="57" t="s">
         <v>680</v>
@@ -22706,12 +22784,12 @@
         <v>428</v>
       </c>
       <c r="H211" s="2" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="57" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="B212" s="57" t="s">
         <v>680</v>
@@ -22726,12 +22804,12 @@
         <v>0</v>
       </c>
       <c r="H212" s="2" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="57" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="B213" s="57" t="s">
         <v>680</v>
@@ -22746,12 +22824,12 @@
         <v>127</v>
       </c>
       <c r="H213" s="2" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="57" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="B214" s="57" t="s">
         <v>680</v>
@@ -22766,12 +22844,12 @@
         <v>139</v>
       </c>
       <c r="H214" s="2" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="57" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="B215" s="57" t="s">
         <v>680</v>
@@ -22786,12 +22864,12 @@
         <v>649</v>
       </c>
       <c r="H215" s="2" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="57" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="B216" s="57" t="s">
         <v>680</v>
@@ -22806,12 +22884,12 @@
         <v>652</v>
       </c>
       <c r="H216" s="2" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="57" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="B217" s="57" t="s">
         <v>680</v>
@@ -22826,7 +22904,7 @@
         <v>658</v>
       </c>
       <c r="H217" s="2" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
@@ -22874,10 +22952,10 @@
         <v>489</v>
       </c>
       <c r="D220" s="57" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="E220" s="58" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
@@ -23067,10 +23145,10 @@
         <v>489</v>
       </c>
       <c r="D231" s="57" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="E231" s="58" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
@@ -23292,10 +23370,10 @@
         <v>489</v>
       </c>
       <c r="D243" s="57" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="E243" s="58" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
@@ -23389,7 +23467,7 @@
         <v>139</v>
       </c>
       <c r="H248" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
@@ -23409,7 +23487,7 @@
         <v>649</v>
       </c>
       <c r="H249" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.3">
@@ -23429,7 +23507,7 @@
         <v>652</v>
       </c>
       <c r="H250" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
@@ -23449,7 +23527,7 @@
         <v>658</v>
       </c>
       <c r="H251" s="2" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
@@ -23457,7 +23535,7 @@
         <v>176</v>
       </c>
       <c r="B252" s="57" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C252" s="16" t="s">
         <v>485</v>
@@ -23474,13 +23552,13 @@
         <v>176</v>
       </c>
       <c r="B253" s="57" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C253" s="16" t="s">
         <v>487</v>
       </c>
       <c r="D253" s="49" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E253" s="57" t="s">
         <v>431</v>
@@ -23491,16 +23569,16 @@
         <v>176</v>
       </c>
       <c r="B254" s="57" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C254" s="16" t="s">
         <v>489</v>
       </c>
       <c r="D254" s="57" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="E254" s="58" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
@@ -23508,7 +23586,7 @@
         <v>176</v>
       </c>
       <c r="B255" s="57" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C255" s="16" t="s">
         <v>30</v>
@@ -23525,7 +23603,7 @@
         <v>176</v>
       </c>
       <c r="B256" s="57" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C256" s="16" t="s">
         <v>34</v>
@@ -23542,7 +23620,7 @@
         <v>176</v>
       </c>
       <c r="B257" s="57" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C257" s="16" t="s">
         <v>493</v>
@@ -23554,7 +23632,7 @@
         <v>0</v>
       </c>
       <c r="H257" s="2" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.3">
@@ -23562,7 +23640,7 @@
         <v>176</v>
       </c>
       <c r="B258" s="57" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C258" s="16" t="s">
         <v>493</v>
@@ -23574,7 +23652,7 @@
         <v>127</v>
       </c>
       <c r="H258" s="2" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.3">
@@ -23582,7 +23660,7 @@
         <v>176</v>
       </c>
       <c r="B259" s="57" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C259" s="16" t="s">
         <v>493</v>
@@ -23594,7 +23672,7 @@
         <v>139</v>
       </c>
       <c r="H259" s="2" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.3">
@@ -23602,7 +23680,7 @@
         <v>176</v>
       </c>
       <c r="B260" s="57" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C260" s="16" t="s">
         <v>519</v>
@@ -23614,7 +23692,7 @@
         <v>649</v>
       </c>
       <c r="H260" s="2" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.3">
@@ -23622,7 +23700,7 @@
         <v>176</v>
       </c>
       <c r="B261" s="57" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C261" s="16" t="s">
         <v>519</v>
@@ -23634,7 +23712,7 @@
         <v>652</v>
       </c>
       <c r="H261" s="2" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.3">
@@ -23642,7 +23720,7 @@
         <v>176</v>
       </c>
       <c r="B262" s="57" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C262" s="16" t="s">
         <v>519</v>
@@ -23654,7 +23732,7 @@
         <v>658</v>
       </c>
       <c r="H262" s="2" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.3">
@@ -23662,7 +23740,7 @@
         <v>154</v>
       </c>
       <c r="B263" s="57" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="C263" s="16" t="s">
         <v>485</v>
@@ -23679,13 +23757,13 @@
         <v>154</v>
       </c>
       <c r="B264" s="57" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="C264" s="16" t="s">
         <v>487</v>
       </c>
       <c r="D264" s="49" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="E264" s="57" t="s">
         <v>429</v>
@@ -23696,16 +23774,16 @@
         <v>154</v>
       </c>
       <c r="B265" s="57" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="C265" s="16" t="s">
         <v>489</v>
       </c>
       <c r="D265" s="57" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="E265" s="58" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.3">
@@ -23713,7 +23791,7 @@
         <v>154</v>
       </c>
       <c r="B266" s="57" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="C266" s="16" t="s">
         <v>30</v>
@@ -23730,7 +23808,7 @@
         <v>154</v>
       </c>
       <c r="B267" s="57" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="C267" s="16" t="s">
         <v>34</v>
@@ -23747,7 +23825,7 @@
         <v>154</v>
       </c>
       <c r="B268" s="57" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="C268" s="16" t="s">
         <v>493</v>
@@ -23759,7 +23837,7 @@
         <v>0</v>
       </c>
       <c r="H268" s="2" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.3">
@@ -23767,7 +23845,7 @@
         <v>154</v>
       </c>
       <c r="B269" s="57" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="C269" s="16" t="s">
         <v>493</v>
@@ -23779,7 +23857,7 @@
         <v>127</v>
       </c>
       <c r="H269" s="2" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.3">
@@ -23787,7 +23865,7 @@
         <v>154</v>
       </c>
       <c r="B270" s="57" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="C270" s="16" t="s">
         <v>493</v>
@@ -23799,7 +23877,7 @@
         <v>139</v>
       </c>
       <c r="H270" s="2" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.3">
@@ -23807,7 +23885,7 @@
         <v>154</v>
       </c>
       <c r="B271" s="57" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="C271" s="16" t="s">
         <v>519</v>
@@ -23819,7 +23897,7 @@
         <v>649</v>
       </c>
       <c r="H271" s="2" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.3">
@@ -23827,7 +23905,7 @@
         <v>154</v>
       </c>
       <c r="B272" s="57" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="C272" s="16" t="s">
         <v>519</v>
@@ -23839,7 +23917,7 @@
         <v>652</v>
       </c>
       <c r="H272" s="2" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.3">
@@ -23847,7 +23925,7 @@
         <v>154</v>
       </c>
       <c r="B273" s="57" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="C273" s="16" t="s">
         <v>519</v>
@@ -23859,7 +23937,7 @@
         <v>658</v>
       </c>
       <c r="H273" s="2" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.3">
@@ -23867,7 +23945,7 @@
         <v>220</v>
       </c>
       <c r="B274" s="57" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="C274" s="16" t="s">
         <v>485</v>
@@ -23884,13 +23962,13 @@
         <v>220</v>
       </c>
       <c r="B275" s="57" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="C275" s="16" t="s">
         <v>487</v>
       </c>
       <c r="D275" s="49" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="E275" s="57" t="s">
         <v>424</v>
@@ -23901,16 +23979,16 @@
         <v>220</v>
       </c>
       <c r="B276" s="57" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="C276" s="16" t="s">
         <v>489</v>
       </c>
       <c r="D276" s="57" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="E276" s="58" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.3">
@@ -23918,7 +23996,7 @@
         <v>220</v>
       </c>
       <c r="B277" s="57" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="C277" s="16" t="s">
         <v>30</v>
@@ -23935,7 +24013,7 @@
         <v>220</v>
       </c>
       <c r="B278" s="57" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="C278" s="16" t="s">
         <v>34</v>
@@ -23952,7 +24030,7 @@
         <v>220</v>
       </c>
       <c r="B279" s="57" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="C279" s="16" t="s">
         <v>493</v>
@@ -23964,7 +24042,7 @@
         <v>0</v>
       </c>
       <c r="H279" s="2" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.3">
@@ -23972,7 +24050,7 @@
         <v>220</v>
       </c>
       <c r="B280" s="57" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="C280" s="16" t="s">
         <v>493</v>
@@ -23984,7 +24062,7 @@
         <v>1</v>
       </c>
       <c r="H280" s="63" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.3">
@@ -23992,7 +24070,7 @@
         <v>220</v>
       </c>
       <c r="B281" s="57" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="C281" s="16" t="s">
         <v>493</v>
@@ -24004,7 +24082,7 @@
         <v>139</v>
       </c>
       <c r="H281" s="2" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.3">
@@ -24012,7 +24090,7 @@
         <v>220</v>
       </c>
       <c r="B282" s="57" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="C282" s="16" t="s">
         <v>493</v>
@@ -24024,7 +24102,7 @@
         <v>649</v>
       </c>
       <c r="H282" s="2" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.3">
@@ -24032,7 +24110,7 @@
         <v>220</v>
       </c>
       <c r="B283" s="57" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="C283" s="16" t="s">
         <v>519</v>
@@ -24044,7 +24122,7 @@
         <v>685</v>
       </c>
       <c r="H283" s="63" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.3">
@@ -24052,7 +24130,7 @@
         <v>220</v>
       </c>
       <c r="B284" s="57" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="C284" s="16" t="s">
         <v>519</v>
@@ -24064,7 +24142,7 @@
         <v>658</v>
       </c>
       <c r="H284" s="2" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
     </row>
     <row r="285" spans="1:8" s="22" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -24072,16 +24150,16 @@
         <v>220</v>
       </c>
       <c r="B285" s="69" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="C285" s="23" t="s">
         <v>592</v>
       </c>
       <c r="D285" s="60" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="E285" s="60" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="F285" s="70"/>
       <c r="H285" s="71" t="s">
@@ -24093,7 +24171,7 @@
         <v>169</v>
       </c>
       <c r="B286" s="57" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="C286" s="16" t="s">
         <v>485</v>
@@ -24113,13 +24191,13 @@
         <v>169</v>
       </c>
       <c r="B287" s="57" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="C287" s="16" t="s">
         <v>487</v>
       </c>
       <c r="D287" s="49" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="E287" s="57" t="s">
         <v>420</v>
@@ -24130,16 +24208,16 @@
         <v>169</v>
       </c>
       <c r="B288" s="57" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="C288" s="16" t="s">
         <v>489</v>
       </c>
       <c r="D288" s="57" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="E288" s="58" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.3">
@@ -24147,7 +24225,7 @@
         <v>169</v>
       </c>
       <c r="B289" s="57" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="C289" s="16" t="s">
         <v>30</v>
@@ -24164,7 +24242,7 @@
         <v>169</v>
       </c>
       <c r="B290" s="57" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="C290" s="16" t="s">
         <v>34</v>
@@ -24181,7 +24259,7 @@
         <v>169</v>
       </c>
       <c r="B291" s="57" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="C291" s="16" t="s">
         <v>493</v>
@@ -24193,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="H291" s="2" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.3">
@@ -24201,7 +24279,7 @@
         <v>169</v>
       </c>
       <c r="B292" s="57" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="C292" s="16" t="s">
         <v>493</v>
@@ -24213,7 +24291,7 @@
         <v>1</v>
       </c>
       <c r="H292" s="2" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.3">
@@ -24221,7 +24299,7 @@
         <v>169</v>
       </c>
       <c r="B293" s="57" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="C293" s="16" t="s">
         <v>493</v>
@@ -24233,7 +24311,7 @@
         <v>139</v>
       </c>
       <c r="H293" s="2" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.3">
@@ -24241,7 +24319,7 @@
         <v>169</v>
       </c>
       <c r="B294" s="57" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="C294" s="16" t="s">
         <v>519</v>
@@ -24253,7 +24331,7 @@
         <v>649</v>
       </c>
       <c r="H294" s="2" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.3">
@@ -24261,7 +24339,7 @@
         <v>169</v>
       </c>
       <c r="B295" s="57" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="C295" s="16" t="s">
         <v>519</v>
@@ -24273,7 +24351,7 @@
         <v>685</v>
       </c>
       <c r="H295" s="2" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.3">
@@ -24281,7 +24359,7 @@
         <v>169</v>
       </c>
       <c r="B296" s="57" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="C296" s="16" t="s">
         <v>519</v>
@@ -24293,7 +24371,7 @@
         <v>658</v>
       </c>
       <c r="H296" s="2" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.3">
@@ -24301,16 +24379,16 @@
         <v>169</v>
       </c>
       <c r="B297" s="57" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="C297" s="16" t="s">
         <v>592</v>
       </c>
       <c r="D297" s="47" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="E297" s="47" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="H297" s="2" t="s">
         <v>660</v>
@@ -24350,7 +24428,7 @@
         <v>407</v>
       </c>
       <c r="H299" s="2" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.3">
@@ -24364,13 +24442,13 @@
         <v>489</v>
       </c>
       <c r="D300" s="56" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="E300" s="58" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="H300" s="2" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.3">
@@ -24390,7 +24468,7 @@
         <v>63</v>
       </c>
       <c r="H301" s="2" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.3">
@@ -24410,7 +24488,7 @@
         <v>151</v>
       </c>
       <c r="H302" s="2" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.3">
@@ -24430,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="H303" s="2" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.3">
@@ -24450,7 +24528,7 @@
         <v>1</v>
       </c>
       <c r="H304" s="2" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.3">
@@ -24470,7 +24548,7 @@
         <v>139</v>
       </c>
       <c r="H305" s="2" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.3">
@@ -24490,7 +24568,7 @@
         <v>649</v>
       </c>
       <c r="H306" s="2" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.3">
@@ -24510,7 +24588,7 @@
         <v>685</v>
       </c>
       <c r="H307" s="2" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.3">
@@ -24530,15 +24608,15 @@
         <v>658</v>
       </c>
       <c r="H308" s="2" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="C309" s="16" t="s">
         <v>485</v>
@@ -24552,10 +24630,10 @@
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="C310" s="16" t="s">
         <v>487</v>
@@ -24569,27 +24647,27 @@
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="C311" s="16" t="s">
         <v>489</v>
       </c>
       <c r="D311" s="56" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="E311" s="58" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="C312" s="16" t="s">
         <v>30</v>
@@ -24603,10 +24681,10 @@
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="C313" s="16" t="s">
         <v>34</v>
@@ -24620,10 +24698,10 @@
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="C314" s="16" t="s">
         <v>493</v>
@@ -24635,15 +24713,15 @@
         <v>0</v>
       </c>
       <c r="H314" s="2" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="C315" s="16" t="s">
         <v>493</v>
@@ -24657,10 +24735,10 @@
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="C316" s="16" t="s">
         <v>493</v>
@@ -24674,10 +24752,10 @@
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="C317" s="16" t="s">
         <v>519</v>
@@ -24689,15 +24767,15 @@
         <v>649</v>
       </c>
       <c r="H317" s="2" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="C318" s="16" t="s">
         <v>519</v>
@@ -24711,10 +24789,10 @@
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="C319" s="16" t="s">
         <v>519</v>
@@ -24737,7 +24815,7 @@
         <v>485</v>
       </c>
       <c r="D320" s="47" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="E320" s="47" t="s">
         <v>132</v>
@@ -24754,7 +24832,7 @@
         <v>487</v>
       </c>
       <c r="D321" s="47" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="E321" s="50">
         <v>5</v>
@@ -24771,10 +24849,10 @@
         <v>489</v>
       </c>
       <c r="D322" s="47" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="E322" s="58" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.3">
@@ -24788,7 +24866,7 @@
         <v>30</v>
       </c>
       <c r="D323" s="57" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="E323" s="57" t="s">
         <v>63</v>
@@ -24805,7 +24883,7 @@
         <v>34</v>
       </c>
       <c r="D324" s="57" t="s">
-        <v>960</v>
+        <v>950</v>
       </c>
       <c r="E324" s="57" t="s">
         <v>151</v>
@@ -24822,13 +24900,13 @@
         <v>493</v>
       </c>
       <c r="D325" s="47" t="s">
-        <v>961</v>
+        <v>951</v>
       </c>
       <c r="E325" s="57">
         <v>0</v>
       </c>
       <c r="H325" s="2" t="s">
-        <v>965</v>
+        <v>954</v>
       </c>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.3">
@@ -24842,13 +24920,13 @@
         <v>493</v>
       </c>
       <c r="D326" s="47" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="E326" s="47" t="s">
         <v>127</v>
       </c>
       <c r="H326" s="2" t="s">
-        <v>964</v>
+        <v>953</v>
       </c>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.3">
@@ -24862,13 +24940,13 @@
         <v>519</v>
       </c>
       <c r="D327" s="47" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="E327" s="57" t="s">
         <v>634</v>
       </c>
       <c r="H327" s="2" t="s">
-        <v>950</v>
+        <v>943</v>
       </c>
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.3">
@@ -24882,13 +24960,13 @@
         <v>519</v>
       </c>
       <c r="D328" s="47" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="E328" s="47" t="s">
         <v>636</v>
       </c>
       <c r="H328" s="2" t="s">
-        <v>951</v>
+        <v>944</v>
       </c>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.3">
@@ -24902,7 +24980,7 @@
         <v>485</v>
       </c>
       <c r="D329" s="47" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="E329" s="47" t="s">
         <v>132</v>
@@ -24919,7 +24997,7 @@
         <v>487</v>
       </c>
       <c r="D330" s="47" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="E330" s="50">
         <v>5</v>
@@ -24936,10 +25014,10 @@
         <v>489</v>
       </c>
       <c r="D331" s="47" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="E331" s="56" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.3">
@@ -24953,7 +25031,7 @@
         <v>30</v>
       </c>
       <c r="D332" s="57" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="E332" s="57" t="s">
         <v>63</v>
@@ -24970,7 +25048,7 @@
         <v>34</v>
       </c>
       <c r="D333" s="57" t="s">
-        <v>960</v>
+        <v>950</v>
       </c>
       <c r="E333" s="47" t="s">
         <v>400</v>
@@ -25041,7 +25119,7 @@
         <v>635</v>
       </c>
       <c r="E337" s="47" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.3">
@@ -25058,7 +25136,7 @@
         <v>635</v>
       </c>
       <c r="E338" s="47" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.3">
@@ -25075,7 +25153,7 @@
         <v>635</v>
       </c>
       <c r="E339" s="47" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
     </row>
   </sheetData>
@@ -25092,11 +25170,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D40" sqref="D40"/>
+      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25167,7 +25245,7 @@
         <v>277</v>
       </c>
       <c r="F3" s="66" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>645</v>
@@ -25190,7 +25268,7 @@
         <v>128</v>
       </c>
       <c r="F4" s="66" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>645</v>
@@ -25210,10 +25288,10 @@
         <v>654</v>
       </c>
       <c r="E5" s="61" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="F5" s="66" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>656</v>
@@ -25233,10 +25311,10 @@
         <v>654</v>
       </c>
       <c r="E6" s="61" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="F6" s="66" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="H6" s="63" t="s">
         <v>656</v>
@@ -25253,13 +25331,13 @@
         <v>592</v>
       </c>
       <c r="D7" s="62" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="E7" s="63" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="F7" s="66" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>660</v>
@@ -25276,13 +25354,13 @@
         <v>592</v>
       </c>
       <c r="D8" s="62" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="E8" s="63" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="F8" s="66" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>660</v>
@@ -25299,16 +25377,16 @@
         <v>622</v>
       </c>
       <c r="D9" s="64" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="E9" s="64" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="F9" s="66" t="s">
         <v>622</v>
       </c>
       <c r="H9" s="65" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -25328,7 +25406,7 @@
         <v>277</v>
       </c>
       <c r="F10" s="66" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>665</v>
@@ -25351,7 +25429,7 @@
         <v>128</v>
       </c>
       <c r="F11" s="66" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>665</v>
@@ -25371,10 +25449,10 @@
         <v>654</v>
       </c>
       <c r="E12" s="61" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="F12" s="66" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>669</v>
@@ -25394,10 +25472,10 @@
         <v>654</v>
       </c>
       <c r="E13" s="61" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="F13" s="66" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>669</v>
@@ -25414,13 +25492,13 @@
         <v>592</v>
       </c>
       <c r="D14" s="62" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="E14" s="61" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="F14" s="66" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>660</v>
@@ -25437,13 +25515,13 @@
         <v>592</v>
       </c>
       <c r="D15" s="62" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="E15" s="61" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="F15" s="66" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>660</v>
@@ -25460,16 +25538,16 @@
         <v>622</v>
       </c>
       <c r="D16" s="64" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="E16" s="64" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="F16" s="66" t="s">
         <v>622</v>
       </c>
       <c r="H16" s="65" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -25489,7 +25567,7 @@
         <v>277</v>
       </c>
       <c r="F17" s="66" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>674</v>
@@ -25512,7 +25590,7 @@
         <v>128</v>
       </c>
       <c r="F18" s="66" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>674</v>
@@ -25532,10 +25610,10 @@
         <v>654</v>
       </c>
       <c r="E19" s="61" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="F19" s="66" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>678</v>
@@ -25555,10 +25633,10 @@
         <v>654</v>
       </c>
       <c r="E20" s="61" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="F20" s="66" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>678</v>
@@ -25575,13 +25653,13 @@
         <v>592</v>
       </c>
       <c r="D21" s="62" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="E21" s="61" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="F21" s="66" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>660</v>
@@ -25598,13 +25676,13 @@
         <v>592</v>
       </c>
       <c r="D22" s="62" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="E22" s="61" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="F22" s="66" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>660</v>
@@ -25621,21 +25699,21 @@
         <v>622</v>
       </c>
       <c r="D23" s="64" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="E23" s="64" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="F23" s="66" t="s">
         <v>622</v>
       </c>
       <c r="H23" s="65" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="57" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="B24" s="57" t="s">
         <v>680</v>
@@ -25650,15 +25728,15 @@
         <v>277</v>
       </c>
       <c r="F24" s="66" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="57" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="B25" s="57" t="s">
         <v>680</v>
@@ -25673,15 +25751,15 @@
         <v>128</v>
       </c>
       <c r="F25" s="66" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="57" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="B26" s="57" t="s">
         <v>680</v>
@@ -25693,18 +25771,18 @@
         <v>654</v>
       </c>
       <c r="E26" s="61" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="F26" s="66" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="57" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="B27" s="57" t="s">
         <v>680</v>
@@ -25716,18 +25794,18 @@
         <v>654</v>
       </c>
       <c r="E27" s="61" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="F27" s="66" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="57" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="B28" s="57" t="s">
         <v>680</v>
@@ -25736,21 +25814,21 @@
         <v>592</v>
       </c>
       <c r="D28" s="62" t="s">
-        <v>966</v>
+        <v>955</v>
       </c>
       <c r="E28" s="61" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="F28" s="66" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="57" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="B29" s="57" t="s">
         <v>680</v>
@@ -25759,21 +25837,21 @@
         <v>592</v>
       </c>
       <c r="D29" s="62" t="s">
-        <v>941</v>
+        <v>992</v>
       </c>
       <c r="E29" s="61" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="F29" s="66" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="57" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="B30" s="57" t="s">
         <v>680</v>
@@ -25782,21 +25860,21 @@
         <v>622</v>
       </c>
       <c r="D30" s="64" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="E30" s="64" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="F30" s="66" t="s">
         <v>622</v>
       </c>
       <c r="H30" s="65" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="57" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="B31" s="57" t="s">
         <v>680</v>
@@ -25811,15 +25889,15 @@
         <v>277</v>
       </c>
       <c r="F31" s="66" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="57" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="B32" s="57" t="s">
         <v>680</v>
@@ -25834,15 +25912,15 @@
         <v>128</v>
       </c>
       <c r="F32" s="66" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="57" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="B33" s="57" t="s">
         <v>680</v>
@@ -25854,18 +25932,18 @@
         <v>654</v>
       </c>
       <c r="E33" s="61" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="F33" s="66" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="57" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="B34" s="57" t="s">
         <v>680</v>
@@ -25877,18 +25955,18 @@
         <v>654</v>
       </c>
       <c r="E34" s="61" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="F34" s="66" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="57" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="B35" s="57" t="s">
         <v>680</v>
@@ -25897,21 +25975,21 @@
         <v>592</v>
       </c>
       <c r="D35" s="62" t="s">
-        <v>967</v>
+        <v>956</v>
       </c>
       <c r="E35" s="61" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="F35" s="66" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="57" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="B36" s="57" t="s">
         <v>680</v>
@@ -25920,21 +25998,21 @@
         <v>592</v>
       </c>
       <c r="D36" s="62" t="s">
-        <v>968</v>
+        <v>957</v>
       </c>
       <c r="E36" s="61" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="F36" s="66" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="57" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="B37" s="57" t="s">
         <v>680</v>
@@ -25943,16 +26021,16 @@
         <v>622</v>
       </c>
       <c r="D37" s="64" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="E37" s="64" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="F37" s="66" t="s">
         <v>622</v>
       </c>
       <c r="H37" s="65" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -25972,7 +26050,7 @@
         <v>277</v>
       </c>
       <c r="F38" s="66" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>691</v>
@@ -25995,10 +26073,10 @@
         <v>128</v>
       </c>
       <c r="F39" s="66" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>691</v>
+        <v>958</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -26015,13 +26093,13 @@
         <v>654</v>
       </c>
       <c r="E40" s="61" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="F40" s="66" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>695</v>
+        <v>959</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -26038,13 +26116,13 @@
         <v>654</v>
       </c>
       <c r="E41" s="61" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="F41" s="66" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>695</v>
+        <v>960</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -26058,16 +26136,16 @@
         <v>592</v>
       </c>
       <c r="D42" s="62" t="s">
-        <v>942</v>
+        <v>935</v>
       </c>
       <c r="E42" s="61" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="F42" s="66" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>660</v>
+        <v>961</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -26081,16 +26159,16 @@
         <v>592</v>
       </c>
       <c r="D43" s="62" t="s">
-        <v>943</v>
+        <v>936</v>
       </c>
       <c r="E43" s="61" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="F43" s="66" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>660</v>
+        <v>962</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -26104,16 +26182,16 @@
         <v>622</v>
       </c>
       <c r="D44" s="64" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="E44" s="64" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="F44" s="66" t="s">
         <v>622</v>
       </c>
-      <c r="H44" s="65" t="s">
-        <v>924</v>
+      <c r="H44" s="2" t="s">
+        <v>963</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -26133,10 +26211,10 @@
         <v>277</v>
       </c>
       <c r="F45" s="66" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>701</v>
+        <v>964</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -26156,10 +26234,10 @@
         <v>128</v>
       </c>
       <c r="F46" s="66" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>701</v>
+        <v>965</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
@@ -26176,13 +26254,13 @@
         <v>654</v>
       </c>
       <c r="E47" s="61" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="F47" s="66" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>705</v>
+        <v>966</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
@@ -26199,13 +26277,13 @@
         <v>654</v>
       </c>
       <c r="E48" s="61" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="F48" s="66" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>705</v>
+        <v>967</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -26219,16 +26297,16 @@
         <v>592</v>
       </c>
       <c r="D49" s="62" t="s">
-        <v>945</v>
+        <v>938</v>
       </c>
       <c r="E49" s="61" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="F49" s="66" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>660</v>
+        <v>968</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -26242,16 +26320,16 @@
         <v>592</v>
       </c>
       <c r="D50" s="62" t="s">
-        <v>944</v>
+        <v>937</v>
       </c>
       <c r="E50" s="61" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="F50" s="66" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>660</v>
+        <v>969</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -26265,16 +26343,16 @@
         <v>622</v>
       </c>
       <c r="D51" s="64" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="E51" s="64" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="F51" s="66" t="s">
         <v>622</v>
       </c>
-      <c r="H51" s="65" t="s">
-        <v>925</v>
+      <c r="H51" s="2" t="s">
+        <v>970</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -26282,7 +26360,7 @@
         <v>176</v>
       </c>
       <c r="B52" s="57" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C52" s="16" t="s">
         <v>493</v>
@@ -26294,10 +26372,10 @@
         <v>277</v>
       </c>
       <c r="F52" s="66" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>711</v>
+        <v>971</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -26305,7 +26383,7 @@
         <v>176</v>
       </c>
       <c r="B53" s="57" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C53" s="16" t="s">
         <v>493</v>
@@ -26317,10 +26395,10 @@
         <v>128</v>
       </c>
       <c r="F53" s="66" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>711</v>
+        <v>972</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
@@ -26328,7 +26406,7 @@
         <v>176</v>
       </c>
       <c r="B54" s="57" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C54" s="16" t="s">
         <v>519</v>
@@ -26337,13 +26415,13 @@
         <v>654</v>
       </c>
       <c r="E54" s="61" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="F54" s="66" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>715</v>
+        <v>973</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
@@ -26351,7 +26429,7 @@
         <v>176</v>
       </c>
       <c r="B55" s="57" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C55" s="16" t="s">
         <v>519</v>
@@ -26360,13 +26438,13 @@
         <v>654</v>
       </c>
       <c r="E55" s="61" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="F55" s="66" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>715</v>
+        <v>974</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -26374,22 +26452,22 @@
         <v>176</v>
       </c>
       <c r="B56" s="57" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C56" s="16" t="s">
         <v>592</v>
       </c>
       <c r="D56" s="62" t="s">
-        <v>946</v>
+        <v>939</v>
       </c>
       <c r="E56" s="61" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="F56" s="66" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>660</v>
+        <v>975</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -26397,22 +26475,22 @@
         <v>176</v>
       </c>
       <c r="B57" s="57" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C57" s="16" t="s">
         <v>592</v>
       </c>
       <c r="D57" s="62" t="s">
-        <v>947</v>
+        <v>940</v>
       </c>
       <c r="E57" s="61" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="F57" s="66" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>660</v>
+        <v>976</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -26420,22 +26498,22 @@
         <v>176</v>
       </c>
       <c r="B58" s="57" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C58" s="63" t="s">
         <v>622</v>
       </c>
       <c r="D58" s="64" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="E58" s="64" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="F58" s="66" t="s">
         <v>622</v>
       </c>
-      <c r="H58" s="65" t="s">
-        <v>926</v>
+      <c r="H58" s="2" t="s">
+        <v>977</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -26443,7 +26521,7 @@
         <v>154</v>
       </c>
       <c r="B59" s="57" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="C59" s="16" t="s">
         <v>493</v>
@@ -26455,10 +26533,10 @@
         <v>277</v>
       </c>
       <c r="F59" s="66" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>721</v>
+        <v>978</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -26466,7 +26544,7 @@
         <v>154</v>
       </c>
       <c r="B60" s="57" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="C60" s="16" t="s">
         <v>493</v>
@@ -26478,10 +26556,10 @@
         <v>128</v>
       </c>
       <c r="F60" s="66" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>721</v>
+        <v>979</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
@@ -26489,7 +26567,7 @@
         <v>154</v>
       </c>
       <c r="B61" s="57" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="C61" s="16" t="s">
         <v>519</v>
@@ -26498,13 +26576,13 @@
         <v>654</v>
       </c>
       <c r="E61" s="61" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="F61" s="66" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>725</v>
+        <v>980</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
@@ -26512,7 +26590,7 @@
         <v>154</v>
       </c>
       <c r="B62" s="57" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="C62" s="16" t="s">
         <v>519</v>
@@ -26521,13 +26599,13 @@
         <v>654</v>
       </c>
       <c r="E62" s="61" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="F62" s="66" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>725</v>
+        <v>981</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -26535,22 +26613,22 @@
         <v>154</v>
       </c>
       <c r="B63" s="57" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="C63" s="16" t="s">
         <v>592</v>
       </c>
       <c r="D63" s="62" t="s">
-        <v>948</v>
+        <v>941</v>
       </c>
       <c r="E63" s="61" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="F63" s="66" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>660</v>
+        <v>982</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -26558,22 +26636,22 @@
         <v>154</v>
       </c>
       <c r="B64" s="57" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="C64" s="16" t="s">
         <v>592</v>
       </c>
       <c r="D64" s="62" t="s">
-        <v>949</v>
+        <v>942</v>
       </c>
       <c r="E64" s="61" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="F64" s="66" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>660</v>
+        <v>983</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -26581,22 +26659,22 @@
         <v>154</v>
       </c>
       <c r="B65" s="57" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="C65" s="63" t="s">
         <v>622</v>
       </c>
       <c r="D65" s="64" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="E65" s="64" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="F65" s="66" t="s">
         <v>622</v>
       </c>
-      <c r="H65" s="65" t="s">
-        <v>927</v>
+      <c r="H65" s="2" t="s">
+        <v>984</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
@@ -26610,16 +26688,16 @@
         <v>493</v>
       </c>
       <c r="D66" s="47" t="s">
-        <v>952</v>
+        <v>945</v>
       </c>
       <c r="E66" s="47" t="s">
         <v>139</v>
       </c>
       <c r="F66" s="48" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>953</v>
+        <v>985</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
@@ -26633,16 +26711,16 @@
         <v>493</v>
       </c>
       <c r="D67" s="47" t="s">
-        <v>952</v>
+        <v>945</v>
       </c>
       <c r="E67" s="47" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
       <c r="F67" s="48" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>956</v>
+        <v>986</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
@@ -26656,16 +26734,16 @@
         <v>493</v>
       </c>
       <c r="D68" s="47" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="E68" s="47" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="F68" s="48" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>959</v>
+        <v>987</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
@@ -26679,16 +26757,16 @@
         <v>493</v>
       </c>
       <c r="D69" s="47" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="E69" s="47" t="s">
         <v>57</v>
       </c>
       <c r="F69" s="48" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>959</v>
+        <v>988</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -26702,16 +26780,16 @@
         <v>592</v>
       </c>
       <c r="D70" s="60" t="s">
-        <v>958</v>
+        <v>949</v>
       </c>
       <c r="E70" s="60" t="s">
-        <v>958</v>
+        <v>949</v>
       </c>
       <c r="F70" s="48" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>953</v>
+        <v>989</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -26725,16 +26803,16 @@
         <v>592</v>
       </c>
       <c r="D71" s="60" t="s">
-        <v>958</v>
+        <v>949</v>
       </c>
       <c r="E71" s="60" t="s">
-        <v>958</v>
+        <v>949</v>
       </c>
       <c r="F71" s="48" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>956</v>
+        <v>990</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
@@ -26748,16 +26826,16 @@
         <v>622</v>
       </c>
       <c r="D72" s="72" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
       <c r="E72" s="72" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
       <c r="F72" s="48" t="s">
         <v>622</v>
       </c>
-      <c r="H72" s="72" t="s">
-        <v>962</v>
+      <c r="H72" s="2" t="s">
+        <v>991</v>
       </c>
     </row>
   </sheetData>
@@ -26765,32 +26843,13 @@
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:F1"/>
   </mergeCells>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="38934ba0-d0c8-4ff1-b39d-50890708cb62">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="ab06a5aa-8e31-4bdb-9b13-38c58a92ec8a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010058BEFEFAD17A4B43A8378381BF28CF4F" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="61556453c3d4cfbe4714da52328c09a3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="38934ba0-d0c8-4ff1-b39d-50890708cb62" xmlns:ns3="ab06a5aa-8e31-4bdb-9b13-38c58a92ec8a" xmlns:ns4="ab274330-b409-4ff8-b8ad-c1dc18cc66a1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b8714ab872510242edcc52d3716bf4cc" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="38934ba0-d0c8-4ff1-b39d-50890708cb62"/>
@@ -27044,26 +27103,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{032D7E56-4464-4468-967D-9B90BB52AA5D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="38934ba0-d0c8-4ff1-b39d-50890708cb62"/>
-    <ds:schemaRef ds:uri="ab06a5aa-8e31-4bdb-9b13-38c58a92ec8a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D64FD81-61B5-4C50-AB1A-3572D60D9783}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="38934ba0-d0c8-4ff1-b39d-50890708cb62">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="ab06a5aa-8e31-4bdb-9b13-38c58a92ec8a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5C433E9-FF21-46B6-A2BC-1CCCB55EBAFA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -27081,4 +27141,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D64FD81-61B5-4C50-AB1A-3572D60D9783}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{032D7E56-4464-4468-967D-9B90BB52AA5D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="38934ba0-d0c8-4ff1-b39d-50890708cb62"/>
+    <ds:schemaRef ds:uri="ab06a5aa-8e31-4bdb-9b13-38c58a92ec8a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>